--- a/full-data-iday14.xlsx
+++ b/full-data-iday14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9200" yWindow="3160" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL 9PM" sheetId="1" r:id="rId1"/>
@@ -3974,7 +3974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -9271,8 +9271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -9822,7 +9822,7 @@
         <v>559</v>
       </c>
       <c r="E32" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13">
@@ -9839,7 +9839,7 @@
         <v>444</v>
       </c>
       <c r="E33" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="13">
@@ -9856,7 +9856,7 @@
         <v>354</v>
       </c>
       <c r="E34" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="13">
@@ -9873,7 +9873,7 @@
         <v>258</v>
       </c>
       <c r="E35" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13">
@@ -9890,7 +9890,7 @@
         <v>160</v>
       </c>
       <c r="E36" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="13">
@@ -10121,14 +10121,14 @@
       <c r="B50" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="128">
         <v>315</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="128">
         <v>223</v>
       </c>
       <c r="E50" s="146">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="13">
@@ -10138,14 +10138,14 @@
       <c r="B51" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="128">
         <v>318</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="128">
         <v>314</v>
       </c>
       <c r="E51" s="146">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="13">
@@ -10155,14 +10155,14 @@
       <c r="B52" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="128">
         <v>317</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="128">
         <v>411</v>
       </c>
       <c r="E52" s="146">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="13">
@@ -10206,14 +10206,14 @@
       <c r="B55" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="128">
         <v>545</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="128">
         <v>260</v>
       </c>
       <c r="E55" s="146">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="13">
@@ -10223,14 +10223,14 @@
       <c r="B56" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="128">
         <v>545</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="128">
         <v>377</v>
       </c>
       <c r="E56" s="146">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="13">
@@ -10247,7 +10247,7 @@
         <v>408</v>
       </c>
       <c r="E57" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="13">
@@ -10264,7 +10264,7 @@
         <v>313</v>
       </c>
       <c r="E58" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="13">
@@ -10281,7 +10281,7 @@
         <v>201</v>
       </c>
       <c r="E59" s="146">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="13">
@@ -10291,14 +10291,14 @@
       <c r="B60" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="128">
         <v>825</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="128">
         <v>201</v>
       </c>
       <c r="E60" s="146">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="13">
@@ -10308,14 +10308,14 @@
       <c r="B61" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="128">
         <v>825</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="128">
         <v>313</v>
       </c>
       <c r="E61" s="146">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="13">
@@ -10325,14 +10325,14 @@
       <c r="B62" s="92" t="s">
         <v>181</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="128">
         <v>825</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="128">
         <v>405</v>
       </c>
       <c r="E62" s="146">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
   </sheetData>

--- a/full-data-iday14.xlsx
+++ b/full-data-iday14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="380" windowWidth="26120" windowHeight="17560" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15040" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL 9PM" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="booth layout prev" sheetId="3" r:id="rId4"/>
     <sheet name="nonfinaldata" sheetId="4" r:id="rId5"/>
     <sheet name="label key" sheetId="6" r:id="rId6"/>
+    <sheet name="updated boothlayout" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'FINAL 9PM'!$F$1:$T$74</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="901">
   <si>
     <t>booth</t>
   </si>
@@ -2178,13 +2179,565 @@
   </si>
   <si>
     <t>the name to display in the company list</t>
+  </si>
+  <si>
+    <t>&lt;svg width="1100" height="2435" viewBox="-10 -800 1000 2225" xmlns="http://www.w3.org/2000/svg" xmlns:svg="http://www.w3.org/2000/svg" xmlns:xlink="http://www.w3.org/1999/xlink"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;!-- Created with SVG-edit - http://svg-edit.googlecode.com/ --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;!-- optimizes using peter collingridge's svg editor/optimiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://petercollingridge.appspot.com/svg-editor --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;style&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   .booth {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   stroke: #000000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   fill: #ff0000;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   stroke-width: 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <t>svg {background: lightgrey; }</t>
+  </si>
+  <si>
+    <t>.wall {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   fill-opacity:0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   stroke-linecap: null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   stroke-linejoin: null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   stroke-dasharray: null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   fill: none;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/style&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;!--</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;g display="inline"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;title&gt;img2&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;image xlink:href="http://i.imgur.com/ArXl22P.png" id="svg_1" height="1248" width="953" y="185" x="8"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;/g&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;title&gt;newimg&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;image xlink:href="http://i.imgur.com/HphIdr8.png" id="svg_2" height="2251" width="964" y="-818" x="5"/&gt;</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;title&gt;booths&lt;/title&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;g id="svg_19"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;rect</t>
+  </si>
+  <si>
+    <t>svg_57</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>booth/&gt;</t>
+  </si>
+  <si>
+    <t>svg_80</t>
+  </si>
+  <si>
+    <t>svg_81</t>
+  </si>
+  <si>
+    <t>svg_82</t>
+  </si>
+  <si>
+    <t>svg_83</t>
+  </si>
+  <si>
+    <t>svg_84</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate(-90 59.99997329711909,-376.33334350585943) </t>
+  </si>
+  <si>
+    <t>svg_85</t>
+  </si>
+  <si>
+    <t>24/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate(-90 51.999973297119034,-651.0000000000001) </t>
+  </si>
+  <si>
+    <t>svg_86</t>
+  </si>
+  <si>
+    <t>581/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate(90 609.3333129882812,-104.33332061767577) </t>
+  </si>
+  <si>
+    <t>svg_87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate(-39.55965042114258 73.33332061767582,-194.9999847412109) </t>
+  </si>
+  <si>
+    <t>svg_88</t>
+  </si>
+  <si>
+    <t>56/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotate(42.51044845581055 83.99998474121094,13.000009536743162) </t>
+  </si>
+  <si>
+    <t>svg_3/&gt;</t>
+  </si>
+  <si>
+    <t>svg_4/&gt;</t>
+  </si>
+  <si>
+    <t>svg_5/&gt;</t>
+  </si>
+  <si>
+    <t>svg_6/&gt;</t>
+  </si>
+  <si>
+    <t>svg_7/&gt;</t>
+  </si>
+  <si>
+    <t>svg_8/&gt;</t>
+  </si>
+  <si>
+    <t>svg_9/&gt;</t>
+  </si>
+  <si>
+    <t>svg_10/&gt;</t>
+  </si>
+  <si>
+    <t>svg_11/&gt;</t>
+  </si>
+  <si>
+    <t>svg_12/&gt;</t>
+  </si>
+  <si>
+    <t>svg_13/&gt;</t>
+  </si>
+  <si>
+    <t>svg_14/&gt;</t>
+  </si>
+  <si>
+    <t>svg_15/&gt;</t>
+  </si>
+  <si>
+    <t>svg_16/&gt;</t>
+  </si>
+  <si>
+    <t>svg_17/&gt;</t>
+  </si>
+  <si>
+    <t>svg_18/&gt;</t>
+  </si>
+  <si>
+    <t>svg_20/&gt;</t>
+  </si>
+  <si>
+    <t>svg_21/&gt;</t>
+  </si>
+  <si>
+    <t>svg_22/&gt;</t>
+  </si>
+  <si>
+    <t>svg_23/&gt;</t>
+  </si>
+  <si>
+    <t>svg_24/&gt;</t>
+  </si>
+  <si>
+    <t>svg_25/&gt;</t>
+  </si>
+  <si>
+    <t>svg_26/&gt;</t>
+  </si>
+  <si>
+    <t>svg_27/&gt;</t>
+  </si>
+  <si>
+    <t>svg_28/&gt;</t>
+  </si>
+  <si>
+    <t>svg_29/&gt;</t>
+  </si>
+  <si>
+    <t>svg_30/&gt;</t>
+  </si>
+  <si>
+    <t>svg_31/&gt;</t>
+  </si>
+  <si>
+    <t>svg_32/&gt;</t>
+  </si>
+  <si>
+    <t>svg_33</t>
+  </si>
+  <si>
+    <t>matrix(0.7008790586895676,0.5186515302772782,-0.5186515302772782,0.7008790586895676,196.13764103827577,-306.0634716546593) /&gt;</t>
+  </si>
+  <si>
+    <t>svg_34/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix(0.531614842633715,-0.6910980566171975,0.6910980566171975,0.531614842633715,-42.99335129261749,271.0982186362347) </t>
+  </si>
+  <si>
+    <t>svg_35/&gt;</t>
+  </si>
+  <si>
+    <t>svg_36/&gt;</t>
+  </si>
+  <si>
+    <t>svg_37/&gt;</t>
+  </si>
+  <si>
+    <t>svg_38</t>
+  </si>
+  <si>
+    <t>matrix(0.638933169263332,-0.5932918927337969,0.5932918927337969,0.638933169263332,-225.76544504101662,968.0253084882027) /&gt;</t>
+  </si>
+  <si>
+    <t>svg_39/&gt;</t>
+  </si>
+  <si>
+    <t>svg_40/&gt;</t>
+  </si>
+  <si>
+    <t>svg_41/&gt;</t>
+  </si>
+  <si>
+    <t>svg_42/&gt;</t>
+  </si>
+  <si>
+    <t>svg_43/&gt;</t>
+  </si>
+  <si>
+    <t>svg_44/&gt;</t>
+  </si>
+  <si>
+    <t>svg_45/&gt;</t>
+  </si>
+  <si>
+    <t>svg_46/&gt;</t>
+  </si>
+  <si>
+    <t>svg_47/&gt;</t>
+  </si>
+  <si>
+    <t>svg_48/&gt;</t>
+  </si>
+  <si>
+    <t>svg_49/&gt;</t>
+  </si>
+  <si>
+    <t>svg_50</t>
+  </si>
+  <si>
+    <t>matrix(4.6440852291236576e-7,-0.8719121886797552,0.8719121886797552,4.6440852291236576e-7,-835.734608805689,1472.0783421106814) /&gt;</t>
+  </si>
+  <si>
+    <t>svg_51</t>
+  </si>
+  <si>
+    <t>matrix(0.7127737068708423,-0.5,0.5021797562249352,0.7127737068708423,-497.63622158381645,500.38574908686286) /&gt;</t>
+  </si>
+  <si>
+    <t>svg_52</t>
+  </si>
+  <si>
+    <t>matrix(0.03287766790076221,0.8712921001145045,-0.9,0,1770,433) /&gt;</t>
+  </si>
+  <si>
+    <t>svg_53/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix(0,0.9,-0.9,0.03287766790076221,1531.4962704153527,710.3756954396183) </t>
+  </si>
+  <si>
+    <t>svg_54</t>
+  </si>
+  <si>
+    <t>matrix(-0.1,-0.9,0.9,-0.1,-628,1712) /&gt;</t>
+  </si>
+  <si>
+    <t>svg_55</t>
+  </si>
+  <si>
+    <t>matrix(0.5,0.7,-0.7,0.5,1075,505) /&gt;</t>
+  </si>
+  <si>
+    <t>svg_56</t>
+  </si>
+  <si>
+    <t>matrix(0.5,-0,0.6,0.6,-640,1092) /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;path</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>m12 904l0-717 946-1 0 719 -179-1 13-30 -114 0 15 31 -6810 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0z</t>
+  </si>
+  <si>
+    <t>svg_58/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;line</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>svg_59/&gt;</t>
+  </si>
+  <si>
+    <t>svg_60/&gt;</t>
+  </si>
+  <si>
+    <t>svg_61/&gt;</t>
+  </si>
+  <si>
+    <t>svg_62/&gt;</t>
+  </si>
+  <si>
+    <t>svg_63/&gt;</t>
+  </si>
+  <si>
+    <t>svg_64/&gt;</t>
+  </si>
+  <si>
+    <t>svg_65/&gt;</t>
+  </si>
+  <si>
+    <t>svg_66/&gt;</t>
+  </si>
+  <si>
+    <t>svg_67/&gt;</t>
+  </si>
+  <si>
+    <t>svg_68/&gt;</t>
+  </si>
+  <si>
+    <t>svg_69/&gt;</t>
+  </si>
+  <si>
+    <t>svg_70/&gt;</t>
+  </si>
+  <si>
+    <t>svg_71/&gt;</t>
+  </si>
+  <si>
+    <t>svg_72/&gt;</t>
+  </si>
+  <si>
+    <t>svg_73/&gt;</t>
+  </si>
+  <si>
+    <t>svg_74/&gt;</t>
+  </si>
+  <si>
+    <t>svg_75/&gt;</t>
+  </si>
+  <si>
+    <t>svg_76/&gt;</t>
+  </si>
+  <si>
+    <t>m401 1073l-193-1 0 354 589 0 0-359 -296-1 30 40 -163-1 33-32 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0z</t>
+  </si>
+  <si>
+    <t>svg_77/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;text</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>stroke-width</t>
+  </si>
+  <si>
+    <t>svg_78</t>
+  </si>
+  <si>
+    <t>font-size</t>
+  </si>
+  <si>
+    <t>font-family</t>
+  </si>
+  <si>
+    <t>serif</t>
+  </si>
+  <si>
+    <t>text-anchor</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>xml:space</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>matrix(0.9757868429625915,0,0,0.8719121886798789,-23.078713037476177,183.8957192263419) &gt;Northshore</t>
+  </si>
+  <si>
+    <t>Room&lt;/text&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrix(0.9757868429625913,0,0,0.8719121886798789,161.46109724516543,184.55850812316598) </t>
+  </si>
+  <si>
+    <t>svg_79&gt;Lakeshore</t>
+  </si>
+  <si>
+    <t>svg_90</t>
+  </si>
+  <si>
+    <t>225/&gt;</t>
+  </si>
+  <si>
+    <t>svg_91</t>
+  </si>
+  <si>
+    <t>288/&gt;</t>
+  </si>
+  <si>
+    <t>svg_93</t>
+  </si>
+  <si>
+    <t>220/&gt;</t>
+  </si>
+  <si>
+    <t>svg_94</t>
+  </si>
+  <si>
+    <t>640/&gt;</t>
+  </si>
+  <si>
+    <t>svg_95</t>
+  </si>
+  <si>
+    <t>654/&gt;</t>
+  </si>
+  <si>
+    <t>svg_96</t>
+  </si>
+  <si>
+    <t>649/&gt;</t>
+  </si>
+  <si>
+    <t>svg_97</t>
+  </si>
+  <si>
+    <t>427/&gt;</t>
+  </si>
+  <si>
+    <t>svg_98</t>
+  </si>
+  <si>
+    <t>428/&gt;</t>
+  </si>
+  <si>
+    <t>svg_99</t>
+  </si>
+  <si>
+    <t>22/&gt;</t>
+  </si>
+  <si>
+    <t>svg_92/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;/g&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/svg&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2348,8 +2901,15 @@
       <sz val="14"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2389,6 +2949,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3008,7 +3574,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3198,8 +3764,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3717,8 +4301,13 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -3812,6 +4401,15 @@
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -3905,6 +4503,15 @@
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Output" xfId="70" builtinId="21"/>
@@ -19578,7 +20185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -19731,4 +20338,2750 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AB155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
+      <c r="E40" t="s">
+        <v>746</v>
+      </c>
+      <c r="F40" t="s">
+        <v>750</v>
+      </c>
+      <c r="G40" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="K40" s="193" t="s">
+        <v>749</v>
+      </c>
+      <c r="L40" s="193" t="s">
+        <v>748</v>
+      </c>
+      <c r="M40" s="194" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="H41" s="147" t="s">
+        <v>747</v>
+      </c>
+      <c r="I41" s="147">
+        <v>63</v>
+      </c>
+      <c r="J41" s="147">
+        <v>-771</v>
+      </c>
+      <c r="K41" s="147">
+        <v>56</v>
+      </c>
+      <c r="L41" s="147">
+        <v>21</v>
+      </c>
+      <c r="P41" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="H42" s="147" t="s">
+        <v>752</v>
+      </c>
+      <c r="I42" s="147">
+        <v>293</v>
+      </c>
+      <c r="J42" s="147">
+        <v>-766</v>
+      </c>
+      <c r="K42" s="147">
+        <v>56</v>
+      </c>
+      <c r="L42" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="H43" s="147" t="s">
+        <v>753</v>
+      </c>
+      <c r="I43" s="147">
+        <v>59</v>
+      </c>
+      <c r="J43" s="147">
+        <v>-534</v>
+      </c>
+      <c r="K43" s="147">
+        <v>56</v>
+      </c>
+      <c r="L43" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="H44" s="147" t="s">
+        <v>754</v>
+      </c>
+      <c r="I44" s="147">
+        <v>539</v>
+      </c>
+      <c r="J44" s="147">
+        <v>96</v>
+      </c>
+      <c r="K44" s="147">
+        <v>56</v>
+      </c>
+      <c r="L44" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="H45" s="147" t="s">
+        <v>755</v>
+      </c>
+      <c r="I45" s="147">
+        <v>669</v>
+      </c>
+      <c r="J45" s="147">
+        <v>77</v>
+      </c>
+      <c r="K45" s="147">
+        <v>56</v>
+      </c>
+      <c r="L45" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="H46" s="147" t="s">
+        <v>756</v>
+      </c>
+      <c r="I46" s="147">
+        <v>32</v>
+      </c>
+      <c r="J46" s="147">
+        <v>-387</v>
+      </c>
+      <c r="K46" s="147">
+        <v>56</v>
+      </c>
+      <c r="L46" s="147">
+        <v>21</v>
+      </c>
+      <c r="M46" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="H47" s="147" t="s">
+        <v>759</v>
+      </c>
+      <c r="I47" s="147" t="s">
+        <v>760</v>
+      </c>
+      <c r="J47" s="147">
+        <v>-662</v>
+      </c>
+      <c r="K47" s="147">
+        <v>56</v>
+      </c>
+      <c r="L47" s="147">
+        <v>21</v>
+      </c>
+      <c r="M47" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="H48" s="147" t="s">
+        <v>762</v>
+      </c>
+      <c r="I48" s="147" t="s">
+        <v>763</v>
+      </c>
+      <c r="J48" s="147">
+        <v>-115</v>
+      </c>
+      <c r="K48" s="147">
+        <v>56</v>
+      </c>
+      <c r="L48" s="147">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="49" spans="8:13">
+      <c r="H49" s="147" t="s">
+        <v>765</v>
+      </c>
+      <c r="I49" s="147">
+        <v>45</v>
+      </c>
+      <c r="J49" s="147">
+        <v>-206</v>
+      </c>
+      <c r="K49" s="147">
+        <v>56</v>
+      </c>
+      <c r="L49" s="147">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="50" spans="8:13">
+      <c r="H50" s="147" t="s">
+        <v>767</v>
+      </c>
+      <c r="I50" s="147" t="s">
+        <v>768</v>
+      </c>
+      <c r="J50" s="147">
+        <v>2</v>
+      </c>
+      <c r="K50" s="147">
+        <v>56</v>
+      </c>
+      <c r="L50" s="147">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="51" spans="8:13">
+      <c r="H51" s="147" t="s">
+        <v>770</v>
+      </c>
+      <c r="I51" s="147">
+        <v>41</v>
+      </c>
+      <c r="J51" s="147">
+        <v>332</v>
+      </c>
+      <c r="K51" s="147">
+        <v>21</v>
+      </c>
+      <c r="L51" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="8:13">
+      <c r="H52" s="147" t="s">
+        <v>771</v>
+      </c>
+      <c r="I52" s="147">
+        <v>40</v>
+      </c>
+      <c r="J52" s="147">
+        <v>425</v>
+      </c>
+      <c r="K52" s="147">
+        <v>21</v>
+      </c>
+      <c r="L52" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="8:13">
+      <c r="H53" s="147" t="s">
+        <v>772</v>
+      </c>
+      <c r="I53" s="147">
+        <v>43</v>
+      </c>
+      <c r="J53" s="147">
+        <v>513</v>
+      </c>
+      <c r="K53" s="147">
+        <v>18</v>
+      </c>
+      <c r="L53" s="147">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="8:13">
+      <c r="H54" s="147" t="s">
+        <v>773</v>
+      </c>
+      <c r="I54" s="147">
+        <v>43</v>
+      </c>
+      <c r="J54" s="147">
+        <v>585</v>
+      </c>
+      <c r="K54" s="147">
+        <v>18</v>
+      </c>
+      <c r="L54" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="8:13">
+      <c r="H55" s="147" t="s">
+        <v>774</v>
+      </c>
+      <c r="I55" s="147">
+        <v>39</v>
+      </c>
+      <c r="J55" s="147">
+        <v>691</v>
+      </c>
+      <c r="K55" s="147">
+        <v>20</v>
+      </c>
+      <c r="L55" s="147">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="8:13">
+      <c r="H56" s="147" t="s">
+        <v>775</v>
+      </c>
+      <c r="I56" s="147">
+        <v>238</v>
+      </c>
+      <c r="J56" s="147">
+        <v>382</v>
+      </c>
+      <c r="K56" s="147">
+        <v>22</v>
+      </c>
+      <c r="L56" s="147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="8:13">
+      <c r="H57" s="147" t="s">
+        <v>776</v>
+      </c>
+      <c r="I57" s="147">
+        <v>281</v>
+      </c>
+      <c r="J57" s="147">
+        <v>378</v>
+      </c>
+      <c r="K57" s="147">
+        <v>27</v>
+      </c>
+      <c r="L57" s="147">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="8:13">
+      <c r="H58" s="147" t="s">
+        <v>777</v>
+      </c>
+      <c r="I58" s="147">
+        <v>237</v>
+      </c>
+      <c r="J58" s="147">
+        <v>456</v>
+      </c>
+      <c r="K58" s="147">
+        <v>21</v>
+      </c>
+      <c r="L58" s="147">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="8:13">
+      <c r="H59" s="147" t="s">
+        <v>778</v>
+      </c>
+      <c r="I59" s="147">
+        <v>284</v>
+      </c>
+      <c r="J59" s="147">
+        <v>458</v>
+      </c>
+      <c r="K59" s="147">
+        <v>24</v>
+      </c>
+      <c r="L59" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="8:13">
+      <c r="H60" s="147" t="s">
+        <v>779</v>
+      </c>
+      <c r="I60" s="147">
+        <v>235</v>
+      </c>
+      <c r="J60" s="147">
+        <v>541</v>
+      </c>
+      <c r="K60" s="147">
+        <v>22</v>
+      </c>
+      <c r="L60" s="147">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="8:13">
+      <c r="H61" s="147" t="s">
+        <v>780</v>
+      </c>
+      <c r="I61" s="147">
+        <v>283</v>
+      </c>
+      <c r="J61" s="147">
+        <v>542</v>
+      </c>
+      <c r="K61" s="147">
+        <v>27</v>
+      </c>
+      <c r="L61" s="147">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="8:13">
+      <c r="H62" s="147" t="s">
+        <v>781</v>
+      </c>
+      <c r="I62" s="147">
+        <v>284</v>
+      </c>
+      <c r="J62" s="147">
+        <v>217</v>
+      </c>
+      <c r="K62" s="147">
+        <v>65</v>
+      </c>
+      <c r="L62" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="8:13">
+      <c r="H63" s="147" t="s">
+        <v>782</v>
+      </c>
+      <c r="I63" s="147">
+        <v>463</v>
+      </c>
+      <c r="J63" s="147">
+        <v>214</v>
+      </c>
+      <c r="K63" s="147">
+        <v>54</v>
+      </c>
+      <c r="L63" s="147">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="8:13">
+      <c r="H64" s="147" t="s">
+        <v>783</v>
+      </c>
+      <c r="I64" s="147">
+        <v>576</v>
+      </c>
+      <c r="J64" s="147">
+        <v>216</v>
+      </c>
+      <c r="K64" s="147">
+        <v>56</v>
+      </c>
+      <c r="L64" s="147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="8:12">
+      <c r="H65" s="147" t="s">
+        <v>784</v>
+      </c>
+      <c r="I65" s="147">
+        <v>678</v>
+      </c>
+      <c r="J65" s="147">
+        <v>359</v>
+      </c>
+      <c r="K65" s="147">
+        <v>17</v>
+      </c>
+      <c r="L65" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="8:12">
+      <c r="H66" s="147" t="s">
+        <v>785</v>
+      </c>
+      <c r="I66" s="147">
+        <v>727</v>
+      </c>
+      <c r="J66" s="147">
+        <v>360</v>
+      </c>
+      <c r="K66" s="147">
+        <v>17</v>
+      </c>
+      <c r="L66" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="8:12">
+      <c r="H67" s="147" t="s">
+        <v>786</v>
+      </c>
+      <c r="I67" s="147">
+        <v>678</v>
+      </c>
+      <c r="J67" s="147">
+        <v>457</v>
+      </c>
+      <c r="K67" s="147">
+        <v>17</v>
+      </c>
+      <c r="L67" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="8:12">
+      <c r="H68" s="147" t="s">
+        <v>787</v>
+      </c>
+      <c r="I68" s="147">
+        <v>727</v>
+      </c>
+      <c r="J68" s="147">
+        <v>456</v>
+      </c>
+      <c r="K68" s="147">
+        <v>17</v>
+      </c>
+      <c r="L68" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="8:12">
+      <c r="H69" s="147" t="s">
+        <v>788</v>
+      </c>
+      <c r="I69" s="147">
+        <v>680</v>
+      </c>
+      <c r="J69" s="147">
+        <v>540</v>
+      </c>
+      <c r="K69" s="147">
+        <v>17</v>
+      </c>
+      <c r="L69" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="8:12">
+      <c r="H70" s="147" t="s">
+        <v>789</v>
+      </c>
+      <c r="I70" s="147">
+        <v>725</v>
+      </c>
+      <c r="J70" s="147">
+        <v>537</v>
+      </c>
+      <c r="K70" s="147">
+        <v>17</v>
+      </c>
+      <c r="L70" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="8:12">
+      <c r="H71" s="147" t="s">
+        <v>790</v>
+      </c>
+      <c r="I71" s="147">
+        <v>908</v>
+      </c>
+      <c r="J71" s="147">
+        <v>324</v>
+      </c>
+      <c r="K71" s="147">
+        <v>17</v>
+      </c>
+      <c r="L71" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="8:12">
+      <c r="H72" s="147" t="s">
+        <v>791</v>
+      </c>
+      <c r="I72" s="147">
+        <v>909</v>
+      </c>
+      <c r="J72" s="147">
+        <v>409</v>
+      </c>
+      <c r="K72" s="147">
+        <v>17</v>
+      </c>
+      <c r="L72" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="8:12">
+      <c r="H73" s="147" t="s">
+        <v>792</v>
+      </c>
+      <c r="I73" s="147">
+        <v>909</v>
+      </c>
+      <c r="J73" s="147">
+        <v>493</v>
+      </c>
+      <c r="K73" s="147">
+        <v>17</v>
+      </c>
+      <c r="L73" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="8:12">
+      <c r="H74" s="147" t="s">
+        <v>793</v>
+      </c>
+      <c r="I74" s="147">
+        <v>908</v>
+      </c>
+      <c r="J74" s="147">
+        <v>571</v>
+      </c>
+      <c r="K74" s="147">
+        <v>17</v>
+      </c>
+      <c r="L74" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="8:12">
+      <c r="H75" s="147" t="s">
+        <v>794</v>
+      </c>
+      <c r="I75" s="147">
+        <v>907</v>
+      </c>
+      <c r="J75" s="147">
+        <v>671</v>
+      </c>
+      <c r="K75" s="147">
+        <v>17</v>
+      </c>
+      <c r="L75" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="8:12">
+      <c r="H76" s="147" t="s">
+        <v>795</v>
+      </c>
+      <c r="I76" s="147">
+        <v>433</v>
+      </c>
+      <c r="J76" s="147">
+        <v>411</v>
+      </c>
+      <c r="K76" s="147">
+        <v>17</v>
+      </c>
+      <c r="L76" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="8:12">
+      <c r="H77" s="147" t="s">
+        <v>796</v>
+      </c>
+      <c r="I77" s="147">
+        <v>482</v>
+      </c>
+      <c r="J77" s="147">
+        <v>411</v>
+      </c>
+      <c r="K77" s="147">
+        <v>17</v>
+      </c>
+      <c r="L77" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="8:12">
+      <c r="H78" s="147" t="s">
+        <v>797</v>
+      </c>
+      <c r="I78" s="147">
+        <v>432</v>
+      </c>
+      <c r="J78" s="147">
+        <v>511</v>
+      </c>
+      <c r="K78" s="147">
+        <v>17</v>
+      </c>
+      <c r="L78" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="8:12">
+      <c r="H79" s="147" t="s">
+        <v>798</v>
+      </c>
+      <c r="I79" s="147">
+        <v>481</v>
+      </c>
+      <c r="J79" s="147">
+        <v>513</v>
+      </c>
+      <c r="K79" s="147">
+        <v>17</v>
+      </c>
+      <c r="L79" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="8:12">
+      <c r="H80" s="147"/>
+      <c r="I80" s="147"/>
+      <c r="J80" s="147"/>
+      <c r="K80" s="147"/>
+      <c r="L80" s="147"/>
+    </row>
+    <row r="81" spans="8:13">
+      <c r="H81" s="147" t="s">
+        <v>799</v>
+      </c>
+      <c r="I81" s="147">
+        <v>956</v>
+      </c>
+      <c r="J81" s="147">
+        <v>39</v>
+      </c>
+      <c r="K81" s="147">
+        <v>74</v>
+      </c>
+      <c r="L81" s="147">
+        <v>21</v>
+      </c>
+      <c r="M81" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13">
+      <c r="H82" s="147" t="s">
+        <v>801</v>
+      </c>
+      <c r="I82" s="147">
+        <v>52</v>
+      </c>
+      <c r="J82" s="147">
+        <v>80</v>
+      </c>
+      <c r="K82" s="147">
+        <v>74</v>
+      </c>
+      <c r="L82" s="147">
+        <v>21</v>
+      </c>
+      <c r="M82" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13">
+      <c r="H83" s="147"/>
+      <c r="I83" s="147"/>
+      <c r="J83" s="147"/>
+      <c r="K83" s="147"/>
+      <c r="L83" s="147"/>
+    </row>
+    <row r="84" spans="8:13">
+      <c r="H84" s="147" t="s">
+        <v>803</v>
+      </c>
+      <c r="I84" s="147">
+        <v>65</v>
+      </c>
+      <c r="J84" s="147">
+        <v>839</v>
+      </c>
+      <c r="K84" s="147">
+        <v>65</v>
+      </c>
+      <c r="L84" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13">
+      <c r="H85" s="147" t="s">
+        <v>804</v>
+      </c>
+      <c r="I85" s="147">
+        <v>269</v>
+      </c>
+      <c r="J85" s="147">
+        <v>838</v>
+      </c>
+      <c r="K85" s="147">
+        <v>65</v>
+      </c>
+      <c r="L85" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13">
+      <c r="H86" s="147" t="s">
+        <v>805</v>
+      </c>
+      <c r="I86" s="147">
+        <v>559</v>
+      </c>
+      <c r="J86" s="147">
+        <v>857</v>
+      </c>
+      <c r="K86" s="147">
+        <v>65</v>
+      </c>
+      <c r="L86" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="8:13">
+      <c r="H87" s="147" t="s">
+        <v>806</v>
+      </c>
+      <c r="I87" s="147">
+        <v>988</v>
+      </c>
+      <c r="J87" s="147">
+        <v>754</v>
+      </c>
+      <c r="K87" s="147">
+        <v>74</v>
+      </c>
+      <c r="L87" s="147">
+        <v>21</v>
+      </c>
+      <c r="M87" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="88" spans="8:13">
+      <c r="H88" s="147"/>
+      <c r="I88" s="147"/>
+      <c r="J88" s="147"/>
+      <c r="K88" s="147"/>
+      <c r="L88" s="147"/>
+    </row>
+    <row r="89" spans="8:13">
+      <c r="H89" s="147" t="s">
+        <v>808</v>
+      </c>
+      <c r="I89" s="147">
+        <v>248</v>
+      </c>
+      <c r="J89" s="147">
+        <v>947</v>
+      </c>
+      <c r="K89" s="147">
+        <v>65</v>
+      </c>
+      <c r="L89" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13">
+      <c r="H90" s="147" t="s">
+        <v>809</v>
+      </c>
+      <c r="I90" s="147">
+        <v>23</v>
+      </c>
+      <c r="J90" s="147">
+        <v>923</v>
+      </c>
+      <c r="K90" s="147">
+        <v>65</v>
+      </c>
+      <c r="L90" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13">
+      <c r="H91" s="147" t="s">
+        <v>810</v>
+      </c>
+      <c r="I91" s="147">
+        <v>595</v>
+      </c>
+      <c r="J91" s="147">
+        <v>921</v>
+      </c>
+      <c r="K91" s="147">
+        <v>65</v>
+      </c>
+      <c r="L91" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="8:13">
+      <c r="H92" s="147" t="s">
+        <v>811</v>
+      </c>
+      <c r="I92" s="147">
+        <v>183</v>
+      </c>
+      <c r="J92" s="147">
+        <v>1032</v>
+      </c>
+      <c r="K92" s="147">
+        <v>65</v>
+      </c>
+      <c r="L92" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="8:13">
+      <c r="H93" s="147" t="s">
+        <v>812</v>
+      </c>
+      <c r="I93" s="147">
+        <v>283</v>
+      </c>
+      <c r="J93" s="147">
+        <v>1035</v>
+      </c>
+      <c r="K93" s="147">
+        <v>65</v>
+      </c>
+      <c r="L93" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13">
+      <c r="H94" s="147" t="s">
+        <v>813</v>
+      </c>
+      <c r="I94" s="147">
+        <v>514</v>
+      </c>
+      <c r="J94" s="147">
+        <v>1036</v>
+      </c>
+      <c r="K94" s="147">
+        <v>65</v>
+      </c>
+      <c r="L94" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13">
+      <c r="H95" s="147" t="s">
+        <v>814</v>
+      </c>
+      <c r="I95" s="147">
+        <v>625</v>
+      </c>
+      <c r="J95" s="147">
+        <v>1036</v>
+      </c>
+      <c r="K95" s="147">
+        <v>65</v>
+      </c>
+      <c r="L95" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13">
+      <c r="H96" s="147" t="s">
+        <v>815</v>
+      </c>
+      <c r="I96" s="147">
+        <v>740</v>
+      </c>
+      <c r="J96" s="147">
+        <v>1038</v>
+      </c>
+      <c r="K96" s="147">
+        <v>65</v>
+      </c>
+      <c r="L96" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="H97" s="147" t="s">
+        <v>816</v>
+      </c>
+      <c r="I97" s="147">
+        <v>851</v>
+      </c>
+      <c r="J97" s="147">
+        <v>918</v>
+      </c>
+      <c r="K97" s="147">
+        <v>65</v>
+      </c>
+      <c r="L97" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="H98" s="147" t="s">
+        <v>817</v>
+      </c>
+      <c r="I98" s="147">
+        <v>845</v>
+      </c>
+      <c r="J98" s="147">
+        <v>1036</v>
+      </c>
+      <c r="K98" s="147">
+        <v>65</v>
+      </c>
+      <c r="L98" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="H99" s="147" t="s">
+        <v>818</v>
+      </c>
+      <c r="I99" s="147">
+        <v>656</v>
+      </c>
+      <c r="J99" s="147">
+        <v>1099</v>
+      </c>
+      <c r="K99" s="147">
+        <v>65</v>
+      </c>
+      <c r="L99" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="H100" s="147"/>
+      <c r="I100" s="147"/>
+      <c r="J100" s="147"/>
+      <c r="K100" s="147"/>
+      <c r="L100" s="147"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="H101" s="147" t="s">
+        <v>819</v>
+      </c>
+      <c r="I101" s="147">
+        <v>233</v>
+      </c>
+      <c r="J101" s="147">
+        <v>1213</v>
+      </c>
+      <c r="K101" s="147">
+        <v>74</v>
+      </c>
+      <c r="L101" s="147">
+        <v>21</v>
+      </c>
+      <c r="M101" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="H102" s="147" t="s">
+        <v>821</v>
+      </c>
+      <c r="I102" s="147">
+        <v>257</v>
+      </c>
+      <c r="J102" s="147">
+        <v>1051</v>
+      </c>
+      <c r="K102" s="147">
+        <v>74</v>
+      </c>
+      <c r="L102" s="147">
+        <v>21</v>
+      </c>
+      <c r="M102" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="H103" s="147" t="s">
+        <v>823</v>
+      </c>
+      <c r="I103" s="147">
+        <v>829</v>
+      </c>
+      <c r="J103" s="147">
+        <v>1169</v>
+      </c>
+      <c r="K103" s="147">
+        <v>74</v>
+      </c>
+      <c r="L103" s="147">
+        <v>21</v>
+      </c>
+      <c r="M103" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="H104" s="147" t="s">
+        <v>825</v>
+      </c>
+      <c r="I104" s="147">
+        <v>527</v>
+      </c>
+      <c r="J104" s="147">
+        <v>1186</v>
+      </c>
+      <c r="K104" s="147">
+        <v>74</v>
+      </c>
+      <c r="L104" s="147">
+        <v>21</v>
+      </c>
+      <c r="M104" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="H105" s="147" t="s">
+        <v>827</v>
+      </c>
+      <c r="I105" s="147">
+        <v>460</v>
+      </c>
+      <c r="J105" s="147">
+        <v>1221</v>
+      </c>
+      <c r="K105" s="147">
+        <v>74</v>
+      </c>
+      <c r="L105" s="147">
+        <v>21</v>
+      </c>
+      <c r="M105" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="H106" s="147" t="s">
+        <v>829</v>
+      </c>
+      <c r="I106" s="147">
+        <v>243</v>
+      </c>
+      <c r="J106" s="147">
+        <v>1335</v>
+      </c>
+      <c r="K106" s="147">
+        <v>74</v>
+      </c>
+      <c r="L106" s="147">
+        <v>21</v>
+      </c>
+      <c r="M106" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="H107" s="147" t="s">
+        <v>831</v>
+      </c>
+      <c r="I107" s="147">
+        <v>799</v>
+      </c>
+      <c r="J107" s="147">
+        <v>1340</v>
+      </c>
+      <c r="K107" s="147">
+        <v>74</v>
+      </c>
+      <c r="L107" s="147">
+        <v>21</v>
+      </c>
+      <c r="M107" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="195"/>
+      <c r="B108" s="195"/>
+      <c r="C108" s="195"/>
+      <c r="D108" s="195"/>
+      <c r="E108" s="195"/>
+      <c r="F108" s="195"/>
+      <c r="G108" s="195"/>
+      <c r="H108" s="195"/>
+      <c r="I108" s="195"/>
+      <c r="J108" s="195"/>
+      <c r="K108" s="195"/>
+      <c r="L108" s="195"/>
+      <c r="M108" s="195"/>
+      <c r="N108" s="195"/>
+      <c r="O108" s="195"/>
+      <c r="P108" s="195"/>
+      <c r="Q108" s="195"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="E109" t="s">
+        <v>833</v>
+      </c>
+      <c r="F109" t="s">
+        <v>750</v>
+      </c>
+      <c r="G109" t="s">
+        <v>834</v>
+      </c>
+      <c r="H109" t="s">
+        <v>835</v>
+      </c>
+      <c r="I109" t="s">
+        <v>836</v>
+      </c>
+      <c r="J109" t="s">
+        <v>2</v>
+      </c>
+      <c r="K109" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="E111" t="s">
+        <v>838</v>
+      </c>
+      <c r="F111" t="s">
+        <v>750</v>
+      </c>
+      <c r="G111" t="s">
+        <v>834</v>
+      </c>
+      <c r="H111" t="s">
+        <v>839</v>
+      </c>
+      <c r="I111">
+        <v>202</v>
+      </c>
+      <c r="J111" t="s">
+        <v>840</v>
+      </c>
+      <c r="K111">
+        <v>218</v>
+      </c>
+      <c r="L111" t="s">
+        <v>841</v>
+      </c>
+      <c r="M111">
+        <v>178</v>
+      </c>
+      <c r="N111" t="s">
+        <v>842</v>
+      </c>
+      <c r="O111">
+        <v>186</v>
+      </c>
+      <c r="P111" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="E112" t="s">
+        <v>838</v>
+      </c>
+      <c r="F112" t="s">
+        <v>750</v>
+      </c>
+      <c r="G112" t="s">
+        <v>834</v>
+      </c>
+      <c r="H112" t="s">
+        <v>839</v>
+      </c>
+      <c r="I112">
+        <v>420</v>
+      </c>
+      <c r="J112" t="s">
+        <v>840</v>
+      </c>
+      <c r="K112">
+        <v>219</v>
+      </c>
+      <c r="L112" t="s">
+        <v>841</v>
+      </c>
+      <c r="M112">
+        <v>396</v>
+      </c>
+      <c r="N112" t="s">
+        <v>842</v>
+      </c>
+      <c r="O112">
+        <v>187</v>
+      </c>
+      <c r="P112" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="113" spans="5:17">
+      <c r="E113" t="s">
+        <v>838</v>
+      </c>
+      <c r="F113" t="s">
+        <v>750</v>
+      </c>
+      <c r="G113" t="s">
+        <v>834</v>
+      </c>
+      <c r="H113" t="s">
+        <v>839</v>
+      </c>
+      <c r="I113">
+        <v>254</v>
+      </c>
+      <c r="J113" t="s">
+        <v>840</v>
+      </c>
+      <c r="K113">
+        <v>906</v>
+      </c>
+      <c r="L113" t="s">
+        <v>841</v>
+      </c>
+      <c r="M113">
+        <v>230</v>
+      </c>
+      <c r="N113" t="s">
+        <v>842</v>
+      </c>
+      <c r="O113">
+        <v>875</v>
+      </c>
+      <c r="P113" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="114" spans="5:17">
+      <c r="E114" t="s">
+        <v>838</v>
+      </c>
+      <c r="F114" t="s">
+        <v>750</v>
+      </c>
+      <c r="G114" t="s">
+        <v>834</v>
+      </c>
+      <c r="H114" t="s">
+        <v>839</v>
+      </c>
+      <c r="I114">
+        <v>429</v>
+      </c>
+      <c r="J114" t="s">
+        <v>840</v>
+      </c>
+      <c r="K114">
+        <v>906</v>
+      </c>
+      <c r="L114" t="s">
+        <v>841</v>
+      </c>
+      <c r="M114">
+        <v>405</v>
+      </c>
+      <c r="N114" t="s">
+        <v>842</v>
+      </c>
+      <c r="O114">
+        <v>875</v>
+      </c>
+      <c r="P114" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="115" spans="5:17">
+      <c r="E115" t="s">
+        <v>838</v>
+      </c>
+      <c r="F115" t="s">
+        <v>750</v>
+      </c>
+      <c r="G115" t="s">
+        <v>834</v>
+      </c>
+      <c r="H115" t="s">
+        <v>839</v>
+      </c>
+      <c r="I115">
+        <v>580</v>
+      </c>
+      <c r="J115" t="s">
+        <v>840</v>
+      </c>
+      <c r="K115">
+        <v>906</v>
+      </c>
+      <c r="L115" t="s">
+        <v>841</v>
+      </c>
+      <c r="M115">
+        <v>556</v>
+      </c>
+      <c r="N115" t="s">
+        <v>842</v>
+      </c>
+      <c r="O115">
+        <v>875</v>
+      </c>
+      <c r="P115" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="116" spans="5:17">
+      <c r="E116" t="s">
+        <v>838</v>
+      </c>
+      <c r="F116" t="s">
+        <v>750</v>
+      </c>
+      <c r="G116" t="s">
+        <v>834</v>
+      </c>
+      <c r="H116" t="s">
+        <v>839</v>
+      </c>
+      <c r="I116">
+        <v>705</v>
+      </c>
+      <c r="J116" t="s">
+        <v>840</v>
+      </c>
+      <c r="K116">
+        <v>217</v>
+      </c>
+      <c r="L116" t="s">
+        <v>841</v>
+      </c>
+      <c r="M116">
+        <v>681</v>
+      </c>
+      <c r="N116" t="s">
+        <v>842</v>
+      </c>
+      <c r="O116">
+        <v>186</v>
+      </c>
+      <c r="P116" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="117" spans="5:17">
+      <c r="E117" t="s">
+        <v>838</v>
+      </c>
+      <c r="F117" t="s">
+        <v>750</v>
+      </c>
+      <c r="G117" t="s">
+        <v>834</v>
+      </c>
+      <c r="H117" t="s">
+        <v>839</v>
+      </c>
+      <c r="I117">
+        <v>222</v>
+      </c>
+      <c r="J117" t="s">
+        <v>840</v>
+      </c>
+      <c r="K117">
+        <v>222</v>
+      </c>
+      <c r="L117" t="s">
+        <v>841</v>
+      </c>
+      <c r="M117">
+        <v>249</v>
+      </c>
+      <c r="N117" t="s">
+        <v>842</v>
+      </c>
+      <c r="O117">
+        <v>190</v>
+      </c>
+      <c r="P117" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="118" spans="5:17">
+      <c r="E118" t="s">
+        <v>838</v>
+      </c>
+      <c r="F118" t="s">
+        <v>750</v>
+      </c>
+      <c r="G118" t="s">
+        <v>834</v>
+      </c>
+      <c r="H118" t="s">
+        <v>839</v>
+      </c>
+      <c r="I118">
+        <v>178</v>
+      </c>
+      <c r="J118" t="s">
+        <v>840</v>
+      </c>
+      <c r="K118">
+        <v>904</v>
+      </c>
+      <c r="L118" t="s">
+        <v>841</v>
+      </c>
+      <c r="M118">
+        <v>204</v>
+      </c>
+      <c r="N118" t="s">
+        <v>842</v>
+      </c>
+      <c r="O118">
+        <v>873</v>
+      </c>
+      <c r="P118" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="119" spans="5:17">
+      <c r="E119" t="s">
+        <v>838</v>
+      </c>
+      <c r="F119" t="s">
+        <v>750</v>
+      </c>
+      <c r="G119" t="s">
+        <v>834</v>
+      </c>
+      <c r="H119" t="s">
+        <v>839</v>
+      </c>
+      <c r="I119">
+        <v>357</v>
+      </c>
+      <c r="J119" t="s">
+        <v>840</v>
+      </c>
+      <c r="K119">
+        <v>909</v>
+      </c>
+      <c r="L119" t="s">
+        <v>841</v>
+      </c>
+      <c r="M119">
+        <v>384</v>
+      </c>
+      <c r="N119" t="s">
+        <v>842</v>
+      </c>
+      <c r="O119">
+        <v>878</v>
+      </c>
+      <c r="P119" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="120" spans="5:17">
+      <c r="E120" t="s">
+        <v>838</v>
+      </c>
+      <c r="F120" t="s">
+        <v>750</v>
+      </c>
+      <c r="G120" t="s">
+        <v>834</v>
+      </c>
+      <c r="H120" t="s">
+        <v>839</v>
+      </c>
+      <c r="I120">
+        <v>441</v>
+      </c>
+      <c r="J120" t="s">
+        <v>840</v>
+      </c>
+      <c r="K120">
+        <v>217</v>
+      </c>
+      <c r="L120" t="s">
+        <v>841</v>
+      </c>
+      <c r="M120">
+        <v>467</v>
+      </c>
+      <c r="N120" t="s">
+        <v>842</v>
+      </c>
+      <c r="O120">
+        <v>186</v>
+      </c>
+      <c r="P120" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="121" spans="5:17">
+      <c r="E121" t="s">
+        <v>838</v>
+      </c>
+      <c r="F121" t="s">
+        <v>750</v>
+      </c>
+      <c r="G121" t="s">
+        <v>834</v>
+      </c>
+      <c r="H121" t="s">
+        <v>839</v>
+      </c>
+      <c r="I121">
+        <v>732</v>
+      </c>
+      <c r="J121" t="s">
+        <v>840</v>
+      </c>
+      <c r="K121">
+        <v>219</v>
+      </c>
+      <c r="L121" t="s">
+        <v>841</v>
+      </c>
+      <c r="M121">
+        <v>759</v>
+      </c>
+      <c r="N121" t="s">
+        <v>842</v>
+      </c>
+      <c r="O121">
+        <v>187</v>
+      </c>
+      <c r="P121" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="122" spans="5:17">
+      <c r="E122" t="s">
+        <v>838</v>
+      </c>
+      <c r="F122" t="s">
+        <v>750</v>
+      </c>
+      <c r="G122" t="s">
+        <v>834</v>
+      </c>
+      <c r="H122" t="s">
+        <v>839</v>
+      </c>
+      <c r="I122">
+        <v>502</v>
+      </c>
+      <c r="J122" t="s">
+        <v>840</v>
+      </c>
+      <c r="K122">
+        <v>906</v>
+      </c>
+      <c r="L122" t="s">
+        <v>841</v>
+      </c>
+      <c r="M122">
+        <v>529</v>
+      </c>
+      <c r="N122" t="s">
+        <v>842</v>
+      </c>
+      <c r="O122">
+        <v>875</v>
+      </c>
+      <c r="P122" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="123" spans="5:17">
+      <c r="E123" t="s">
+        <v>838</v>
+      </c>
+      <c r="F123" t="s">
+        <v>750</v>
+      </c>
+      <c r="G123" t="s">
+        <v>834</v>
+      </c>
+      <c r="H123" t="s">
+        <v>839</v>
+      </c>
+      <c r="I123">
+        <v>370</v>
+      </c>
+      <c r="J123" t="s">
+        <v>840</v>
+      </c>
+      <c r="K123">
+        <v>1103</v>
+      </c>
+      <c r="L123" t="s">
+        <v>841</v>
+      </c>
+      <c r="M123">
+        <v>397</v>
+      </c>
+      <c r="N123" t="s">
+        <v>842</v>
+      </c>
+      <c r="O123">
+        <v>1072</v>
+      </c>
+      <c r="P123" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="124" spans="5:17">
+      <c r="E124" t="s">
+        <v>838</v>
+      </c>
+      <c r="F124" t="s">
+        <v>750</v>
+      </c>
+      <c r="G124" t="s">
+        <v>834</v>
+      </c>
+      <c r="H124" t="s">
+        <v>839</v>
+      </c>
+      <c r="I124">
+        <v>321</v>
+      </c>
+      <c r="J124" t="s">
+        <v>840</v>
+      </c>
+      <c r="K124">
+        <v>1432</v>
+      </c>
+      <c r="L124" t="s">
+        <v>841</v>
+      </c>
+      <c r="M124">
+        <v>348</v>
+      </c>
+      <c r="N124" t="s">
+        <v>842</v>
+      </c>
+      <c r="O124">
+        <v>1401</v>
+      </c>
+      <c r="P124" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="125" spans="5:17">
+      <c r="E125" t="s">
+        <v>838</v>
+      </c>
+      <c r="F125" t="s">
+        <v>750</v>
+      </c>
+      <c r="G125" t="s">
+        <v>834</v>
+      </c>
+      <c r="H125" t="s">
+        <v>839</v>
+      </c>
+      <c r="I125">
+        <v>551</v>
+      </c>
+      <c r="J125" t="s">
+        <v>840</v>
+      </c>
+      <c r="K125">
+        <v>1430</v>
+      </c>
+      <c r="L125" t="s">
+        <v>841</v>
+      </c>
+      <c r="M125">
+        <v>578</v>
+      </c>
+      <c r="N125" t="s">
+        <v>842</v>
+      </c>
+      <c r="O125">
+        <v>1399</v>
+      </c>
+      <c r="P125" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="126" spans="5:17">
+      <c r="E126" t="s">
+        <v>838</v>
+      </c>
+      <c r="F126" t="s">
+        <v>750</v>
+      </c>
+      <c r="G126" t="s">
+        <v>834</v>
+      </c>
+      <c r="H126" t="s">
+        <v>839</v>
+      </c>
+      <c r="I126">
+        <v>530</v>
+      </c>
+      <c r="J126" t="s">
+        <v>840</v>
+      </c>
+      <c r="K126">
+        <v>1103</v>
+      </c>
+      <c r="L126" t="s">
+        <v>841</v>
+      </c>
+      <c r="M126">
+        <v>506</v>
+      </c>
+      <c r="N126" t="s">
+        <v>842</v>
+      </c>
+      <c r="O126">
+        <v>1072</v>
+      </c>
+      <c r="P126" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="127" spans="5:17">
+      <c r="E127" t="s">
+        <v>838</v>
+      </c>
+      <c r="F127" t="s">
+        <v>750</v>
+      </c>
+      <c r="G127" t="s">
+        <v>834</v>
+      </c>
+      <c r="H127" t="s">
+        <v>839</v>
+      </c>
+      <c r="I127">
+        <v>644</v>
+      </c>
+      <c r="J127" t="s">
+        <v>840</v>
+      </c>
+      <c r="K127">
+        <v>1429</v>
+      </c>
+      <c r="L127" t="s">
+        <v>841</v>
+      </c>
+      <c r="M127">
+        <v>620</v>
+      </c>
+      <c r="N127" t="s">
+        <v>842</v>
+      </c>
+      <c r="O127">
+        <v>1398</v>
+      </c>
+      <c r="P127" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="128" spans="5:17">
+      <c r="E128" t="s">
+        <v>838</v>
+      </c>
+      <c r="F128" t="s">
+        <v>750</v>
+      </c>
+      <c r="G128" t="s">
+        <v>834</v>
+      </c>
+      <c r="H128" t="s">
+        <v>839</v>
+      </c>
+      <c r="I128">
+        <v>397</v>
+      </c>
+      <c r="J128" t="s">
+        <v>840</v>
+      </c>
+      <c r="K128">
+        <v>1427</v>
+      </c>
+      <c r="L128" t="s">
+        <v>841</v>
+      </c>
+      <c r="M128">
+        <v>373</v>
+      </c>
+      <c r="N128" t="s">
+        <v>842</v>
+      </c>
+      <c r="O128">
+        <v>1396</v>
+      </c>
+      <c r="P128" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="130" spans="5:28">
+      <c r="E130" t="s">
+        <v>833</v>
+      </c>
+      <c r="F130" t="s">
+        <v>750</v>
+      </c>
+      <c r="G130" t="s">
+        <v>834</v>
+      </c>
+      <c r="H130" t="s">
+        <v>835</v>
+      </c>
+      <c r="I130" t="s">
+        <v>861</v>
+      </c>
+      <c r="J130" t="s">
+        <v>2</v>
+      </c>
+      <c r="K130" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="133" spans="5:28">
+      <c r="E133" t="s">
+        <v>863</v>
+      </c>
+      <c r="F133" t="s">
+        <v>864</v>
+      </c>
+      <c r="G133" t="s">
+        <v>865</v>
+      </c>
+      <c r="H133" t="s">
+        <v>866</v>
+      </c>
+      <c r="I133" t="s">
+        <v>865</v>
+      </c>
+      <c r="J133" t="s">
+        <v>867</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>174</v>
+      </c>
+      <c r="M133">
+        <v>369</v>
+      </c>
+      <c r="N133" t="s">
+        <v>175</v>
+      </c>
+      <c r="O133">
+        <v>868</v>
+      </c>
+      <c r="P133" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>868</v>
+      </c>
+      <c r="R133" t="s">
+        <v>869</v>
+      </c>
+      <c r="S133">
+        <v>24</v>
+      </c>
+      <c r="T133" t="s">
+        <v>870</v>
+      </c>
+      <c r="U133" t="s">
+        <v>871</v>
+      </c>
+      <c r="V133" t="s">
+        <v>872</v>
+      </c>
+      <c r="W133" t="s">
+        <v>873</v>
+      </c>
+      <c r="X133" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y133" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z133" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA133" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB133" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="135" spans="5:28">
+      <c r="E135" t="s">
+        <v>863</v>
+      </c>
+      <c r="F135" t="s">
+        <v>864</v>
+      </c>
+      <c r="G135" t="s">
+        <v>865</v>
+      </c>
+      <c r="H135" t="s">
+        <v>866</v>
+      </c>
+      <c r="I135" t="s">
+        <v>865</v>
+      </c>
+      <c r="J135" t="s">
+        <v>867</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>174</v>
+      </c>
+      <c r="M135">
+        <v>360</v>
+      </c>
+      <c r="N135" t="s">
+        <v>175</v>
+      </c>
+      <c r="O135">
+        <v>1103</v>
+      </c>
+      <c r="P135" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q135">
+        <v>24</v>
+      </c>
+      <c r="R135" t="s">
+        <v>870</v>
+      </c>
+      <c r="S135" t="s">
+        <v>871</v>
+      </c>
+      <c r="T135" t="s">
+        <v>872</v>
+      </c>
+      <c r="U135" t="s">
+        <v>873</v>
+      </c>
+      <c r="V135" t="s">
+        <v>874</v>
+      </c>
+      <c r="W135" t="s">
+        <v>875</v>
+      </c>
+      <c r="X135" t="s">
+        <v>757</v>
+      </c>
+      <c r="Y135" t="s">
+        <v>878</v>
+      </c>
+      <c r="Z135" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA135" t="s">
+        <v>879</v>
+      </c>
+      <c r="AB135" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="140" spans="5:28">
+      <c r="E140" t="s">
+        <v>838</v>
+      </c>
+      <c r="F140" t="s">
+        <v>750</v>
+      </c>
+      <c r="G140" t="s">
+        <v>834</v>
+      </c>
+      <c r="H140" t="s">
+        <v>2</v>
+      </c>
+      <c r="I140" t="s">
+        <v>880</v>
+      </c>
+      <c r="J140" t="s">
+        <v>842</v>
+      </c>
+      <c r="K140">
+        <v>-587</v>
+      </c>
+      <c r="L140" t="s">
+        <v>841</v>
+      </c>
+      <c r="M140">
+        <v>23</v>
+      </c>
+      <c r="N140" t="s">
+        <v>840</v>
+      </c>
+      <c r="O140">
+        <v>-587</v>
+      </c>
+      <c r="P140" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="141" spans="5:28">
+      <c r="E141" t="s">
+        <v>838</v>
+      </c>
+      <c r="F141" t="s">
+        <v>750</v>
+      </c>
+      <c r="G141" t="s">
+        <v>834</v>
+      </c>
+      <c r="H141" t="s">
+        <v>2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>882</v>
+      </c>
+      <c r="J141" t="s">
+        <v>842</v>
+      </c>
+      <c r="K141">
+        <v>-242</v>
+      </c>
+      <c r="L141" t="s">
+        <v>841</v>
+      </c>
+      <c r="M141">
+        <v>19</v>
+      </c>
+      <c r="N141" t="s">
+        <v>840</v>
+      </c>
+      <c r="O141">
+        <v>-242</v>
+      </c>
+      <c r="P141" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="142" spans="5:28">
+      <c r="E142" t="s">
+        <v>838</v>
+      </c>
+      <c r="F142" t="s">
+        <v>750</v>
+      </c>
+      <c r="G142" t="s">
+        <v>834</v>
+      </c>
+      <c r="H142" t="s">
+        <v>2</v>
+      </c>
+      <c r="I142" t="s">
+        <v>884</v>
+      </c>
+      <c r="J142" t="s">
+        <v>842</v>
+      </c>
+      <c r="K142">
+        <v>89</v>
+      </c>
+      <c r="L142" t="s">
+        <v>841</v>
+      </c>
+      <c r="M142">
+        <v>18</v>
+      </c>
+      <c r="N142" t="s">
+        <v>840</v>
+      </c>
+      <c r="O142">
+        <v>89</v>
+      </c>
+      <c r="P142" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="143" spans="5:28">
+      <c r="E143" t="s">
+        <v>838</v>
+      </c>
+      <c r="F143" t="s">
+        <v>750</v>
+      </c>
+      <c r="G143" t="s">
+        <v>834</v>
+      </c>
+      <c r="H143" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>886</v>
+      </c>
+      <c r="J143" t="s">
+        <v>842</v>
+      </c>
+      <c r="K143">
+        <v>-319</v>
+      </c>
+      <c r="L143" t="s">
+        <v>841</v>
+      </c>
+      <c r="M143">
+        <v>425</v>
+      </c>
+      <c r="N143" t="s">
+        <v>840</v>
+      </c>
+      <c r="O143">
+        <v>-319</v>
+      </c>
+      <c r="P143" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="144" spans="5:28">
+      <c r="E144" t="s">
+        <v>838</v>
+      </c>
+      <c r="F144" t="s">
+        <v>750</v>
+      </c>
+      <c r="G144" t="s">
+        <v>834</v>
+      </c>
+      <c r="H144" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>888</v>
+      </c>
+      <c r="J144" t="s">
+        <v>842</v>
+      </c>
+      <c r="K144">
+        <v>-239</v>
+      </c>
+      <c r="L144" t="s">
+        <v>841</v>
+      </c>
+      <c r="M144">
+        <v>442</v>
+      </c>
+      <c r="N144" t="s">
+        <v>840</v>
+      </c>
+      <c r="O144">
+        <v>-239</v>
+      </c>
+      <c r="P144" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="145" spans="5:17">
+      <c r="E145" t="s">
+        <v>838</v>
+      </c>
+      <c r="F145" t="s">
+        <v>750</v>
+      </c>
+      <c r="G145" t="s">
+        <v>834</v>
+      </c>
+      <c r="H145" t="s">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>890</v>
+      </c>
+      <c r="J145" t="s">
+        <v>842</v>
+      </c>
+      <c r="K145">
+        <v>71</v>
+      </c>
+      <c r="L145" t="s">
+        <v>841</v>
+      </c>
+      <c r="M145">
+        <v>481</v>
+      </c>
+      <c r="N145" t="s">
+        <v>840</v>
+      </c>
+      <c r="O145">
+        <v>71</v>
+      </c>
+      <c r="P145" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="146" spans="5:17">
+      <c r="E146" t="s">
+        <v>838</v>
+      </c>
+      <c r="F146" t="s">
+        <v>750</v>
+      </c>
+      <c r="G146" t="s">
+        <v>834</v>
+      </c>
+      <c r="H146" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" t="s">
+        <v>892</v>
+      </c>
+      <c r="J146" t="s">
+        <v>842</v>
+      </c>
+      <c r="K146">
+        <v>-800</v>
+      </c>
+      <c r="L146" t="s">
+        <v>841</v>
+      </c>
+      <c r="M146">
+        <v>24</v>
+      </c>
+      <c r="N146" t="s">
+        <v>840</v>
+      </c>
+      <c r="O146">
+        <v>-800</v>
+      </c>
+      <c r="P146" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="147" spans="5:17">
+      <c r="E147" t="s">
+        <v>838</v>
+      </c>
+      <c r="F147" t="s">
+        <v>750</v>
+      </c>
+      <c r="G147" t="s">
+        <v>834</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>894</v>
+      </c>
+      <c r="J147" t="s">
+        <v>842</v>
+      </c>
+      <c r="K147">
+        <v>-319</v>
+      </c>
+      <c r="L147" t="s">
+        <v>841</v>
+      </c>
+      <c r="M147">
+        <v>428</v>
+      </c>
+      <c r="N147" t="s">
+        <v>840</v>
+      </c>
+      <c r="O147">
+        <v>-800</v>
+      </c>
+      <c r="P147" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="148" spans="5:17">
+      <c r="E148" t="s">
+        <v>838</v>
+      </c>
+      <c r="F148" t="s">
+        <v>750</v>
+      </c>
+      <c r="G148" t="s">
+        <v>834</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>896</v>
+      </c>
+      <c r="J148" t="s">
+        <v>842</v>
+      </c>
+      <c r="K148">
+        <v>87</v>
+      </c>
+      <c r="L148" t="s">
+        <v>841</v>
+      </c>
+      <c r="M148">
+        <v>22</v>
+      </c>
+      <c r="N148" t="s">
+        <v>840</v>
+      </c>
+      <c r="O148">
+        <v>-799</v>
+      </c>
+      <c r="P148" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="149" spans="5:17">
+      <c r="E149" t="s">
+        <v>838</v>
+      </c>
+      <c r="F149" t="s">
+        <v>750</v>
+      </c>
+      <c r="G149" t="s">
+        <v>834</v>
+      </c>
+      <c r="H149" t="s">
+        <v>839</v>
+      </c>
+      <c r="I149">
+        <v>652</v>
+      </c>
+      <c r="J149" t="s">
+        <v>840</v>
+      </c>
+      <c r="K149">
+        <v>-240</v>
+      </c>
+      <c r="L149" t="s">
+        <v>841</v>
+      </c>
+      <c r="M149">
+        <v>652</v>
+      </c>
+      <c r="N149" t="s">
+        <v>842</v>
+      </c>
+      <c r="O149">
+        <v>71</v>
+      </c>
+      <c r="P149" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="152" spans="5:17">
+      <c r="E152" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="153" spans="5:17">
+      <c r="E153" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="155" spans="5:17">
+      <c r="E155" t="s">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/full-data-iday14.xlsx
+++ b/full-data-iday14.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15040" windowHeight="16060" tabRatio="500" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="14360" yWindow="-440" windowWidth="14360" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="FINAL 9PM" sheetId="1" r:id="rId1"/>
-    <sheet name="boothlayoutfinal" sheetId="5" r:id="rId2"/>
-    <sheet name="alt company names" sheetId="2" r:id="rId3"/>
-    <sheet name="booth layout prev" sheetId="3" r:id="rId4"/>
-    <sheet name="nonfinaldata" sheetId="4" r:id="rId5"/>
-    <sheet name="label key" sheetId="6" r:id="rId6"/>
-    <sheet name="updated boothlayout" sheetId="7" r:id="rId7"/>
+    <sheet name="current" sheetId="1" r:id="rId1"/>
+    <sheet name="label key" sheetId="6" r:id="rId2"/>
+    <sheet name="updated boothlayout" sheetId="7" r:id="rId3"/>
+    <sheet name="boothlayoutfinal" sheetId="5" r:id="rId4"/>
+    <sheet name="alt company names" sheetId="2" r:id="rId5"/>
+    <sheet name="booth layout prev" sheetId="3" r:id="rId6"/>
+    <sheet name="nonfinaldata" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'FINAL 9PM'!$F$1:$T$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">current!$F$1:$T$74</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="905">
   <si>
     <t>booth</t>
   </si>
@@ -2731,13 +2731,25 @@
   </si>
   <si>
     <t>&lt;/svg&gt;</t>
+  </si>
+  <si>
+    <t>x diff</t>
+  </si>
+  <si>
+    <t>y diff</t>
+  </si>
+  <si>
+    <t>pw-utc</t>
+  </si>
+  <si>
+    <t>chrysler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2908,6 +2920,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2958,7 +2975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3573,8 +3590,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3782,8 +3808,96 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4306,8 +4420,19 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="70" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="295">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4410,6 +4535,50 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -4512,6 +4681,50 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Output" xfId="70" builtinId="21"/>
@@ -4845,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR105"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5761,7 +5974,7 @@
         <v>930</v>
       </c>
       <c r="D13" s="183" t="s">
-        <v>47</v>
+        <v>904</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -7391,7 +7604,7 @@
       <c r="A37" s="151">
         <v>38</v>
       </c>
-      <c r="B37" s="146">
+      <c r="B37" s="198">
         <v>75160</v>
       </c>
       <c r="C37" s="160">
@@ -7459,7 +7672,9 @@
       <c r="A38" s="151">
         <v>13</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="198">
+        <v>9585</v>
+      </c>
       <c r="C38" s="160">
         <v>525</v>
       </c>
@@ -7511,7 +7726,7 @@
       <c r="A39" s="150">
         <v>49</v>
       </c>
-      <c r="B39" s="146">
+      <c r="B39" s="198">
         <v>1194036</v>
       </c>
       <c r="C39" s="160">
@@ -7580,7 +7795,7 @@
       <c r="A40" s="150">
         <v>22</v>
       </c>
-      <c r="B40" s="146">
+      <c r="B40" s="198">
         <v>47117</v>
       </c>
       <c r="C40" s="160">
@@ -7645,7 +7860,7 @@
       <c r="A41" s="150">
         <v>53</v>
       </c>
-      <c r="B41" s="146">
+      <c r="B41" s="198">
         <v>403579</v>
       </c>
       <c r="C41" s="160">
@@ -7710,7 +7925,7 @@
       <c r="A42" s="150">
         <v>46</v>
       </c>
-      <c r="B42" s="146">
+      <c r="B42" s="198">
         <v>1035</v>
       </c>
       <c r="C42" s="160">
@@ -7777,7 +7992,7 @@
       <c r="A43" s="150">
         <v>6</v>
       </c>
-      <c r="B43" s="146">
+      <c r="B43" s="198">
         <v>1771432</v>
       </c>
       <c r="C43" s="160">
@@ -7842,7 +8057,7 @@
       <c r="A44" s="150">
         <v>54</v>
       </c>
-      <c r="B44" s="146">
+      <c r="B44" s="198">
         <v>870904</v>
       </c>
       <c r="C44" s="160">
@@ -7902,7 +8117,7 @@
       <c r="A45" s="150">
         <v>62</v>
       </c>
-      <c r="B45" s="146">
+      <c r="B45" s="198">
         <v>2445</v>
       </c>
       <c r="C45" s="160">
@@ -7960,7 +8175,7 @@
       <c r="A46" s="150">
         <v>14</v>
       </c>
-      <c r="B46" s="146">
+      <c r="B46" s="198">
         <v>5169</v>
       </c>
       <c r="C46" s="160">
@@ -8022,7 +8237,7 @@
       <c r="A47" s="150">
         <v>48</v>
       </c>
-      <c r="B47" s="146">
+      <c r="B47" s="198">
         <v>18355</v>
       </c>
       <c r="C47" s="160">
@@ -8080,7 +8295,7 @@
       <c r="A48" s="150">
         <v>32</v>
       </c>
-      <c r="B48" s="146">
+      <c r="B48" s="198">
         <v>1431</v>
       </c>
       <c r="C48" s="160">
@@ -8146,12 +8361,14 @@
       <c r="A49" s="150">
         <v>40</v>
       </c>
-      <c r="B49" s="132"/>
+      <c r="B49" s="200">
+        <v>2425</v>
+      </c>
       <c r="C49" s="160">
         <v>495</v>
       </c>
       <c r="D49" s="159" t="s">
-        <v>186</v>
+        <v>903</v>
       </c>
       <c r="E49" s="149" t="s">
         <v>125</v>
@@ -8205,7 +8422,7 @@
       <c r="A50" s="150">
         <v>7</v>
       </c>
-      <c r="B50" s="146">
+      <c r="B50" s="198">
         <v>1116</v>
       </c>
       <c r="C50" s="160">
@@ -8277,7 +8494,7 @@
       <c r="A51" s="150">
         <v>35</v>
       </c>
-      <c r="B51" s="146">
+      <c r="B51" s="198">
         <v>60540</v>
       </c>
       <c r="C51" s="160">
@@ -8347,7 +8564,9 @@
       <c r="A52" s="150">
         <v>28</v>
       </c>
-      <c r="B52" s="130"/>
+      <c r="B52" s="197">
+        <v>165806</v>
+      </c>
       <c r="C52" s="177">
         <v>172</v>
       </c>
@@ -8408,8 +8627,8 @@
       <c r="A53" s="150">
         <v>31</v>
       </c>
-      <c r="B53" s="180" t="s">
-        <v>705</v>
+      <c r="B53" s="198">
+        <v>157241</v>
       </c>
       <c r="C53" s="160">
         <v>485</v>
@@ -8417,7 +8636,7 @@
       <c r="D53" s="158" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="199" t="s">
         <v>132</v>
       </c>
       <c r="F53" s="62"/>
@@ -8474,7 +8693,9 @@
       <c r="A54" s="150">
         <v>39</v>
       </c>
-      <c r="B54" s="128"/>
+      <c r="B54" s="198">
+        <v>85802</v>
+      </c>
       <c r="C54" s="177">
         <v>1248</v>
       </c>
@@ -8522,7 +8743,7 @@
       <c r="A55" s="150">
         <v>42</v>
       </c>
-      <c r="B55" s="146">
+      <c r="B55" s="198">
         <v>155480</v>
       </c>
       <c r="C55" s="160">
@@ -8594,7 +8815,7 @@
       <c r="A56" s="150">
         <v>18</v>
       </c>
-      <c r="B56" s="146">
+      <c r="B56" s="198">
         <v>1384</v>
       </c>
       <c r="C56" s="161">
@@ -8664,7 +8885,7 @@
       <c r="A57" s="150">
         <v>52</v>
       </c>
-      <c r="B57" s="146">
+      <c r="B57" s="198">
         <v>1714</v>
       </c>
       <c r="C57" s="161">
@@ -8938,7 +9159,9 @@
       <c r="A61" s="150">
         <v>29</v>
       </c>
-      <c r="B61" s="130"/>
+      <c r="B61" s="197">
+        <v>7425</v>
+      </c>
       <c r="C61" s="160">
         <v>1799</v>
       </c>
@@ -9924,10 +10147,2279 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="185" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="184" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19" thickBot="1">
+      <c r="A5" s="184" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A6" s="186" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A7" s="187" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A8" s="187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A9" s="187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A10" s="187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A11" s="187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A12" s="187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A13" s="187" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A14" s="187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A15" s="187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19" thickTop="1" thickBot="1">
+      <c r="A16" s="187" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="19" thickTop="1" thickBot="1">
+      <c r="A17" s="187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="19" thickTop="1" thickBot="1">
+      <c r="A18" s="188" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="19" thickTop="1" thickBot="1">
+      <c r="A19" s="189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="19" thickTop="1" thickBot="1">
+      <c r="A20" s="188" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="19" thickTop="1" thickBot="1">
+      <c r="A21" s="187" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="19" thickTop="1" thickBot="1">
+      <c r="A22" s="190" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="19" thickTop="1" thickBot="1">
+      <c r="A23" s="191" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" thickTop="1">
+      <c r="A24" s="192" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AB149"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:I70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="193" t="s">
+        <v>749</v>
+      </c>
+      <c r="H3" s="193" t="s">
+        <v>748</v>
+      </c>
+      <c r="I3" s="194" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="D4" s="147" t="s">
+        <v>747</v>
+      </c>
+      <c r="E4" s="147">
+        <v>63</v>
+      </c>
+      <c r="F4" s="147">
+        <v>-771</v>
+      </c>
+      <c r="G4" s="147">
+        <v>56</v>
+      </c>
+      <c r="H4" s="147">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>750</v>
+      </c>
+      <c r="M4" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="D5" s="147" t="s">
+        <v>752</v>
+      </c>
+      <c r="E5" s="147">
+        <v>293</v>
+      </c>
+      <c r="F5" s="147">
+        <v>-766</v>
+      </c>
+      <c r="G5" s="147">
+        <v>56</v>
+      </c>
+      <c r="H5" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="D6" s="147" t="s">
+        <v>753</v>
+      </c>
+      <c r="E6" s="147">
+        <v>59</v>
+      </c>
+      <c r="F6" s="147">
+        <v>-534</v>
+      </c>
+      <c r="G6" s="147">
+        <v>56</v>
+      </c>
+      <c r="H6" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="D7" s="147" t="s">
+        <v>754</v>
+      </c>
+      <c r="E7" s="147">
+        <v>539</v>
+      </c>
+      <c r="F7" s="147">
+        <v>96</v>
+      </c>
+      <c r="G7" s="147">
+        <v>56</v>
+      </c>
+      <c r="H7" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="D8" s="147" t="s">
+        <v>755</v>
+      </c>
+      <c r="E8" s="147">
+        <v>669</v>
+      </c>
+      <c r="F8" s="147">
+        <v>77</v>
+      </c>
+      <c r="G8" s="147">
+        <v>56</v>
+      </c>
+      <c r="H8" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="D9" s="147" t="s">
+        <v>756</v>
+      </c>
+      <c r="E9" s="147">
+        <v>32</v>
+      </c>
+      <c r="F9" s="147">
+        <v>-387</v>
+      </c>
+      <c r="G9" s="147">
+        <v>56</v>
+      </c>
+      <c r="H9" s="147">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10" s="147" t="s">
+        <v>759</v>
+      </c>
+      <c r="E10" s="147" t="s">
+        <v>760</v>
+      </c>
+      <c r="F10" s="147">
+        <v>-662</v>
+      </c>
+      <c r="G10" s="147">
+        <v>56</v>
+      </c>
+      <c r="H10" s="147">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="D11" s="147" t="s">
+        <v>762</v>
+      </c>
+      <c r="E11" s="147" t="s">
+        <v>763</v>
+      </c>
+      <c r="F11" s="147">
+        <v>-115</v>
+      </c>
+      <c r="G11" s="147">
+        <v>56</v>
+      </c>
+      <c r="H11" s="147">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="D12" s="147" t="s">
+        <v>765</v>
+      </c>
+      <c r="E12" s="147">
+        <v>45</v>
+      </c>
+      <c r="F12" s="147">
+        <v>-206</v>
+      </c>
+      <c r="G12" s="147">
+        <v>56</v>
+      </c>
+      <c r="H12" s="147">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="D13" s="147" t="s">
+        <v>767</v>
+      </c>
+      <c r="E13" s="147" t="s">
+        <v>768</v>
+      </c>
+      <c r="F13" s="147">
+        <v>2</v>
+      </c>
+      <c r="G13" s="147">
+        <v>56</v>
+      </c>
+      <c r="H13" s="147">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="D14" s="147" t="s">
+        <v>770</v>
+      </c>
+      <c r="E14" s="147">
+        <v>41</v>
+      </c>
+      <c r="F14" s="147">
+        <v>332</v>
+      </c>
+      <c r="G14" s="147">
+        <v>21</v>
+      </c>
+      <c r="H14" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="D15" s="147" t="s">
+        <v>771</v>
+      </c>
+      <c r="E15" s="147">
+        <v>40</v>
+      </c>
+      <c r="F15" s="147">
+        <v>425</v>
+      </c>
+      <c r="G15" s="147">
+        <v>21</v>
+      </c>
+      <c r="H15" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="D16" s="147" t="s">
+        <v>772</v>
+      </c>
+      <c r="E16" s="147">
+        <v>43</v>
+      </c>
+      <c r="F16" s="147">
+        <v>513</v>
+      </c>
+      <c r="G16" s="147">
+        <v>18</v>
+      </c>
+      <c r="H16" s="147">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8">
+      <c r="D17" s="147" t="s">
+        <v>773</v>
+      </c>
+      <c r="E17" s="147">
+        <v>43</v>
+      </c>
+      <c r="F17" s="147">
+        <v>585</v>
+      </c>
+      <c r="G17" s="147">
+        <v>18</v>
+      </c>
+      <c r="H17" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8">
+      <c r="D18" s="147" t="s">
+        <v>774</v>
+      </c>
+      <c r="E18" s="147">
+        <v>39</v>
+      </c>
+      <c r="F18" s="147">
+        <v>691</v>
+      </c>
+      <c r="G18" s="147">
+        <v>20</v>
+      </c>
+      <c r="H18" s="147">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8">
+      <c r="D19" s="147" t="s">
+        <v>775</v>
+      </c>
+      <c r="E19" s="147">
+        <v>238</v>
+      </c>
+      <c r="F19" s="147">
+        <v>382</v>
+      </c>
+      <c r="G19" s="147">
+        <v>22</v>
+      </c>
+      <c r="H19" s="147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8">
+      <c r="D20" s="147" t="s">
+        <v>776</v>
+      </c>
+      <c r="E20" s="147">
+        <v>281</v>
+      </c>
+      <c r="F20" s="147">
+        <v>378</v>
+      </c>
+      <c r="G20" s="147">
+        <v>27</v>
+      </c>
+      <c r="H20" s="147">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8">
+      <c r="D21" s="147" t="s">
+        <v>777</v>
+      </c>
+      <c r="E21" s="147">
+        <v>237</v>
+      </c>
+      <c r="F21" s="147">
+        <v>456</v>
+      </c>
+      <c r="G21" s="147">
+        <v>21</v>
+      </c>
+      <c r="H21" s="147">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8">
+      <c r="D22" s="147" t="s">
+        <v>778</v>
+      </c>
+      <c r="E22" s="147">
+        <v>284</v>
+      </c>
+      <c r="F22" s="147">
+        <v>458</v>
+      </c>
+      <c r="G22" s="147">
+        <v>24</v>
+      </c>
+      <c r="H22" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8">
+      <c r="D23" s="147" t="s">
+        <v>779</v>
+      </c>
+      <c r="E23" s="147">
+        <v>235</v>
+      </c>
+      <c r="F23" s="147">
+        <v>541</v>
+      </c>
+      <c r="G23" s="147">
+        <v>22</v>
+      </c>
+      <c r="H23" s="147">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8">
+      <c r="D24" s="147" t="s">
+        <v>780</v>
+      </c>
+      <c r="E24" s="147">
+        <v>283</v>
+      </c>
+      <c r="F24" s="147">
+        <v>542</v>
+      </c>
+      <c r="G24" s="147">
+        <v>27</v>
+      </c>
+      <c r="H24" s="147">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8">
+      <c r="D25" s="147" t="s">
+        <v>781</v>
+      </c>
+      <c r="E25" s="147">
+        <v>284</v>
+      </c>
+      <c r="F25" s="147">
+        <v>217</v>
+      </c>
+      <c r="G25" s="147">
+        <v>65</v>
+      </c>
+      <c r="H25" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8">
+      <c r="D26" s="147" t="s">
+        <v>782</v>
+      </c>
+      <c r="E26" s="147">
+        <v>463</v>
+      </c>
+      <c r="F26" s="147">
+        <v>214</v>
+      </c>
+      <c r="G26" s="147">
+        <v>54</v>
+      </c>
+      <c r="H26" s="147">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8">
+      <c r="D27" s="147" t="s">
+        <v>783</v>
+      </c>
+      <c r="E27" s="147">
+        <v>576</v>
+      </c>
+      <c r="F27" s="147">
+        <v>216</v>
+      </c>
+      <c r="G27" s="147">
+        <v>56</v>
+      </c>
+      <c r="H27" s="147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8">
+      <c r="D28" s="147" t="s">
+        <v>784</v>
+      </c>
+      <c r="E28" s="147">
+        <v>678</v>
+      </c>
+      <c r="F28" s="147">
+        <v>359</v>
+      </c>
+      <c r="G28" s="147">
+        <v>17</v>
+      </c>
+      <c r="H28" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8">
+      <c r="D29" s="147" t="s">
+        <v>785</v>
+      </c>
+      <c r="E29" s="147">
+        <v>727</v>
+      </c>
+      <c r="F29" s="147">
+        <v>360</v>
+      </c>
+      <c r="G29" s="147">
+        <v>17</v>
+      </c>
+      <c r="H29" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8">
+      <c r="D30" s="147" t="s">
+        <v>786</v>
+      </c>
+      <c r="E30" s="147">
+        <v>678</v>
+      </c>
+      <c r="F30" s="147">
+        <v>457</v>
+      </c>
+      <c r="G30" s="147">
+        <v>17</v>
+      </c>
+      <c r="H30" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8">
+      <c r="D31" s="147" t="s">
+        <v>787</v>
+      </c>
+      <c r="E31" s="147">
+        <v>727</v>
+      </c>
+      <c r="F31" s="147">
+        <v>456</v>
+      </c>
+      <c r="G31" s="147">
+        <v>17</v>
+      </c>
+      <c r="H31" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8">
+      <c r="D32" s="147" t="s">
+        <v>788</v>
+      </c>
+      <c r="E32" s="147">
+        <v>680</v>
+      </c>
+      <c r="F32" s="147">
+        <v>540</v>
+      </c>
+      <c r="G32" s="147">
+        <v>17</v>
+      </c>
+      <c r="H32" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
+      <c r="D33" s="147" t="s">
+        <v>789</v>
+      </c>
+      <c r="E33" s="147">
+        <v>725</v>
+      </c>
+      <c r="F33" s="147">
+        <v>537</v>
+      </c>
+      <c r="G33" s="147">
+        <v>17</v>
+      </c>
+      <c r="H33" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
+      <c r="D34" s="147" t="s">
+        <v>790</v>
+      </c>
+      <c r="E34" s="147">
+        <v>908</v>
+      </c>
+      <c r="F34" s="147">
+        <v>324</v>
+      </c>
+      <c r="G34" s="147">
+        <v>17</v>
+      </c>
+      <c r="H34" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
+      <c r="D35" s="147" t="s">
+        <v>791</v>
+      </c>
+      <c r="E35" s="147">
+        <v>909</v>
+      </c>
+      <c r="F35" s="147">
+        <v>409</v>
+      </c>
+      <c r="G35" s="147">
+        <v>17</v>
+      </c>
+      <c r="H35" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
+      <c r="D36" s="147" t="s">
+        <v>792</v>
+      </c>
+      <c r="E36" s="147">
+        <v>909</v>
+      </c>
+      <c r="F36" s="147">
+        <v>493</v>
+      </c>
+      <c r="G36" s="147">
+        <v>17</v>
+      </c>
+      <c r="H36" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9">
+      <c r="D37" s="147" t="s">
+        <v>793</v>
+      </c>
+      <c r="E37" s="147">
+        <v>908</v>
+      </c>
+      <c r="F37" s="147">
+        <v>571</v>
+      </c>
+      <c r="G37" s="147">
+        <v>17</v>
+      </c>
+      <c r="H37" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9">
+      <c r="D38" s="147" t="s">
+        <v>794</v>
+      </c>
+      <c r="E38" s="147">
+        <v>907</v>
+      </c>
+      <c r="F38" s="147">
+        <v>671</v>
+      </c>
+      <c r="G38" s="147">
+        <v>17</v>
+      </c>
+      <c r="H38" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9">
+      <c r="D39" s="147" t="s">
+        <v>795</v>
+      </c>
+      <c r="E39" s="147">
+        <v>433</v>
+      </c>
+      <c r="F39" s="147">
+        <v>411</v>
+      </c>
+      <c r="G39" s="147">
+        <v>17</v>
+      </c>
+      <c r="H39" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9">
+      <c r="D40" s="147" t="s">
+        <v>796</v>
+      </c>
+      <c r="E40" s="147">
+        <v>482</v>
+      </c>
+      <c r="F40" s="147">
+        <v>411</v>
+      </c>
+      <c r="G40" s="147">
+        <v>17</v>
+      </c>
+      <c r="H40" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9">
+      <c r="D41" s="147" t="s">
+        <v>797</v>
+      </c>
+      <c r="E41" s="147">
+        <v>432</v>
+      </c>
+      <c r="F41" s="147">
+        <v>511</v>
+      </c>
+      <c r="G41" s="147">
+        <v>17</v>
+      </c>
+      <c r="H41" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9">
+      <c r="D42" s="147" t="s">
+        <v>798</v>
+      </c>
+      <c r="E42" s="147">
+        <v>481</v>
+      </c>
+      <c r="F42" s="147">
+        <v>513</v>
+      </c>
+      <c r="G42" s="147">
+        <v>17</v>
+      </c>
+      <c r="H42" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9">
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+    </row>
+    <row r="44" spans="4:9">
+      <c r="D44" s="147" t="s">
+        <v>799</v>
+      </c>
+      <c r="E44" s="147">
+        <v>956</v>
+      </c>
+      <c r="F44" s="147">
+        <v>39</v>
+      </c>
+      <c r="G44" s="147">
+        <v>74</v>
+      </c>
+      <c r="H44" s="147">
+        <v>21</v>
+      </c>
+      <c r="I44" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9">
+      <c r="D45" s="147" t="s">
+        <v>801</v>
+      </c>
+      <c r="E45" s="147">
+        <v>52</v>
+      </c>
+      <c r="F45" s="147">
+        <v>80</v>
+      </c>
+      <c r="G45" s="147">
+        <v>74</v>
+      </c>
+      <c r="H45" s="147">
+        <v>21</v>
+      </c>
+      <c r="I45" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9">
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+    </row>
+    <row r="47" spans="4:9">
+      <c r="D47" s="147" t="s">
+        <v>803</v>
+      </c>
+      <c r="E47" s="147">
+        <v>65</v>
+      </c>
+      <c r="F47" s="147">
+        <v>839</v>
+      </c>
+      <c r="G47" s="147">
+        <v>65</v>
+      </c>
+      <c r="H47" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9">
+      <c r="D48" s="147" t="s">
+        <v>804</v>
+      </c>
+      <c r="E48" s="147">
+        <v>269</v>
+      </c>
+      <c r="F48" s="147">
+        <v>838</v>
+      </c>
+      <c r="G48" s="147">
+        <v>65</v>
+      </c>
+      <c r="H48" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9">
+      <c r="D49" s="147" t="s">
+        <v>805</v>
+      </c>
+      <c r="E49" s="147">
+        <v>559</v>
+      </c>
+      <c r="F49" s="147">
+        <v>857</v>
+      </c>
+      <c r="G49" s="147">
+        <v>65</v>
+      </c>
+      <c r="H49" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9">
+      <c r="D50" s="147" t="s">
+        <v>806</v>
+      </c>
+      <c r="E50" s="147">
+        <v>988</v>
+      </c>
+      <c r="F50" s="147">
+        <v>754</v>
+      </c>
+      <c r="G50" s="147">
+        <v>74</v>
+      </c>
+      <c r="H50" s="147">
+        <v>21</v>
+      </c>
+      <c r="I50" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9">
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+    </row>
+    <row r="52" spans="4:9">
+      <c r="D52" s="147" t="s">
+        <v>808</v>
+      </c>
+      <c r="E52" s="147">
+        <v>248</v>
+      </c>
+      <c r="F52" s="147">
+        <v>947</v>
+      </c>
+      <c r="G52" s="147">
+        <v>65</v>
+      </c>
+      <c r="H52" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9">
+      <c r="D53" s="147" t="s">
+        <v>809</v>
+      </c>
+      <c r="E53" s="147">
+        <v>23</v>
+      </c>
+      <c r="F53" s="147">
+        <v>923</v>
+      </c>
+      <c r="G53" s="147">
+        <v>65</v>
+      </c>
+      <c r="H53" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9">
+      <c r="D54" s="147" t="s">
+        <v>810</v>
+      </c>
+      <c r="E54" s="147">
+        <v>595</v>
+      </c>
+      <c r="F54" s="147">
+        <v>921</v>
+      </c>
+      <c r="G54" s="147">
+        <v>65</v>
+      </c>
+      <c r="H54" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9">
+      <c r="D55" s="147" t="s">
+        <v>811</v>
+      </c>
+      <c r="E55" s="147">
+        <v>183</v>
+      </c>
+      <c r="F55" s="147">
+        <v>1032</v>
+      </c>
+      <c r="G55" s="147">
+        <v>65</v>
+      </c>
+      <c r="H55" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9">
+      <c r="D56" s="147" t="s">
+        <v>812</v>
+      </c>
+      <c r="E56" s="147">
+        <v>283</v>
+      </c>
+      <c r="F56" s="147">
+        <v>1035</v>
+      </c>
+      <c r="G56" s="147">
+        <v>65</v>
+      </c>
+      <c r="H56" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9">
+      <c r="D57" s="147" t="s">
+        <v>813</v>
+      </c>
+      <c r="E57" s="147">
+        <v>514</v>
+      </c>
+      <c r="F57" s="147">
+        <v>1036</v>
+      </c>
+      <c r="G57" s="147">
+        <v>65</v>
+      </c>
+      <c r="H57" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="4:9">
+      <c r="D58" s="147" t="s">
+        <v>814</v>
+      </c>
+      <c r="E58" s="147">
+        <v>625</v>
+      </c>
+      <c r="F58" s="147">
+        <v>1036</v>
+      </c>
+      <c r="G58" s="147">
+        <v>65</v>
+      </c>
+      <c r="H58" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="4:9">
+      <c r="D59" s="147" t="s">
+        <v>815</v>
+      </c>
+      <c r="E59" s="147">
+        <v>740</v>
+      </c>
+      <c r="F59" s="147">
+        <v>1038</v>
+      </c>
+      <c r="G59" s="147">
+        <v>65</v>
+      </c>
+      <c r="H59" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="4:9">
+      <c r="D60" s="147" t="s">
+        <v>816</v>
+      </c>
+      <c r="E60" s="147">
+        <v>851</v>
+      </c>
+      <c r="F60" s="147">
+        <v>918</v>
+      </c>
+      <c r="G60" s="147">
+        <v>65</v>
+      </c>
+      <c r="H60" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="4:9">
+      <c r="D61" s="147" t="s">
+        <v>817</v>
+      </c>
+      <c r="E61" s="147">
+        <v>845</v>
+      </c>
+      <c r="F61" s="147">
+        <v>1036</v>
+      </c>
+      <c r="G61" s="147">
+        <v>65</v>
+      </c>
+      <c r="H61" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9">
+      <c r="D62" s="147" t="s">
+        <v>818</v>
+      </c>
+      <c r="E62" s="147">
+        <v>656</v>
+      </c>
+      <c r="F62" s="147">
+        <v>1099</v>
+      </c>
+      <c r="G62" s="147">
+        <v>65</v>
+      </c>
+      <c r="H62" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="4:9">
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+    </row>
+    <row r="64" spans="4:9">
+      <c r="D64" s="147" t="s">
+        <v>819</v>
+      </c>
+      <c r="E64" s="147">
+        <v>233</v>
+      </c>
+      <c r="F64" s="147">
+        <v>1213</v>
+      </c>
+      <c r="G64" s="147">
+        <v>74</v>
+      </c>
+      <c r="H64" s="147">
+        <v>21</v>
+      </c>
+      <c r="I64" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="D65" s="147" t="s">
+        <v>821</v>
+      </c>
+      <c r="E65" s="147">
+        <v>257</v>
+      </c>
+      <c r="F65" s="147">
+        <v>1051</v>
+      </c>
+      <c r="G65" s="147">
+        <v>74</v>
+      </c>
+      <c r="H65" s="147">
+        <v>21</v>
+      </c>
+      <c r="I65" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="D66" s="147" t="s">
+        <v>823</v>
+      </c>
+      <c r="E66" s="147">
+        <v>829</v>
+      </c>
+      <c r="F66" s="147">
+        <v>1169</v>
+      </c>
+      <c r="G66" s="147">
+        <v>74</v>
+      </c>
+      <c r="H66" s="147">
+        <v>21</v>
+      </c>
+      <c r="I66" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="D67" s="147" t="s">
+        <v>825</v>
+      </c>
+      <c r="E67" s="147">
+        <v>527</v>
+      </c>
+      <c r="F67" s="147">
+        <v>1186</v>
+      </c>
+      <c r="G67" s="147">
+        <v>74</v>
+      </c>
+      <c r="H67" s="147">
+        <v>21</v>
+      </c>
+      <c r="I67" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="D68" s="147" t="s">
+        <v>827</v>
+      </c>
+      <c r="E68" s="147">
+        <v>460</v>
+      </c>
+      <c r="F68" s="147">
+        <v>1221</v>
+      </c>
+      <c r="G68" s="147">
+        <v>74</v>
+      </c>
+      <c r="H68" s="147">
+        <v>21</v>
+      </c>
+      <c r="I68" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="D69" s="147" t="s">
+        <v>829</v>
+      </c>
+      <c r="E69" s="147">
+        <v>243</v>
+      </c>
+      <c r="F69" s="147">
+        <v>1335</v>
+      </c>
+      <c r="G69" s="147">
+        <v>74</v>
+      </c>
+      <c r="H69" s="147">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="D70" s="147" t="s">
+        <v>831</v>
+      </c>
+      <c r="E70" s="147">
+        <v>799</v>
+      </c>
+      <c r="F70" s="147">
+        <v>1340</v>
+      </c>
+      <c r="G70" s="147">
+        <v>74</v>
+      </c>
+      <c r="H70" s="147">
+        <v>21</v>
+      </c>
+      <c r="I70" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="195"/>
+      <c r="B71" s="195"/>
+      <c r="C71" s="195"/>
+      <c r="D71" s="195"/>
+      <c r="E71" s="195"/>
+      <c r="F71" s="195"/>
+      <c r="G71" s="195"/>
+      <c r="H71" s="195"/>
+      <c r="I71" s="195"/>
+      <c r="J71" s="195"/>
+      <c r="K71" s="195"/>
+      <c r="L71" s="195"/>
+      <c r="M71" s="195"/>
+      <c r="N71" s="195"/>
+      <c r="O71" s="195"/>
+      <c r="P71" s="195"/>
+      <c r="Q71" s="195"/>
+    </row>
+    <row r="73" spans="1:17" ht="15">
+      <c r="D73" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="193" t="s">
+        <v>839</v>
+      </c>
+      <c r="F73" s="193" t="s">
+        <v>840</v>
+      </c>
+      <c r="G73" s="193" t="s">
+        <v>841</v>
+      </c>
+      <c r="H73" s="193" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" t="s">
+        <v>838</v>
+      </c>
+      <c r="B74" t="s">
+        <v>750</v>
+      </c>
+      <c r="C74" t="s">
+        <v>834</v>
+      </c>
+      <c r="D74" s="147" t="s">
+        <v>843</v>
+      </c>
+      <c r="E74" s="147">
+        <v>202</v>
+      </c>
+      <c r="F74" s="147">
+        <v>218</v>
+      </c>
+      <c r="G74" s="147">
+        <v>178</v>
+      </c>
+      <c r="H74" s="147">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" t="s">
+        <v>838</v>
+      </c>
+      <c r="B75" t="s">
+        <v>750</v>
+      </c>
+      <c r="C75" t="s">
+        <v>834</v>
+      </c>
+      <c r="D75" s="147" t="s">
+        <v>844</v>
+      </c>
+      <c r="E75" s="147">
+        <v>420</v>
+      </c>
+      <c r="F75" s="147">
+        <v>219</v>
+      </c>
+      <c r="G75" s="147">
+        <v>396</v>
+      </c>
+      <c r="H75" s="147">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="D76" s="147" t="s">
+        <v>845</v>
+      </c>
+      <c r="E76" s="147">
+        <v>254</v>
+      </c>
+      <c r="F76" s="147">
+        <v>906</v>
+      </c>
+      <c r="G76" s="147">
+        <v>230</v>
+      </c>
+      <c r="H76" s="147">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="D77" s="147" t="s">
+        <v>846</v>
+      </c>
+      <c r="E77" s="147">
+        <v>429</v>
+      </c>
+      <c r="F77" s="147">
+        <v>906</v>
+      </c>
+      <c r="G77" s="147">
+        <v>405</v>
+      </c>
+      <c r="H77" s="147">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="D78" s="147" t="s">
+        <v>847</v>
+      </c>
+      <c r="E78" s="147">
+        <v>580</v>
+      </c>
+      <c r="F78" s="147">
+        <v>906</v>
+      </c>
+      <c r="G78" s="147">
+        <v>556</v>
+      </c>
+      <c r="H78" s="147">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="D79" s="147" t="s">
+        <v>848</v>
+      </c>
+      <c r="E79" s="147">
+        <v>705</v>
+      </c>
+      <c r="F79" s="147">
+        <v>217</v>
+      </c>
+      <c r="G79" s="147">
+        <v>681</v>
+      </c>
+      <c r="H79" s="147">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="D80" s="147" t="s">
+        <v>849</v>
+      </c>
+      <c r="E80" s="147">
+        <v>222</v>
+      </c>
+      <c r="F80" s="147">
+        <v>222</v>
+      </c>
+      <c r="G80" s="147">
+        <v>249</v>
+      </c>
+      <c r="H80" s="147">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="D81" s="147" t="s">
+        <v>850</v>
+      </c>
+      <c r="E81" s="147">
+        <v>178</v>
+      </c>
+      <c r="F81" s="147">
+        <v>904</v>
+      </c>
+      <c r="G81" s="147">
+        <v>204</v>
+      </c>
+      <c r="H81" s="147">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="D82" s="147" t="s">
+        <v>851</v>
+      </c>
+      <c r="E82" s="147">
+        <v>357</v>
+      </c>
+      <c r="F82" s="147">
+        <v>909</v>
+      </c>
+      <c r="G82" s="147">
+        <v>384</v>
+      </c>
+      <c r="H82" s="147">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="D83" s="147" t="s">
+        <v>852</v>
+      </c>
+      <c r="E83" s="147">
+        <v>441</v>
+      </c>
+      <c r="F83" s="147">
+        <v>217</v>
+      </c>
+      <c r="G83" s="147">
+        <v>467</v>
+      </c>
+      <c r="H83" s="147">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="D84" s="147" t="s">
+        <v>853</v>
+      </c>
+      <c r="E84" s="147">
+        <v>732</v>
+      </c>
+      <c r="F84" s="147">
+        <v>219</v>
+      </c>
+      <c r="G84" s="147">
+        <v>759</v>
+      </c>
+      <c r="H84" s="147">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="D85" s="147" t="s">
+        <v>854</v>
+      </c>
+      <c r="E85" s="147">
+        <v>502</v>
+      </c>
+      <c r="F85" s="147">
+        <v>906</v>
+      </c>
+      <c r="G85" s="147">
+        <v>529</v>
+      </c>
+      <c r="H85" s="147">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="D86" s="147" t="s">
+        <v>855</v>
+      </c>
+      <c r="E86" s="147">
+        <v>370</v>
+      </c>
+      <c r="F86" s="147">
+        <v>1103</v>
+      </c>
+      <c r="G86" s="147">
+        <v>397</v>
+      </c>
+      <c r="H86" s="147">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="D87" s="147" t="s">
+        <v>856</v>
+      </c>
+      <c r="E87" s="147">
+        <v>321</v>
+      </c>
+      <c r="F87" s="147">
+        <v>1432</v>
+      </c>
+      <c r="G87" s="147">
+        <v>348</v>
+      </c>
+      <c r="H87" s="147">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="D88" s="147" t="s">
+        <v>857</v>
+      </c>
+      <c r="E88" s="147">
+        <v>551</v>
+      </c>
+      <c r="F88" s="147">
+        <v>1430</v>
+      </c>
+      <c r="G88" s="147">
+        <v>578</v>
+      </c>
+      <c r="H88" s="147">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="D89" s="147" t="s">
+        <v>858</v>
+      </c>
+      <c r="E89" s="147">
+        <v>530</v>
+      </c>
+      <c r="F89" s="147">
+        <v>1103</v>
+      </c>
+      <c r="G89" s="147">
+        <v>506</v>
+      </c>
+      <c r="H89" s="147">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="D90" s="147" t="s">
+        <v>859</v>
+      </c>
+      <c r="E90" s="147">
+        <v>644</v>
+      </c>
+      <c r="F90" s="147">
+        <v>1429</v>
+      </c>
+      <c r="G90" s="147">
+        <v>620</v>
+      </c>
+      <c r="H90" s="147">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="D91" s="147" t="s">
+        <v>860</v>
+      </c>
+      <c r="E91" s="147">
+        <v>397</v>
+      </c>
+      <c r="F91" s="147">
+        <v>1427</v>
+      </c>
+      <c r="G91" s="147">
+        <v>373</v>
+      </c>
+      <c r="H91" s="147">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>838</v>
+      </c>
+      <c r="B92" t="s">
+        <v>750</v>
+      </c>
+      <c r="C92" t="s">
+        <v>834</v>
+      </c>
+      <c r="D92" s="147" t="s">
+        <v>880</v>
+      </c>
+      <c r="E92" s="147" t="s">
+        <v>881</v>
+      </c>
+      <c r="F92" s="147">
+        <v>-587</v>
+      </c>
+      <c r="G92" s="147">
+        <v>23</v>
+      </c>
+      <c r="H92" s="147">
+        <v>-587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="D93" s="147" t="s">
+        <v>882</v>
+      </c>
+      <c r="E93" s="147" t="s">
+        <v>883</v>
+      </c>
+      <c r="F93" s="147">
+        <v>-242</v>
+      </c>
+      <c r="G93" s="147">
+        <v>19</v>
+      </c>
+      <c r="H93" s="147">
+        <v>-242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="D94" s="147" t="s">
+        <v>884</v>
+      </c>
+      <c r="E94" s="147" t="s">
+        <v>885</v>
+      </c>
+      <c r="F94" s="147">
+        <v>89</v>
+      </c>
+      <c r="G94" s="147">
+        <v>18</v>
+      </c>
+      <c r="H94" s="147">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="D95" s="147" t="s">
+        <v>886</v>
+      </c>
+      <c r="E95" s="147" t="s">
+        <v>887</v>
+      </c>
+      <c r="F95" s="147">
+        <v>-319</v>
+      </c>
+      <c r="G95" s="147">
+        <v>425</v>
+      </c>
+      <c r="H95" s="147">
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="D96" s="147" t="s">
+        <v>888</v>
+      </c>
+      <c r="E96" s="147" t="s">
+        <v>889</v>
+      </c>
+      <c r="F96" s="147">
+        <v>-239</v>
+      </c>
+      <c r="G96" s="147">
+        <v>442</v>
+      </c>
+      <c r="H96" s="147">
+        <v>-239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="D97" s="147" t="s">
+        <v>890</v>
+      </c>
+      <c r="E97" s="147" t="s">
+        <v>891</v>
+      </c>
+      <c r="F97" s="147">
+        <v>71</v>
+      </c>
+      <c r="G97" s="147">
+        <v>481</v>
+      </c>
+      <c r="H97" s="147">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="D98" s="147" t="s">
+        <v>892</v>
+      </c>
+      <c r="E98" s="147" t="s">
+        <v>893</v>
+      </c>
+      <c r="F98" s="147">
+        <v>-800</v>
+      </c>
+      <c r="G98" s="147">
+        <v>24</v>
+      </c>
+      <c r="H98" s="147">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="D99" s="147" t="s">
+        <v>894</v>
+      </c>
+      <c r="E99" s="147" t="s">
+        <v>895</v>
+      </c>
+      <c r="F99" s="147">
+        <v>-800</v>
+      </c>
+      <c r="G99" s="147">
+        <v>428</v>
+      </c>
+      <c r="H99" s="147">
+        <v>-319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="D100" s="147" t="s">
+        <v>896</v>
+      </c>
+      <c r="E100" s="147" t="s">
+        <v>897</v>
+      </c>
+      <c r="F100" s="147">
+        <v>-799</v>
+      </c>
+      <c r="G100" s="147">
+        <v>22</v>
+      </c>
+      <c r="H100" s="147">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="D101" s="147" t="s">
+        <v>898</v>
+      </c>
+      <c r="E101" s="147">
+        <v>652</v>
+      </c>
+      <c r="F101" s="147">
+        <v>-240</v>
+      </c>
+      <c r="G101" s="147">
+        <v>652</v>
+      </c>
+      <c r="H101" s="147">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="E105" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="E106" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="E108" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" t="s">
+        <v>722</v>
+      </c>
+      <c r="E117" t="s">
+        <v>863</v>
+      </c>
+      <c r="F117" t="s">
+        <v>864</v>
+      </c>
+      <c r="G117" t="s">
+        <v>865</v>
+      </c>
+      <c r="H117" t="s">
+        <v>866</v>
+      </c>
+      <c r="I117" t="s">
+        <v>865</v>
+      </c>
+      <c r="J117" t="s">
+        <v>867</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>174</v>
+      </c>
+      <c r="M117">
+        <v>369</v>
+      </c>
+      <c r="N117" t="s">
+        <v>175</v>
+      </c>
+      <c r="O117">
+        <v>868</v>
+      </c>
+      <c r="P117" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>868</v>
+      </c>
+      <c r="R117" t="s">
+        <v>869</v>
+      </c>
+      <c r="S117">
+        <v>24</v>
+      </c>
+      <c r="T117" t="s">
+        <v>870</v>
+      </c>
+      <c r="U117" t="s">
+        <v>871</v>
+      </c>
+      <c r="V117" t="s">
+        <v>872</v>
+      </c>
+      <c r="W117" t="s">
+        <v>873</v>
+      </c>
+      <c r="X117" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>757</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>876</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" t="s">
+        <v>723</v>
+      </c>
+      <c r="E118" t="s">
+        <v>863</v>
+      </c>
+      <c r="F118" t="s">
+        <v>864</v>
+      </c>
+      <c r="G118" t="s">
+        <v>865</v>
+      </c>
+      <c r="H118" t="s">
+        <v>866</v>
+      </c>
+      <c r="I118" t="s">
+        <v>865</v>
+      </c>
+      <c r="J118" t="s">
+        <v>867</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>174</v>
+      </c>
+      <c r="M118">
+        <v>360</v>
+      </c>
+      <c r="N118" t="s">
+        <v>175</v>
+      </c>
+      <c r="O118">
+        <v>1103</v>
+      </c>
+      <c r="P118" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q118">
+        <v>24</v>
+      </c>
+      <c r="R118" t="s">
+        <v>870</v>
+      </c>
+      <c r="S118" t="s">
+        <v>871</v>
+      </c>
+      <c r="T118" t="s">
+        <v>872</v>
+      </c>
+      <c r="U118" t="s">
+        <v>873</v>
+      </c>
+      <c r="V118" t="s">
+        <v>874</v>
+      </c>
+      <c r="W118" t="s">
+        <v>875</v>
+      </c>
+      <c r="X118" t="s">
+        <v>757</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>878</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>879</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" t="s">
+        <v>726</v>
+      </c>
+      <c r="E121" t="s">
+        <v>833</v>
+      </c>
+      <c r="F121" t="s">
+        <v>750</v>
+      </c>
+      <c r="G121" t="s">
+        <v>834</v>
+      </c>
+      <c r="H121" t="s">
+        <v>835</v>
+      </c>
+      <c r="I121" t="s">
+        <v>861</v>
+      </c>
+      <c r="J121" t="s">
+        <v>2</v>
+      </c>
+      <c r="K121" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" t="s">
+        <v>727</v>
+      </c>
+      <c r="E122" t="s">
+        <v>833</v>
+      </c>
+      <c r="F122" t="s">
+        <v>750</v>
+      </c>
+      <c r="G122" t="s">
+        <v>834</v>
+      </c>
+      <c r="H122" t="s">
+        <v>835</v>
+      </c>
+      <c r="I122" t="s">
+        <v>836</v>
+      </c>
+      <c r="J122" t="s">
+        <v>2</v>
+      </c>
+      <c r="K122" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -9939,7 +12431,7 @@
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="179" t="s">
         <v>172</v>
       </c>
@@ -9958,8 +12450,32 @@
       <c r="F1" s="179" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="196" t="s">
+        <v>901</v>
+      </c>
+      <c r="I1" s="196" t="s">
+        <v>902</v>
+      </c>
+      <c r="J1" s="193" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="193" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="193" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="193" t="s">
+        <v>749</v>
+      </c>
+      <c r="N1" s="193" t="s">
+        <v>748</v>
+      </c>
+      <c r="O1" s="194" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9978,8 +12494,23 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="J2" s="147" t="s">
+        <v>809</v>
+      </c>
+      <c r="K2" s="147">
+        <v>23</v>
+      </c>
+      <c r="L2" s="147">
+        <v>923</v>
+      </c>
+      <c r="M2" s="147">
+        <v>65</v>
+      </c>
+      <c r="N2" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9998,8 +12529,23 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="J3" s="147" t="s">
+        <v>803</v>
+      </c>
+      <c r="K3" s="147">
+        <v>65</v>
+      </c>
+      <c r="L3" s="147">
+        <v>839</v>
+      </c>
+      <c r="M3" s="147">
+        <v>65</v>
+      </c>
+      <c r="N3" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10018,8 +12564,23 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="J4" s="147" t="s">
+        <v>811</v>
+      </c>
+      <c r="K4" s="147">
+        <v>183</v>
+      </c>
+      <c r="L4" s="147">
+        <v>1032</v>
+      </c>
+      <c r="M4" s="147">
+        <v>65</v>
+      </c>
+      <c r="N4" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10038,8 +12599,23 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="J5" s="147" t="s">
+        <v>808</v>
+      </c>
+      <c r="K5" s="147">
+        <v>248</v>
+      </c>
+      <c r="L5" s="147">
+        <v>947</v>
+      </c>
+      <c r="M5" s="147">
+        <v>65</v>
+      </c>
+      <c r="N5" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10058,8 +12634,23 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="J6" s="147" t="s">
+        <v>804</v>
+      </c>
+      <c r="K6" s="147">
+        <v>269</v>
+      </c>
+      <c r="L6" s="147">
+        <v>838</v>
+      </c>
+      <c r="M6" s="147">
+        <v>65</v>
+      </c>
+      <c r="N6" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10078,8 +12669,23 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="J7" s="147" t="s">
+        <v>812</v>
+      </c>
+      <c r="K7" s="147">
+        <v>283</v>
+      </c>
+      <c r="L7" s="147">
+        <v>1035</v>
+      </c>
+      <c r="M7" s="147">
+        <v>65</v>
+      </c>
+      <c r="N7" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10098,8 +12704,23 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="J8" s="147" t="s">
+        <v>781</v>
+      </c>
+      <c r="K8" s="147">
+        <v>284</v>
+      </c>
+      <c r="L8" s="147">
+        <v>217</v>
+      </c>
+      <c r="M8" s="147">
+        <v>65</v>
+      </c>
+      <c r="N8" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10118,8 +12739,23 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="J9" s="147" t="s">
+        <v>813</v>
+      </c>
+      <c r="K9" s="147">
+        <v>514</v>
+      </c>
+      <c r="L9" s="147">
+        <v>1036</v>
+      </c>
+      <c r="M9" s="147">
+        <v>65</v>
+      </c>
+      <c r="N9" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10138,19 +12774,34 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="J10" s="147" t="s">
+        <v>805</v>
+      </c>
+      <c r="K10" s="147">
+        <v>559</v>
+      </c>
+      <c r="L10" s="147">
+        <v>857</v>
+      </c>
+      <c r="M10" s="147">
+        <v>65</v>
+      </c>
+      <c r="N10" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>178</v>
       </c>
       <c r="C11">
-        <v>277.7</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>875</v>
+        <v>847.5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -10158,19 +12809,34 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="J11" s="147" t="s">
+        <v>810</v>
+      </c>
+      <c r="K11" s="147">
+        <v>595</v>
+      </c>
+      <c r="L11" s="147">
+        <v>921</v>
+      </c>
+      <c r="M11" s="147">
+        <v>65</v>
+      </c>
+      <c r="N11" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="D12">
-        <v>847.5</v>
+        <v>750</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -10178,8 +12844,23 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="J12" s="147" t="s">
+        <v>814</v>
+      </c>
+      <c r="K12" s="147">
+        <v>625</v>
+      </c>
+      <c r="L12" s="147">
+        <v>1036</v>
+      </c>
+      <c r="M12" s="147">
+        <v>65</v>
+      </c>
+      <c r="N12" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10198,19 +12879,34 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="J13" s="147" t="s">
+        <v>818</v>
+      </c>
+      <c r="K13" s="147">
+        <v>656</v>
+      </c>
+      <c r="L13" s="147">
+        <v>1099</v>
+      </c>
+      <c r="M13" s="147">
+        <v>65</v>
+      </c>
+      <c r="N13" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>178</v>
       </c>
       <c r="C14">
-        <v>317</v>
+        <v>277.7</v>
       </c>
       <c r="D14">
-        <v>976</v>
+        <v>875</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -10218,19 +12914,34 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="J14" s="147" t="s">
+        <v>815</v>
+      </c>
+      <c r="K14" s="147">
+        <v>740</v>
+      </c>
+      <c r="L14" s="147">
+        <v>1038</v>
+      </c>
+      <c r="M14" s="147">
+        <v>65</v>
+      </c>
+      <c r="N14" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>178</v>
       </c>
       <c r="C15">
-        <v>583</v>
+        <v>317</v>
       </c>
       <c r="D15">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -10238,19 +12949,34 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="J15" s="147" t="s">
+        <v>817</v>
+      </c>
+      <c r="K15" s="147">
+        <v>845</v>
+      </c>
+      <c r="L15" s="147">
+        <v>1036</v>
+      </c>
+      <c r="M15" s="147">
+        <v>65</v>
+      </c>
+      <c r="N15" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16">
-        <v>675</v>
+        <v>325</v>
       </c>
       <c r="D16">
-        <v>845.8</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -10258,19 +12984,34 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="J16" s="147" t="s">
+        <v>816</v>
+      </c>
+      <c r="K16" s="147">
+        <v>851</v>
+      </c>
+      <c r="L16" s="147">
+        <v>918</v>
+      </c>
+      <c r="M16" s="147">
+        <v>65</v>
+      </c>
+      <c r="N16" s="147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C17">
-        <v>710</v>
+        <v>375</v>
       </c>
       <c r="D17">
-        <v>978</v>
+        <v>750</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -10278,19 +13019,37 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="J17" s="147" t="s">
+        <v>756</v>
+      </c>
+      <c r="K17" s="147">
+        <v>32</v>
+      </c>
+      <c r="L17" s="147">
+        <v>-387</v>
+      </c>
+      <c r="M17" s="147">
+        <v>56</v>
+      </c>
+      <c r="N17" s="147">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C18">
-        <v>841.5</v>
+        <v>500</v>
       </c>
       <c r="D18">
-        <v>979.5</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -10299,18 +13058,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C19">
-        <v>968</v>
+        <v>575</v>
       </c>
       <c r="D19">
-        <v>842</v>
+        <v>750</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -10318,16 +13077,34 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="J19" s="147" t="s">
+        <v>801</v>
+      </c>
+      <c r="K19" s="147">
+        <v>52</v>
+      </c>
+      <c r="L19" s="147">
+        <v>80</v>
+      </c>
+      <c r="M19" s="147">
+        <v>74</v>
+      </c>
+      <c r="N19" s="147">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>178</v>
       </c>
       <c r="C20">
-        <v>961.5</v>
+        <v>583</v>
       </c>
       <c r="D20">
         <v>978</v>
@@ -10338,39 +13115,69 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="J20" s="147" t="s">
+        <v>753</v>
+      </c>
+      <c r="K20" s="147">
+        <v>59</v>
+      </c>
+      <c r="L20" s="147">
+        <v>-534</v>
+      </c>
+      <c r="M20" s="147">
+        <v>56</v>
+      </c>
+      <c r="N20" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C21">
-        <v>538</v>
+        <v>675</v>
       </c>
       <c r="D21">
-        <v>1202</v>
+        <v>845.8</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="J21" s="147" t="s">
+        <v>747</v>
+      </c>
+      <c r="K21" s="147">
+        <v>63</v>
+      </c>
+      <c r="L21" s="147">
+        <v>-771</v>
+      </c>
+      <c r="M21" s="147">
+        <v>56</v>
+      </c>
+      <c r="N21" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22">
-        <v>745.6</v>
+        <v>675</v>
       </c>
       <c r="D22">
-        <v>1050</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -10378,219 +13185,408 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="J22" s="147" t="s">
+        <v>819</v>
+      </c>
+      <c r="K22" s="147">
+        <v>233</v>
+      </c>
+      <c r="L22" s="147">
+        <v>1213</v>
+      </c>
+      <c r="M22" s="147">
+        <v>74</v>
+      </c>
+      <c r="N22" s="147">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23">
-        <v>840</v>
+        <v>710</v>
       </c>
       <c r="D23">
-        <v>1185</v>
+        <v>978</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="J23" s="147" t="s">
+        <v>829</v>
+      </c>
+      <c r="K23" s="147">
+        <v>243</v>
+      </c>
+      <c r="L23" s="147">
+        <v>1335</v>
+      </c>
+      <c r="M23" s="147">
+        <v>74</v>
+      </c>
+      <c r="N23" s="147">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>179</v>
       </c>
       <c r="C24">
-        <v>780</v>
+        <v>745.6</v>
       </c>
       <c r="D24">
-        <v>1336</v>
+        <v>1050</v>
       </c>
       <c r="E24">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="J24" s="147" t="s">
+        <v>821</v>
+      </c>
+      <c r="K24" s="147">
+        <v>257</v>
+      </c>
+      <c r="L24" s="147">
+        <v>1051</v>
+      </c>
+      <c r="M24" s="147">
+        <v>74</v>
+      </c>
+      <c r="N24" s="147">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25">
+        <v>841.5</v>
+      </c>
+      <c r="D25">
+        <v>979.5</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="147" t="s">
+        <v>752</v>
+      </c>
+      <c r="K25" s="147">
+        <v>293</v>
+      </c>
+      <c r="L25" s="147">
+        <v>-766</v>
+      </c>
+      <c r="M25" s="147">
+        <v>56</v>
+      </c>
+      <c r="N25" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26">
+        <v>961.5</v>
+      </c>
+      <c r="D26">
+        <v>978</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="147" t="s">
+        <v>827</v>
+      </c>
+      <c r="K26" s="147">
+        <v>460</v>
+      </c>
+      <c r="L26" s="147">
+        <v>1221</v>
+      </c>
+      <c r="M26" s="147">
+        <v>74</v>
+      </c>
+      <c r="N26" s="147">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27">
+        <v>968</v>
+      </c>
+      <c r="D27">
+        <v>842</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="147" t="s">
+        <v>825</v>
+      </c>
+      <c r="K27" s="147">
+        <v>527</v>
+      </c>
+      <c r="L27" s="147">
+        <v>1186</v>
+      </c>
+      <c r="M27" s="147">
+        <v>74</v>
+      </c>
+      <c r="N27" s="147">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28">
+        <v>950</v>
+      </c>
+      <c r="D28">
+        <v>57.5</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="147" t="s">
+        <v>754</v>
+      </c>
+      <c r="K28" s="147">
+        <v>539</v>
+      </c>
+      <c r="L28" s="147">
+        <v>96</v>
+      </c>
+      <c r="M28" s="147">
+        <v>56</v>
+      </c>
+      <c r="N28" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>179</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <v>243.4</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>1355</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>55</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>179</v>
-      </c>
-      <c r="C26">
-        <v>221</v>
-      </c>
-      <c r="D26">
-        <v>1197</v>
-      </c>
-      <c r="E26">
-        <v>-90</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27">
-        <v>236.6</v>
-      </c>
-      <c r="D27">
-        <v>1052</v>
-      </c>
-      <c r="E27">
-        <v>-35</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28">
-        <v>449</v>
-      </c>
-      <c r="D28">
-        <v>1204</v>
-      </c>
-      <c r="E28">
-        <v>-90</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29">
-        <v>175</v>
-      </c>
-      <c r="D29">
-        <v>750</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="J29" s="147" t="s">
+        <v>755</v>
+      </c>
+      <c r="K29" s="147">
+        <v>669</v>
+      </c>
+      <c r="L29" s="147">
+        <v>77</v>
+      </c>
+      <c r="M29" s="147">
+        <v>56</v>
+      </c>
+      <c r="N29" s="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>180</v>
       </c>
       <c r="C30">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="D30">
-        <v>750</v>
+        <v>435</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="J30" s="147" t="s">
+        <v>831</v>
+      </c>
+      <c r="K30" s="147">
+        <v>799</v>
+      </c>
+      <c r="L30" s="147">
+        <v>1340</v>
+      </c>
+      <c r="M30" s="147">
+        <v>74</v>
+      </c>
+      <c r="N30" s="147">
+        <v>21</v>
+      </c>
+      <c r="O30" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>180</v>
       </c>
       <c r="C31">
-        <v>575</v>
+        <v>285</v>
       </c>
       <c r="D31">
-        <v>750</v>
+        <v>340</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="J31" s="147" t="s">
+        <v>823</v>
+      </c>
+      <c r="K31" s="147">
+        <v>829</v>
+      </c>
+      <c r="L31" s="147">
+        <v>1169</v>
+      </c>
+      <c r="M31" s="147">
+        <v>74</v>
+      </c>
+      <c r="N31" s="147">
+        <v>21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
         <v>180</v>
       </c>
       <c r="C32">
-        <v>950</v>
+        <v>285</v>
       </c>
       <c r="D32">
-        <v>755</v>
+        <v>245</v>
       </c>
       <c r="E32">
-        <v>-42</v>
+        <v>90</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="J32" s="147" t="s">
+        <v>799</v>
+      </c>
+      <c r="K32" s="147">
+        <v>956</v>
+      </c>
+      <c r="L32" s="147">
+        <v>39</v>
+      </c>
+      <c r="M32" s="147">
+        <v>74</v>
+      </c>
+      <c r="N32" s="147">
+        <v>21</v>
+      </c>
+      <c r="O32" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33">
-        <v>1035</v>
+        <v>538</v>
       </c>
       <c r="D33">
-        <v>560</v>
+        <v>1202</v>
       </c>
       <c r="E33">
         <v>90</v>
@@ -10598,19 +13594,37 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="J33" s="147" t="s">
+        <v>806</v>
+      </c>
+      <c r="K33" s="147">
+        <v>988</v>
+      </c>
+      <c r="L33" s="147">
+        <v>754</v>
+      </c>
+      <c r="M33" s="147">
+        <v>74</v>
+      </c>
+      <c r="N33" s="147">
+        <v>21</v>
+      </c>
+      <c r="O33" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>180</v>
       </c>
       <c r="C34">
-        <v>1035</v>
+        <v>545</v>
       </c>
       <c r="D34">
-        <v>460</v>
+        <v>375</v>
       </c>
       <c r="E34">
         <v>90</v>
@@ -10618,19 +13632,37 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="J34" s="147" t="s">
+        <v>759</v>
+      </c>
+      <c r="K34" s="147">
+        <v>24</v>
+      </c>
+      <c r="L34" s="147">
+        <v>-662</v>
+      </c>
+      <c r="M34" s="147">
+        <v>56</v>
+      </c>
+      <c r="N34" s="147">
+        <v>21</v>
+      </c>
+      <c r="O34" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>180</v>
       </c>
       <c r="C35">
-        <v>1035</v>
+        <v>545</v>
       </c>
       <c r="D35">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="E35">
         <v>90</v>
@@ -10638,19 +13670,37 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="J35" s="147" t="s">
+        <v>767</v>
+      </c>
+      <c r="K35" s="147">
+        <v>56</v>
+      </c>
+      <c r="L35" s="147">
+        <v>2</v>
+      </c>
+      <c r="M35" s="147">
+        <v>56</v>
+      </c>
+      <c r="N35" s="147">
+        <v>21</v>
+      </c>
+      <c r="O35" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
         <v>180</v>
       </c>
       <c r="C36">
-        <v>1035</v>
+        <v>795</v>
       </c>
       <c r="D36">
-        <v>260</v>
+        <v>435</v>
       </c>
       <c r="E36">
         <v>90</v>
@@ -10658,19 +13708,37 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="J36" s="147" t="s">
+        <v>762</v>
+      </c>
+      <c r="K36" s="147">
+        <v>581</v>
+      </c>
+      <c r="L36" s="147">
+        <v>-115</v>
+      </c>
+      <c r="M36" s="147">
+        <v>56</v>
+      </c>
+      <c r="N36" s="147">
+        <v>21</v>
+      </c>
+      <c r="O36" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
         <v>180</v>
       </c>
       <c r="C37">
-        <v>1035</v>
+        <v>795</v>
       </c>
       <c r="D37">
-        <v>160</v>
+        <v>340</v>
       </c>
       <c r="E37">
         <v>90</v>
@@ -10678,159 +13746,172 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="J37" s="147" t="s">
+        <v>783</v>
+      </c>
+      <c r="K37" s="147">
+        <v>576</v>
+      </c>
+      <c r="L37" s="147">
+        <v>216</v>
+      </c>
+      <c r="M37" s="147">
+        <v>56</v>
+      </c>
+      <c r="N37" s="147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
         <v>180</v>
       </c>
       <c r="C38">
-        <v>950</v>
+        <v>795</v>
       </c>
       <c r="D38">
-        <v>57.5</v>
+        <v>245</v>
       </c>
       <c r="E38">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="J38" s="147" t="s">
+        <v>782</v>
+      </c>
+      <c r="K38" s="147">
+        <v>463</v>
+      </c>
+      <c r="L38" s="147">
+        <v>214</v>
+      </c>
+      <c r="M38" s="147">
+        <v>54</v>
+      </c>
+      <c r="N38" s="147">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39">
-        <v>675</v>
+        <v>840</v>
       </c>
       <c r="D39">
-        <v>35</v>
+        <v>1185</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
+      <c r="J39" s="147" t="s">
+        <v>775</v>
+      </c>
+      <c r="K39" s="147">
+        <v>238</v>
+      </c>
+      <c r="L39" s="147">
+        <v>382</v>
+      </c>
+      <c r="M39" s="147">
+        <v>22</v>
+      </c>
+      <c r="N39" s="147">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="J41" s="147" t="s">
+        <v>780</v>
+      </c>
+      <c r="K41" s="147">
+        <v>283</v>
+      </c>
+      <c r="L41" s="147">
+        <v>542</v>
+      </c>
+      <c r="M41" s="147">
+        <v>27</v>
+      </c>
+      <c r="N41" s="147">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="J42" s="147" t="s">
+        <v>777</v>
+      </c>
+      <c r="K42" s="147">
+        <v>237</v>
+      </c>
+      <c r="L42" s="147">
+        <v>456</v>
+      </c>
+      <c r="M42" s="147">
+        <v>21</v>
+      </c>
+      <c r="N42" s="147">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="J43" s="147" t="s">
+        <v>774</v>
+      </c>
+      <c r="K43" s="147">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40">
-        <v>500</v>
-      </c>
-      <c r="D40">
-        <v>35</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41">
-        <v>325</v>
-      </c>
-      <c r="D41">
-        <v>35</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42">
-        <v>32.6</v>
-      </c>
-      <c r="D42">
-        <v>74.599999999999994</v>
-      </c>
-      <c r="E42">
-        <v>-52</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43">
-        <v>40</v>
-      </c>
-      <c r="D43">
+      <c r="L43" s="147">
+        <v>691</v>
+      </c>
+      <c r="M43" s="147">
+        <v>20</v>
+      </c>
+      <c r="N43" s="147">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="J44" s="147" t="s">
+        <v>779</v>
+      </c>
+      <c r="K44" s="147">
         <v>235</v>
       </c>
-      <c r="E43">
-        <v>-90</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44">
-        <v>40</v>
-      </c>
-      <c r="D44">
-        <v>335</v>
-      </c>
-      <c r="E44">
-        <v>-90</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="L44" s="147">
+        <v>541</v>
+      </c>
+      <c r="M44" s="147">
+        <v>22</v>
+      </c>
+      <c r="N44" s="147">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="D45">
-        <v>435</v>
+        <v>1197</v>
       </c>
       <c r="E45">
         <v>-90</v>
@@ -10838,19 +13919,34 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="J45" s="147" t="s">
+        <v>776</v>
+      </c>
+      <c r="K45" s="147">
+        <v>281</v>
+      </c>
+      <c r="L45" s="147">
+        <v>378</v>
+      </c>
+      <c r="M45" s="147">
+        <v>27</v>
+      </c>
+      <c r="N45" s="147">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
         <v>180</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D46">
-        <v>535</v>
+        <v>320</v>
       </c>
       <c r="E46">
         <v>-90</v>
@@ -10859,18 +13955,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>180</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D47">
-        <v>635</v>
+        <v>415</v>
       </c>
       <c r="E47">
         <v>-90</v>
@@ -10879,78 +13975,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>180</v>
       </c>
       <c r="C48">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="D48">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="E48">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:14">
       <c r="A49">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="D49">
-        <v>340</v>
+        <v>1204</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="J49" s="147" t="s">
+        <v>778</v>
+      </c>
+      <c r="K49" s="147">
+        <v>284</v>
+      </c>
+      <c r="L49" s="147">
+        <v>458</v>
+      </c>
+      <c r="M49" s="147">
+        <v>24</v>
+      </c>
+      <c r="N49" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
         <v>180</v>
       </c>
       <c r="C50">
-        <v>285</v>
+        <v>575</v>
       </c>
       <c r="D50">
-        <v>245</v>
+        <v>345</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="J50" s="147" t="s">
+        <v>797</v>
+      </c>
+      <c r="K50" s="147">
+        <v>432</v>
+      </c>
+      <c r="L50" s="147">
+        <v>511</v>
+      </c>
+      <c r="M50" s="147">
+        <v>17</v>
+      </c>
+      <c r="N50" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
         <v>180</v>
       </c>
       <c r="C51">
-        <v>315</v>
+        <v>575</v>
       </c>
       <c r="D51">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="E51">
         <v>-90</v>
@@ -10958,19 +14084,34 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="J51" s="147" t="s">
+        <v>795</v>
+      </c>
+      <c r="K51" s="147">
+        <v>433</v>
+      </c>
+      <c r="L51" s="147">
+        <v>411</v>
+      </c>
+      <c r="M51" s="147">
+        <v>17</v>
+      </c>
+      <c r="N51" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>180</v>
       </c>
       <c r="C52">
-        <v>315</v>
+        <v>825</v>
       </c>
       <c r="D52">
-        <v>415</v>
+        <v>320</v>
       </c>
       <c r="E52">
         <v>-90</v>
@@ -10978,19 +14119,34 @@
       <c r="F52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="J52" s="147" t="s">
+        <v>798</v>
+      </c>
+      <c r="K52" s="147">
+        <v>481</v>
+      </c>
+      <c r="L52" s="147">
+        <v>513</v>
+      </c>
+      <c r="M52" s="147">
+        <v>17</v>
+      </c>
+      <c r="N52" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
         <v>180</v>
       </c>
       <c r="C53">
-        <v>315</v>
+        <v>825</v>
       </c>
       <c r="D53">
-        <v>510</v>
+        <v>415</v>
       </c>
       <c r="E53">
         <v>-90</v>
@@ -10998,159 +14154,226 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="J53" s="147" t="s">
+        <v>796</v>
+      </c>
+      <c r="K53" s="147">
+        <v>482</v>
+      </c>
+      <c r="L53" s="147">
+        <v>411</v>
+      </c>
+      <c r="M53" s="147">
+        <v>17</v>
+      </c>
+      <c r="N53" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
         <v>180</v>
       </c>
       <c r="C54">
-        <v>545</v>
+        <v>825</v>
       </c>
       <c r="D54">
-        <v>375</v>
+        <v>510</v>
       </c>
       <c r="E54">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="J54" s="147" t="s">
+        <v>784</v>
+      </c>
+      <c r="K54" s="147">
+        <v>678</v>
+      </c>
+      <c r="L54" s="147">
+        <v>359</v>
+      </c>
+      <c r="M54" s="147">
+        <v>17</v>
+      </c>
+      <c r="N54" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
         <v>180</v>
       </c>
       <c r="C55">
-        <v>545</v>
+        <v>32.6</v>
       </c>
       <c r="D55">
-        <v>270</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="E55">
-        <v>90</v>
+        <v>-52</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="J55" s="147" t="s">
+        <v>786</v>
+      </c>
+      <c r="K55" s="147">
+        <v>678</v>
+      </c>
+      <c r="L55" s="147">
+        <v>457</v>
+      </c>
+      <c r="M55" s="147">
+        <v>17</v>
+      </c>
+      <c r="N55" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56">
-        <v>575</v>
+        <v>780</v>
       </c>
       <c r="D56">
-        <v>345</v>
+        <v>1336</v>
       </c>
       <c r="E56">
-        <v>-90</v>
+        <v>-45</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="J56" s="147" t="s">
+        <v>788</v>
+      </c>
+      <c r="K56" s="147">
+        <v>680</v>
+      </c>
+      <c r="L56" s="147">
+        <v>540</v>
+      </c>
+      <c r="M56" s="147">
+        <v>17</v>
+      </c>
+      <c r="N56" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B57" t="s">
         <v>180</v>
       </c>
       <c r="C57">
-        <v>575</v>
+        <v>950</v>
       </c>
       <c r="D57">
-        <v>450</v>
+        <v>755</v>
       </c>
       <c r="E57">
-        <v>-90</v>
+        <v>-42</v>
       </c>
       <c r="F57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="J57" s="147" t="s">
+        <v>789</v>
+      </c>
+      <c r="K57" s="147">
+        <v>725</v>
+      </c>
+      <c r="L57" s="147">
+        <v>537</v>
+      </c>
+      <c r="M57" s="147">
+        <v>17</v>
+      </c>
+      <c r="N57" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C58">
-        <v>795</v>
+        <v>236.6</v>
       </c>
       <c r="D58">
-        <v>435</v>
+        <v>1052</v>
       </c>
       <c r="E58">
-        <v>90</v>
+        <v>-35</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>180</v>
-      </c>
-      <c r="C59">
-        <v>795</v>
-      </c>
-      <c r="D59">
-        <v>340</v>
-      </c>
-      <c r="E59">
-        <v>90</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C60">
-        <v>795</v>
-      </c>
-      <c r="D60">
-        <v>245</v>
-      </c>
-      <c r="E60">
-        <v>90</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="J58" s="147" t="s">
+        <v>785</v>
+      </c>
+      <c r="K58" s="147">
+        <v>727</v>
+      </c>
+      <c r="L58" s="147">
+        <v>360</v>
+      </c>
+      <c r="M58" s="147">
+        <v>17</v>
+      </c>
+      <c r="N58" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="J59" s="147" t="s">
+        <v>787</v>
+      </c>
+      <c r="K59" s="147">
+        <v>727</v>
+      </c>
+      <c r="L59" s="147">
+        <v>456</v>
+      </c>
+      <c r="M59" s="147">
+        <v>17</v>
+      </c>
+      <c r="N59" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
         <v>180</v>
       </c>
       <c r="C61">
-        <v>825</v>
+        <v>40</v>
       </c>
       <c r="D61">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="E61">
         <v>-90</v>
@@ -11158,19 +14381,34 @@
       <c r="F61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="J61" s="147" t="s">
+        <v>771</v>
+      </c>
+      <c r="K61" s="147">
+        <v>40</v>
+      </c>
+      <c r="L61" s="147">
+        <v>425</v>
+      </c>
+      <c r="M61" s="147">
+        <v>21</v>
+      </c>
+      <c r="N61" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B62" t="s">
         <v>180</v>
       </c>
       <c r="C62">
-        <v>825</v>
+        <v>40</v>
       </c>
       <c r="D62">
-        <v>415</v>
+        <v>335</v>
       </c>
       <c r="E62">
         <v>-90</v>
@@ -11178,19 +14416,34 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="J62" s="147" t="s">
+        <v>770</v>
+      </c>
+      <c r="K62" s="147">
+        <v>41</v>
+      </c>
+      <c r="L62" s="147">
+        <v>332</v>
+      </c>
+      <c r="M62" s="147">
+        <v>21</v>
+      </c>
+      <c r="N62" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B63" t="s">
         <v>180</v>
       </c>
       <c r="C63">
-        <v>825</v>
+        <v>40</v>
       </c>
       <c r="D63">
-        <v>510</v>
+        <v>435</v>
       </c>
       <c r="E63">
         <v>-90</v>
@@ -11198,9 +14451,323 @@
       <c r="F63">
         <v>1</v>
       </c>
+      <c r="J63" s="147" t="s">
+        <v>773</v>
+      </c>
+      <c r="K63" s="147">
+        <v>43</v>
+      </c>
+      <c r="L63" s="147">
+        <v>585</v>
+      </c>
+      <c r="M63" s="147">
+        <v>18</v>
+      </c>
+      <c r="N63" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>45</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64">
+        <v>40</v>
+      </c>
+      <c r="D64">
+        <v>535</v>
+      </c>
+      <c r="E64">
+        <v>-90</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="J64" s="147" t="s">
+        <v>772</v>
+      </c>
+      <c r="K64" s="147">
+        <v>43</v>
+      </c>
+      <c r="L64" s="147">
+        <v>513</v>
+      </c>
+      <c r="M64" s="147">
+        <v>18</v>
+      </c>
+      <c r="N64" s="147">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65">
+        <v>46</v>
+      </c>
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>635</v>
+      </c>
+      <c r="E65">
+        <v>-90</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="J65" s="147" t="s">
+        <v>765</v>
+      </c>
+      <c r="K65" s="147">
+        <v>45</v>
+      </c>
+      <c r="L65" s="147">
+        <v>-206</v>
+      </c>
+      <c r="M65" s="147">
+        <v>56</v>
+      </c>
+      <c r="N65" s="147">
+        <v>21</v>
+      </c>
+      <c r="O65" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="J66" s="147"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="147"/>
+      <c r="M66" s="147"/>
+      <c r="N66" s="147"/>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67">
+        <v>1035</v>
+      </c>
+      <c r="D67">
+        <v>560</v>
+      </c>
+      <c r="E67">
+        <v>90</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <f>C67-K67</f>
+        <v>128</v>
+      </c>
+      <c r="I67">
+        <f>D67-L67</f>
+        <v>-111</v>
+      </c>
+      <c r="J67" s="147" t="s">
+        <v>794</v>
+      </c>
+      <c r="K67" s="147">
+        <v>907</v>
+      </c>
+      <c r="L67" s="147">
+        <v>671</v>
+      </c>
+      <c r="M67" s="147">
+        <v>17</v>
+      </c>
+      <c r="N67" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68">
+        <v>1035</v>
+      </c>
+      <c r="D68">
+        <v>460</v>
+      </c>
+      <c r="E68">
+        <v>90</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H71" si="0">C68-K68</f>
+        <v>127</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I71" si="1">D68-L68</f>
+        <v>136</v>
+      </c>
+      <c r="J68" s="147" t="s">
+        <v>790</v>
+      </c>
+      <c r="K68" s="147">
+        <v>908</v>
+      </c>
+      <c r="L68" s="147">
+        <v>324</v>
+      </c>
+      <c r="M68" s="147">
+        <v>17</v>
+      </c>
+      <c r="N68" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69">
+        <v>34</v>
+      </c>
+      <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69">
+        <v>1035</v>
+      </c>
+      <c r="D69">
+        <v>360</v>
+      </c>
+      <c r="E69">
+        <v>90</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>-211</v>
+      </c>
+      <c r="J69" s="147" t="s">
+        <v>793</v>
+      </c>
+      <c r="K69" s="147">
+        <v>908</v>
+      </c>
+      <c r="L69" s="147">
+        <v>571</v>
+      </c>
+      <c r="M69" s="147">
+        <v>17</v>
+      </c>
+      <c r="N69" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70">
+        <v>35</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70">
+        <v>1035</v>
+      </c>
+      <c r="D70">
+        <v>260</v>
+      </c>
+      <c r="E70">
+        <v>90</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>-149</v>
+      </c>
+      <c r="J70" s="147" t="s">
+        <v>791</v>
+      </c>
+      <c r="K70" s="147">
+        <v>909</v>
+      </c>
+      <c r="L70" s="147">
+        <v>409</v>
+      </c>
+      <c r="M70" s="147">
+        <v>17</v>
+      </c>
+      <c r="N70" s="147">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71">
+        <v>1035</v>
+      </c>
+      <c r="D71">
+        <v>160</v>
+      </c>
+      <c r="E71">
+        <v>90</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>-333</v>
+      </c>
+      <c r="J71" s="147" t="s">
+        <v>792</v>
+      </c>
+      <c r="K71" s="147">
+        <v>909</v>
+      </c>
+      <c r="L71" s="147">
+        <v>493</v>
+      </c>
+      <c r="M71" s="147">
+        <v>17</v>
+      </c>
+      <c r="N71" s="147">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="J2:O82">
+    <sortCondition ref="N2:N82"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11209,7 +14776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E75"/>
   <sheetViews>
@@ -12035,7 +15602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
@@ -14263,7 +17830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH61"/>
   <sheetViews>
@@ -20179,2909 +23746,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="185" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="184" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" thickBot="1">
-      <c r="A5" s="184" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A6" s="186" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A7" s="187" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A8" s="187" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A9" s="187" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A10" s="187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A11" s="187" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A12" s="187" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A13" s="187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A14" s="187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A15" s="187" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="19" thickTop="1" thickBot="1">
-      <c r="A16" s="187" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="19" thickTop="1" thickBot="1">
-      <c r="A17" s="187" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="19" thickTop="1" thickBot="1">
-      <c r="A18" s="188" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="19" thickTop="1" thickBot="1">
-      <c r="A19" s="189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="19" thickTop="1" thickBot="1">
-      <c r="A20" s="188" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="19" thickTop="1" thickBot="1">
-      <c r="A21" s="187" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="19" thickTop="1" thickBot="1">
-      <c r="A22" s="190" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="19" thickTop="1" thickBot="1">
-      <c r="A23" s="191" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="18" thickTop="1">
-      <c r="A24" s="192" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AB155"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="15">
-      <c r="E40" t="s">
-        <v>746</v>
-      </c>
-      <c r="F40" t="s">
-        <v>750</v>
-      </c>
-      <c r="G40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="193" t="s">
-        <v>2</v>
-      </c>
-      <c r="I40" s="193" t="s">
-        <v>174</v>
-      </c>
-      <c r="J40" s="193" t="s">
-        <v>175</v>
-      </c>
-      <c r="K40" s="193" t="s">
-        <v>749</v>
-      </c>
-      <c r="L40" s="193" t="s">
-        <v>748</v>
-      </c>
-      <c r="M40" s="194" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="H41" s="147" t="s">
-        <v>747</v>
-      </c>
-      <c r="I41" s="147">
-        <v>63</v>
-      </c>
-      <c r="J41" s="147">
-        <v>-771</v>
-      </c>
-      <c r="K41" s="147">
-        <v>56</v>
-      </c>
-      <c r="L41" s="147">
-        <v>21</v>
-      </c>
-      <c r="P41" t="s">
-        <v>750</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="H42" s="147" t="s">
-        <v>752</v>
-      </c>
-      <c r="I42" s="147">
-        <v>293</v>
-      </c>
-      <c r="J42" s="147">
-        <v>-766</v>
-      </c>
-      <c r="K42" s="147">
-        <v>56</v>
-      </c>
-      <c r="L42" s="147">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="H43" s="147" t="s">
-        <v>753</v>
-      </c>
-      <c r="I43" s="147">
-        <v>59</v>
-      </c>
-      <c r="J43" s="147">
-        <v>-534</v>
-      </c>
-      <c r="K43" s="147">
-        <v>56</v>
-      </c>
-      <c r="L43" s="147">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="H44" s="147" t="s">
-        <v>754</v>
-      </c>
-      <c r="I44" s="147">
-        <v>539</v>
-      </c>
-      <c r="J44" s="147">
-        <v>96</v>
-      </c>
-      <c r="K44" s="147">
-        <v>56</v>
-      </c>
-      <c r="L44" s="147">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="H45" s="147" t="s">
-        <v>755</v>
-      </c>
-      <c r="I45" s="147">
-        <v>669</v>
-      </c>
-      <c r="J45" s="147">
-        <v>77</v>
-      </c>
-      <c r="K45" s="147">
-        <v>56</v>
-      </c>
-      <c r="L45" s="147">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="H46" s="147" t="s">
-        <v>756</v>
-      </c>
-      <c r="I46" s="147">
-        <v>32</v>
-      </c>
-      <c r="J46" s="147">
-        <v>-387</v>
-      </c>
-      <c r="K46" s="147">
-        <v>56</v>
-      </c>
-      <c r="L46" s="147">
-        <v>21</v>
-      </c>
-      <c r="M46" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="H47" s="147" t="s">
-        <v>759</v>
-      </c>
-      <c r="I47" s="147" t="s">
-        <v>760</v>
-      </c>
-      <c r="J47" s="147">
-        <v>-662</v>
-      </c>
-      <c r="K47" s="147">
-        <v>56</v>
-      </c>
-      <c r="L47" s="147">
-        <v>21</v>
-      </c>
-      <c r="M47" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="H48" s="147" t="s">
-        <v>762</v>
-      </c>
-      <c r="I48" s="147" t="s">
-        <v>763</v>
-      </c>
-      <c r="J48" s="147">
-        <v>-115</v>
-      </c>
-      <c r="K48" s="147">
-        <v>56</v>
-      </c>
-      <c r="L48" s="147">
-        <v>21</v>
-      </c>
-      <c r="M48" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="49" spans="8:13">
-      <c r="H49" s="147" t="s">
-        <v>765</v>
-      </c>
-      <c r="I49" s="147">
-        <v>45</v>
-      </c>
-      <c r="J49" s="147">
-        <v>-206</v>
-      </c>
-      <c r="K49" s="147">
-        <v>56</v>
-      </c>
-      <c r="L49" s="147">
-        <v>21</v>
-      </c>
-      <c r="M49" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="50" spans="8:13">
-      <c r="H50" s="147" t="s">
-        <v>767</v>
-      </c>
-      <c r="I50" s="147" t="s">
-        <v>768</v>
-      </c>
-      <c r="J50" s="147">
-        <v>2</v>
-      </c>
-      <c r="K50" s="147">
-        <v>56</v>
-      </c>
-      <c r="L50" s="147">
-        <v>21</v>
-      </c>
-      <c r="M50" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="51" spans="8:13">
-      <c r="H51" s="147" t="s">
-        <v>770</v>
-      </c>
-      <c r="I51" s="147">
-        <v>41</v>
-      </c>
-      <c r="J51" s="147">
-        <v>332</v>
-      </c>
-      <c r="K51" s="147">
-        <v>21</v>
-      </c>
-      <c r="L51" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="8:13">
-      <c r="H52" s="147" t="s">
-        <v>771</v>
-      </c>
-      <c r="I52" s="147">
-        <v>40</v>
-      </c>
-      <c r="J52" s="147">
-        <v>425</v>
-      </c>
-      <c r="K52" s="147">
-        <v>21</v>
-      </c>
-      <c r="L52" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="8:13">
-      <c r="H53" s="147" t="s">
-        <v>772</v>
-      </c>
-      <c r="I53" s="147">
-        <v>43</v>
-      </c>
-      <c r="J53" s="147">
-        <v>513</v>
-      </c>
-      <c r="K53" s="147">
-        <v>18</v>
-      </c>
-      <c r="L53" s="147">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="8:13">
-      <c r="H54" s="147" t="s">
-        <v>773</v>
-      </c>
-      <c r="I54" s="147">
-        <v>43</v>
-      </c>
-      <c r="J54" s="147">
-        <v>585</v>
-      </c>
-      <c r="K54" s="147">
-        <v>18</v>
-      </c>
-      <c r="L54" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="8:13">
-      <c r="H55" s="147" t="s">
-        <v>774</v>
-      </c>
-      <c r="I55" s="147">
-        <v>39</v>
-      </c>
-      <c r="J55" s="147">
-        <v>691</v>
-      </c>
-      <c r="K55" s="147">
-        <v>20</v>
-      </c>
-      <c r="L55" s="147">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" spans="8:13">
-      <c r="H56" s="147" t="s">
-        <v>775</v>
-      </c>
-      <c r="I56" s="147">
-        <v>238</v>
-      </c>
-      <c r="J56" s="147">
-        <v>382</v>
-      </c>
-      <c r="K56" s="147">
-        <v>22</v>
-      </c>
-      <c r="L56" s="147">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="8:13">
-      <c r="H57" s="147" t="s">
-        <v>776</v>
-      </c>
-      <c r="I57" s="147">
-        <v>281</v>
-      </c>
-      <c r="J57" s="147">
-        <v>378</v>
-      </c>
-      <c r="K57" s="147">
-        <v>27</v>
-      </c>
-      <c r="L57" s="147">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="8:13">
-      <c r="H58" s="147" t="s">
-        <v>777</v>
-      </c>
-      <c r="I58" s="147">
-        <v>237</v>
-      </c>
-      <c r="J58" s="147">
-        <v>456</v>
-      </c>
-      <c r="K58" s="147">
-        <v>21</v>
-      </c>
-      <c r="L58" s="147">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="8:13">
-      <c r="H59" s="147" t="s">
-        <v>778</v>
-      </c>
-      <c r="I59" s="147">
-        <v>284</v>
-      </c>
-      <c r="J59" s="147">
-        <v>458</v>
-      </c>
-      <c r="K59" s="147">
-        <v>24</v>
-      </c>
-      <c r="L59" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="8:13">
-      <c r="H60" s="147" t="s">
-        <v>779</v>
-      </c>
-      <c r="I60" s="147">
-        <v>235</v>
-      </c>
-      <c r="J60" s="147">
-        <v>541</v>
-      </c>
-      <c r="K60" s="147">
-        <v>22</v>
-      </c>
-      <c r="L60" s="147">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="8:13">
-      <c r="H61" s="147" t="s">
-        <v>780</v>
-      </c>
-      <c r="I61" s="147">
-        <v>283</v>
-      </c>
-      <c r="J61" s="147">
-        <v>542</v>
-      </c>
-      <c r="K61" s="147">
-        <v>27</v>
-      </c>
-      <c r="L61" s="147">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="8:13">
-      <c r="H62" s="147" t="s">
-        <v>781</v>
-      </c>
-      <c r="I62" s="147">
-        <v>284</v>
-      </c>
-      <c r="J62" s="147">
-        <v>217</v>
-      </c>
-      <c r="K62" s="147">
-        <v>65</v>
-      </c>
-      <c r="L62" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="8:13">
-      <c r="H63" s="147" t="s">
-        <v>782</v>
-      </c>
-      <c r="I63" s="147">
-        <v>463</v>
-      </c>
-      <c r="J63" s="147">
-        <v>214</v>
-      </c>
-      <c r="K63" s="147">
-        <v>54</v>
-      </c>
-      <c r="L63" s="147">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="8:13">
-      <c r="H64" s="147" t="s">
-        <v>783</v>
-      </c>
-      <c r="I64" s="147">
-        <v>576</v>
-      </c>
-      <c r="J64" s="147">
-        <v>216</v>
-      </c>
-      <c r="K64" s="147">
-        <v>56</v>
-      </c>
-      <c r="L64" s="147">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="8:12">
-      <c r="H65" s="147" t="s">
-        <v>784</v>
-      </c>
-      <c r="I65" s="147">
-        <v>678</v>
-      </c>
-      <c r="J65" s="147">
-        <v>359</v>
-      </c>
-      <c r="K65" s="147">
-        <v>17</v>
-      </c>
-      <c r="L65" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="8:12">
-      <c r="H66" s="147" t="s">
-        <v>785</v>
-      </c>
-      <c r="I66" s="147">
-        <v>727</v>
-      </c>
-      <c r="J66" s="147">
-        <v>360</v>
-      </c>
-      <c r="K66" s="147">
-        <v>17</v>
-      </c>
-      <c r="L66" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="8:12">
-      <c r="H67" s="147" t="s">
-        <v>786</v>
-      </c>
-      <c r="I67" s="147">
-        <v>678</v>
-      </c>
-      <c r="J67" s="147">
-        <v>457</v>
-      </c>
-      <c r="K67" s="147">
-        <v>17</v>
-      </c>
-      <c r="L67" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="8:12">
-      <c r="H68" s="147" t="s">
-        <v>787</v>
-      </c>
-      <c r="I68" s="147">
-        <v>727</v>
-      </c>
-      <c r="J68" s="147">
-        <v>456</v>
-      </c>
-      <c r="K68" s="147">
-        <v>17</v>
-      </c>
-      <c r="L68" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="8:12">
-      <c r="H69" s="147" t="s">
-        <v>788</v>
-      </c>
-      <c r="I69" s="147">
-        <v>680</v>
-      </c>
-      <c r="J69" s="147">
-        <v>540</v>
-      </c>
-      <c r="K69" s="147">
-        <v>17</v>
-      </c>
-      <c r="L69" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="8:12">
-      <c r="H70" s="147" t="s">
-        <v>789</v>
-      </c>
-      <c r="I70" s="147">
-        <v>725</v>
-      </c>
-      <c r="J70" s="147">
-        <v>537</v>
-      </c>
-      <c r="K70" s="147">
-        <v>17</v>
-      </c>
-      <c r="L70" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="8:12">
-      <c r="H71" s="147" t="s">
-        <v>790</v>
-      </c>
-      <c r="I71" s="147">
-        <v>908</v>
-      </c>
-      <c r="J71" s="147">
-        <v>324</v>
-      </c>
-      <c r="K71" s="147">
-        <v>17</v>
-      </c>
-      <c r="L71" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="8:12">
-      <c r="H72" s="147" t="s">
-        <v>791</v>
-      </c>
-      <c r="I72" s="147">
-        <v>909</v>
-      </c>
-      <c r="J72" s="147">
-        <v>409</v>
-      </c>
-      <c r="K72" s="147">
-        <v>17</v>
-      </c>
-      <c r="L72" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="8:12">
-      <c r="H73" s="147" t="s">
-        <v>792</v>
-      </c>
-      <c r="I73" s="147">
-        <v>909</v>
-      </c>
-      <c r="J73" s="147">
-        <v>493</v>
-      </c>
-      <c r="K73" s="147">
-        <v>17</v>
-      </c>
-      <c r="L73" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="8:12">
-      <c r="H74" s="147" t="s">
-        <v>793</v>
-      </c>
-      <c r="I74" s="147">
-        <v>908</v>
-      </c>
-      <c r="J74" s="147">
-        <v>571</v>
-      </c>
-      <c r="K74" s="147">
-        <v>17</v>
-      </c>
-      <c r="L74" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="8:12">
-      <c r="H75" s="147" t="s">
-        <v>794</v>
-      </c>
-      <c r="I75" s="147">
-        <v>907</v>
-      </c>
-      <c r="J75" s="147">
-        <v>671</v>
-      </c>
-      <c r="K75" s="147">
-        <v>17</v>
-      </c>
-      <c r="L75" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="8:12">
-      <c r="H76" s="147" t="s">
-        <v>795</v>
-      </c>
-      <c r="I76" s="147">
-        <v>433</v>
-      </c>
-      <c r="J76" s="147">
-        <v>411</v>
-      </c>
-      <c r="K76" s="147">
-        <v>17</v>
-      </c>
-      <c r="L76" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="8:12">
-      <c r="H77" s="147" t="s">
-        <v>796</v>
-      </c>
-      <c r="I77" s="147">
-        <v>482</v>
-      </c>
-      <c r="J77" s="147">
-        <v>411</v>
-      </c>
-      <c r="K77" s="147">
-        <v>17</v>
-      </c>
-      <c r="L77" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="8:12">
-      <c r="H78" s="147" t="s">
-        <v>797</v>
-      </c>
-      <c r="I78" s="147">
-        <v>432</v>
-      </c>
-      <c r="J78" s="147">
-        <v>511</v>
-      </c>
-      <c r="K78" s="147">
-        <v>17</v>
-      </c>
-      <c r="L78" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="8:12">
-      <c r="H79" s="147" t="s">
-        <v>798</v>
-      </c>
-      <c r="I79" s="147">
-        <v>481</v>
-      </c>
-      <c r="J79" s="147">
-        <v>513</v>
-      </c>
-      <c r="K79" s="147">
-        <v>17</v>
-      </c>
-      <c r="L79" s="147">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="8:12">
-      <c r="H80" s="147"/>
-      <c r="I80" s="147"/>
-      <c r="J80" s="147"/>
-      <c r="K80" s="147"/>
-      <c r="L80" s="147"/>
-    </row>
-    <row r="81" spans="8:13">
-      <c r="H81" s="147" t="s">
-        <v>799</v>
-      </c>
-      <c r="I81" s="147">
-        <v>956</v>
-      </c>
-      <c r="J81" s="147">
-        <v>39</v>
-      </c>
-      <c r="K81" s="147">
-        <v>74</v>
-      </c>
-      <c r="L81" s="147">
-        <v>21</v>
-      </c>
-      <c r="M81" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="82" spans="8:13">
-      <c r="H82" s="147" t="s">
-        <v>801</v>
-      </c>
-      <c r="I82" s="147">
-        <v>52</v>
-      </c>
-      <c r="J82" s="147">
-        <v>80</v>
-      </c>
-      <c r="K82" s="147">
-        <v>74</v>
-      </c>
-      <c r="L82" s="147">
-        <v>21</v>
-      </c>
-      <c r="M82" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="83" spans="8:13">
-      <c r="H83" s="147"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="147"/>
-      <c r="K83" s="147"/>
-      <c r="L83" s="147"/>
-    </row>
-    <row r="84" spans="8:13">
-      <c r="H84" s="147" t="s">
-        <v>803</v>
-      </c>
-      <c r="I84" s="147">
-        <v>65</v>
-      </c>
-      <c r="J84" s="147">
-        <v>839</v>
-      </c>
-      <c r="K84" s="147">
-        <v>65</v>
-      </c>
-      <c r="L84" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="8:13">
-      <c r="H85" s="147" t="s">
-        <v>804</v>
-      </c>
-      <c r="I85" s="147">
-        <v>269</v>
-      </c>
-      <c r="J85" s="147">
-        <v>838</v>
-      </c>
-      <c r="K85" s="147">
-        <v>65</v>
-      </c>
-      <c r="L85" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="8:13">
-      <c r="H86" s="147" t="s">
-        <v>805</v>
-      </c>
-      <c r="I86" s="147">
-        <v>559</v>
-      </c>
-      <c r="J86" s="147">
-        <v>857</v>
-      </c>
-      <c r="K86" s="147">
-        <v>65</v>
-      </c>
-      <c r="L86" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="8:13">
-      <c r="H87" s="147" t="s">
-        <v>806</v>
-      </c>
-      <c r="I87" s="147">
-        <v>988</v>
-      </c>
-      <c r="J87" s="147">
-        <v>754</v>
-      </c>
-      <c r="K87" s="147">
-        <v>74</v>
-      </c>
-      <c r="L87" s="147">
-        <v>21</v>
-      </c>
-      <c r="M87" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="88" spans="8:13">
-      <c r="H88" s="147"/>
-      <c r="I88" s="147"/>
-      <c r="J88" s="147"/>
-      <c r="K88" s="147"/>
-      <c r="L88" s="147"/>
-    </row>
-    <row r="89" spans="8:13">
-      <c r="H89" s="147" t="s">
-        <v>808</v>
-      </c>
-      <c r="I89" s="147">
-        <v>248</v>
-      </c>
-      <c r="J89" s="147">
-        <v>947</v>
-      </c>
-      <c r="K89" s="147">
-        <v>65</v>
-      </c>
-      <c r="L89" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="8:13">
-      <c r="H90" s="147" t="s">
-        <v>809</v>
-      </c>
-      <c r="I90" s="147">
-        <v>23</v>
-      </c>
-      <c r="J90" s="147">
-        <v>923</v>
-      </c>
-      <c r="K90" s="147">
-        <v>65</v>
-      </c>
-      <c r="L90" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="8:13">
-      <c r="H91" s="147" t="s">
-        <v>810</v>
-      </c>
-      <c r="I91" s="147">
-        <v>595</v>
-      </c>
-      <c r="J91" s="147">
-        <v>921</v>
-      </c>
-      <c r="K91" s="147">
-        <v>65</v>
-      </c>
-      <c r="L91" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="8:13">
-      <c r="H92" s="147" t="s">
-        <v>811</v>
-      </c>
-      <c r="I92" s="147">
-        <v>183</v>
-      </c>
-      <c r="J92" s="147">
-        <v>1032</v>
-      </c>
-      <c r="K92" s="147">
-        <v>65</v>
-      </c>
-      <c r="L92" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="8:13">
-      <c r="H93" s="147" t="s">
-        <v>812</v>
-      </c>
-      <c r="I93" s="147">
-        <v>283</v>
-      </c>
-      <c r="J93" s="147">
-        <v>1035</v>
-      </c>
-      <c r="K93" s="147">
-        <v>65</v>
-      </c>
-      <c r="L93" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="8:13">
-      <c r="H94" s="147" t="s">
-        <v>813</v>
-      </c>
-      <c r="I94" s="147">
-        <v>514</v>
-      </c>
-      <c r="J94" s="147">
-        <v>1036</v>
-      </c>
-      <c r="K94" s="147">
-        <v>65</v>
-      </c>
-      <c r="L94" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="8:13">
-      <c r="H95" s="147" t="s">
-        <v>814</v>
-      </c>
-      <c r="I95" s="147">
-        <v>625</v>
-      </c>
-      <c r="J95" s="147">
-        <v>1036</v>
-      </c>
-      <c r="K95" s="147">
-        <v>65</v>
-      </c>
-      <c r="L95" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="8:13">
-      <c r="H96" s="147" t="s">
-        <v>815</v>
-      </c>
-      <c r="I96" s="147">
-        <v>740</v>
-      </c>
-      <c r="J96" s="147">
-        <v>1038</v>
-      </c>
-      <c r="K96" s="147">
-        <v>65</v>
-      </c>
-      <c r="L96" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="H97" s="147" t="s">
-        <v>816</v>
-      </c>
-      <c r="I97" s="147">
-        <v>851</v>
-      </c>
-      <c r="J97" s="147">
-        <v>918</v>
-      </c>
-      <c r="K97" s="147">
-        <v>65</v>
-      </c>
-      <c r="L97" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="H98" s="147" t="s">
-        <v>817</v>
-      </c>
-      <c r="I98" s="147">
-        <v>845</v>
-      </c>
-      <c r="J98" s="147">
-        <v>1036</v>
-      </c>
-      <c r="K98" s="147">
-        <v>65</v>
-      </c>
-      <c r="L98" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="H99" s="147" t="s">
-        <v>818</v>
-      </c>
-      <c r="I99" s="147">
-        <v>656</v>
-      </c>
-      <c r="J99" s="147">
-        <v>1099</v>
-      </c>
-      <c r="K99" s="147">
-        <v>65</v>
-      </c>
-      <c r="L99" s="147">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="H100" s="147"/>
-      <c r="I100" s="147"/>
-      <c r="J100" s="147"/>
-      <c r="K100" s="147"/>
-      <c r="L100" s="147"/>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="H101" s="147" t="s">
-        <v>819</v>
-      </c>
-      <c r="I101" s="147">
-        <v>233</v>
-      </c>
-      <c r="J101" s="147">
-        <v>1213</v>
-      </c>
-      <c r="K101" s="147">
-        <v>74</v>
-      </c>
-      <c r="L101" s="147">
-        <v>21</v>
-      </c>
-      <c r="M101" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="H102" s="147" t="s">
-        <v>821</v>
-      </c>
-      <c r="I102" s="147">
-        <v>257</v>
-      </c>
-      <c r="J102" s="147">
-        <v>1051</v>
-      </c>
-      <c r="K102" s="147">
-        <v>74</v>
-      </c>
-      <c r="L102" s="147">
-        <v>21</v>
-      </c>
-      <c r="M102" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="H103" s="147" t="s">
-        <v>823</v>
-      </c>
-      <c r="I103" s="147">
-        <v>829</v>
-      </c>
-      <c r="J103" s="147">
-        <v>1169</v>
-      </c>
-      <c r="K103" s="147">
-        <v>74</v>
-      </c>
-      <c r="L103" s="147">
-        <v>21</v>
-      </c>
-      <c r="M103" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="H104" s="147" t="s">
-        <v>825</v>
-      </c>
-      <c r="I104" s="147">
-        <v>527</v>
-      </c>
-      <c r="J104" s="147">
-        <v>1186</v>
-      </c>
-      <c r="K104" s="147">
-        <v>74</v>
-      </c>
-      <c r="L104" s="147">
-        <v>21</v>
-      </c>
-      <c r="M104" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="H105" s="147" t="s">
-        <v>827</v>
-      </c>
-      <c r="I105" s="147">
-        <v>460</v>
-      </c>
-      <c r="J105" s="147">
-        <v>1221</v>
-      </c>
-      <c r="K105" s="147">
-        <v>74</v>
-      </c>
-      <c r="L105" s="147">
-        <v>21</v>
-      </c>
-      <c r="M105" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="H106" s="147" t="s">
-        <v>829</v>
-      </c>
-      <c r="I106" s="147">
-        <v>243</v>
-      </c>
-      <c r="J106" s="147">
-        <v>1335</v>
-      </c>
-      <c r="K106" s="147">
-        <v>74</v>
-      </c>
-      <c r="L106" s="147">
-        <v>21</v>
-      </c>
-      <c r="M106" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="H107" s="147" t="s">
-        <v>831</v>
-      </c>
-      <c r="I107" s="147">
-        <v>799</v>
-      </c>
-      <c r="J107" s="147">
-        <v>1340</v>
-      </c>
-      <c r="K107" s="147">
-        <v>74</v>
-      </c>
-      <c r="L107" s="147">
-        <v>21</v>
-      </c>
-      <c r="M107" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
-      <c r="A108" s="195"/>
-      <c r="B108" s="195"/>
-      <c r="C108" s="195"/>
-      <c r="D108" s="195"/>
-      <c r="E108" s="195"/>
-      <c r="F108" s="195"/>
-      <c r="G108" s="195"/>
-      <c r="H108" s="195"/>
-      <c r="I108" s="195"/>
-      <c r="J108" s="195"/>
-      <c r="K108" s="195"/>
-      <c r="L108" s="195"/>
-      <c r="M108" s="195"/>
-      <c r="N108" s="195"/>
-      <c r="O108" s="195"/>
-      <c r="P108" s="195"/>
-      <c r="Q108" s="195"/>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="E109" t="s">
-        <v>833</v>
-      </c>
-      <c r="F109" t="s">
-        <v>750</v>
-      </c>
-      <c r="G109" t="s">
-        <v>834</v>
-      </c>
-      <c r="H109" t="s">
-        <v>835</v>
-      </c>
-      <c r="I109" t="s">
-        <v>836</v>
-      </c>
-      <c r="J109" t="s">
-        <v>2</v>
-      </c>
-      <c r="K109" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="E111" t="s">
-        <v>838</v>
-      </c>
-      <c r="F111" t="s">
-        <v>750</v>
-      </c>
-      <c r="G111" t="s">
-        <v>834</v>
-      </c>
-      <c r="H111" t="s">
-        <v>839</v>
-      </c>
-      <c r="I111">
-        <v>202</v>
-      </c>
-      <c r="J111" t="s">
-        <v>840</v>
-      </c>
-      <c r="K111">
-        <v>218</v>
-      </c>
-      <c r="L111" t="s">
-        <v>841</v>
-      </c>
-      <c r="M111">
-        <v>178</v>
-      </c>
-      <c r="N111" t="s">
-        <v>842</v>
-      </c>
-      <c r="O111">
-        <v>186</v>
-      </c>
-      <c r="P111" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
-      <c r="E112" t="s">
-        <v>838</v>
-      </c>
-      <c r="F112" t="s">
-        <v>750</v>
-      </c>
-      <c r="G112" t="s">
-        <v>834</v>
-      </c>
-      <c r="H112" t="s">
-        <v>839</v>
-      </c>
-      <c r="I112">
-        <v>420</v>
-      </c>
-      <c r="J112" t="s">
-        <v>840</v>
-      </c>
-      <c r="K112">
-        <v>219</v>
-      </c>
-      <c r="L112" t="s">
-        <v>841</v>
-      </c>
-      <c r="M112">
-        <v>396</v>
-      </c>
-      <c r="N112" t="s">
-        <v>842</v>
-      </c>
-      <c r="O112">
-        <v>187</v>
-      </c>
-      <c r="P112" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="113" spans="5:17">
-      <c r="E113" t="s">
-        <v>838</v>
-      </c>
-      <c r="F113" t="s">
-        <v>750</v>
-      </c>
-      <c r="G113" t="s">
-        <v>834</v>
-      </c>
-      <c r="H113" t="s">
-        <v>839</v>
-      </c>
-      <c r="I113">
-        <v>254</v>
-      </c>
-      <c r="J113" t="s">
-        <v>840</v>
-      </c>
-      <c r="K113">
-        <v>906</v>
-      </c>
-      <c r="L113" t="s">
-        <v>841</v>
-      </c>
-      <c r="M113">
-        <v>230</v>
-      </c>
-      <c r="N113" t="s">
-        <v>842</v>
-      </c>
-      <c r="O113">
-        <v>875</v>
-      </c>
-      <c r="P113" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="114" spans="5:17">
-      <c r="E114" t="s">
-        <v>838</v>
-      </c>
-      <c r="F114" t="s">
-        <v>750</v>
-      </c>
-      <c r="G114" t="s">
-        <v>834</v>
-      </c>
-      <c r="H114" t="s">
-        <v>839</v>
-      </c>
-      <c r="I114">
-        <v>429</v>
-      </c>
-      <c r="J114" t="s">
-        <v>840</v>
-      </c>
-      <c r="K114">
-        <v>906</v>
-      </c>
-      <c r="L114" t="s">
-        <v>841</v>
-      </c>
-      <c r="M114">
-        <v>405</v>
-      </c>
-      <c r="N114" t="s">
-        <v>842</v>
-      </c>
-      <c r="O114">
-        <v>875</v>
-      </c>
-      <c r="P114" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="115" spans="5:17">
-      <c r="E115" t="s">
-        <v>838</v>
-      </c>
-      <c r="F115" t="s">
-        <v>750</v>
-      </c>
-      <c r="G115" t="s">
-        <v>834</v>
-      </c>
-      <c r="H115" t="s">
-        <v>839</v>
-      </c>
-      <c r="I115">
-        <v>580</v>
-      </c>
-      <c r="J115" t="s">
-        <v>840</v>
-      </c>
-      <c r="K115">
-        <v>906</v>
-      </c>
-      <c r="L115" t="s">
-        <v>841</v>
-      </c>
-      <c r="M115">
-        <v>556</v>
-      </c>
-      <c r="N115" t="s">
-        <v>842</v>
-      </c>
-      <c r="O115">
-        <v>875</v>
-      </c>
-      <c r="P115" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="116" spans="5:17">
-      <c r="E116" t="s">
-        <v>838</v>
-      </c>
-      <c r="F116" t="s">
-        <v>750</v>
-      </c>
-      <c r="G116" t="s">
-        <v>834</v>
-      </c>
-      <c r="H116" t="s">
-        <v>839</v>
-      </c>
-      <c r="I116">
-        <v>705</v>
-      </c>
-      <c r="J116" t="s">
-        <v>840</v>
-      </c>
-      <c r="K116">
-        <v>217</v>
-      </c>
-      <c r="L116" t="s">
-        <v>841</v>
-      </c>
-      <c r="M116">
-        <v>681</v>
-      </c>
-      <c r="N116" t="s">
-        <v>842</v>
-      </c>
-      <c r="O116">
-        <v>186</v>
-      </c>
-      <c r="P116" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="117" spans="5:17">
-      <c r="E117" t="s">
-        <v>838</v>
-      </c>
-      <c r="F117" t="s">
-        <v>750</v>
-      </c>
-      <c r="G117" t="s">
-        <v>834</v>
-      </c>
-      <c r="H117" t="s">
-        <v>839</v>
-      </c>
-      <c r="I117">
-        <v>222</v>
-      </c>
-      <c r="J117" t="s">
-        <v>840</v>
-      </c>
-      <c r="K117">
-        <v>222</v>
-      </c>
-      <c r="L117" t="s">
-        <v>841</v>
-      </c>
-      <c r="M117">
-        <v>249</v>
-      </c>
-      <c r="N117" t="s">
-        <v>842</v>
-      </c>
-      <c r="O117">
-        <v>190</v>
-      </c>
-      <c r="P117" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="118" spans="5:17">
-      <c r="E118" t="s">
-        <v>838</v>
-      </c>
-      <c r="F118" t="s">
-        <v>750</v>
-      </c>
-      <c r="G118" t="s">
-        <v>834</v>
-      </c>
-      <c r="H118" t="s">
-        <v>839</v>
-      </c>
-      <c r="I118">
-        <v>178</v>
-      </c>
-      <c r="J118" t="s">
-        <v>840</v>
-      </c>
-      <c r="K118">
-        <v>904</v>
-      </c>
-      <c r="L118" t="s">
-        <v>841</v>
-      </c>
-      <c r="M118">
-        <v>204</v>
-      </c>
-      <c r="N118" t="s">
-        <v>842</v>
-      </c>
-      <c r="O118">
-        <v>873</v>
-      </c>
-      <c r="P118" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="119" spans="5:17">
-      <c r="E119" t="s">
-        <v>838</v>
-      </c>
-      <c r="F119" t="s">
-        <v>750</v>
-      </c>
-      <c r="G119" t="s">
-        <v>834</v>
-      </c>
-      <c r="H119" t="s">
-        <v>839</v>
-      </c>
-      <c r="I119">
-        <v>357</v>
-      </c>
-      <c r="J119" t="s">
-        <v>840</v>
-      </c>
-      <c r="K119">
-        <v>909</v>
-      </c>
-      <c r="L119" t="s">
-        <v>841</v>
-      </c>
-      <c r="M119">
-        <v>384</v>
-      </c>
-      <c r="N119" t="s">
-        <v>842</v>
-      </c>
-      <c r="O119">
-        <v>878</v>
-      </c>
-      <c r="P119" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="120" spans="5:17">
-      <c r="E120" t="s">
-        <v>838</v>
-      </c>
-      <c r="F120" t="s">
-        <v>750</v>
-      </c>
-      <c r="G120" t="s">
-        <v>834</v>
-      </c>
-      <c r="H120" t="s">
-        <v>839</v>
-      </c>
-      <c r="I120">
-        <v>441</v>
-      </c>
-      <c r="J120" t="s">
-        <v>840</v>
-      </c>
-      <c r="K120">
-        <v>217</v>
-      </c>
-      <c r="L120" t="s">
-        <v>841</v>
-      </c>
-      <c r="M120">
-        <v>467</v>
-      </c>
-      <c r="N120" t="s">
-        <v>842</v>
-      </c>
-      <c r="O120">
-        <v>186</v>
-      </c>
-      <c r="P120" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="121" spans="5:17">
-      <c r="E121" t="s">
-        <v>838</v>
-      </c>
-      <c r="F121" t="s">
-        <v>750</v>
-      </c>
-      <c r="G121" t="s">
-        <v>834</v>
-      </c>
-      <c r="H121" t="s">
-        <v>839</v>
-      </c>
-      <c r="I121">
-        <v>732</v>
-      </c>
-      <c r="J121" t="s">
-        <v>840</v>
-      </c>
-      <c r="K121">
-        <v>219</v>
-      </c>
-      <c r="L121" t="s">
-        <v>841</v>
-      </c>
-      <c r="M121">
-        <v>759</v>
-      </c>
-      <c r="N121" t="s">
-        <v>842</v>
-      </c>
-      <c r="O121">
-        <v>187</v>
-      </c>
-      <c r="P121" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="122" spans="5:17">
-      <c r="E122" t="s">
-        <v>838</v>
-      </c>
-      <c r="F122" t="s">
-        <v>750</v>
-      </c>
-      <c r="G122" t="s">
-        <v>834</v>
-      </c>
-      <c r="H122" t="s">
-        <v>839</v>
-      </c>
-      <c r="I122">
-        <v>502</v>
-      </c>
-      <c r="J122" t="s">
-        <v>840</v>
-      </c>
-      <c r="K122">
-        <v>906</v>
-      </c>
-      <c r="L122" t="s">
-        <v>841</v>
-      </c>
-      <c r="M122">
-        <v>529</v>
-      </c>
-      <c r="N122" t="s">
-        <v>842</v>
-      </c>
-      <c r="O122">
-        <v>875</v>
-      </c>
-      <c r="P122" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="123" spans="5:17">
-      <c r="E123" t="s">
-        <v>838</v>
-      </c>
-      <c r="F123" t="s">
-        <v>750</v>
-      </c>
-      <c r="G123" t="s">
-        <v>834</v>
-      </c>
-      <c r="H123" t="s">
-        <v>839</v>
-      </c>
-      <c r="I123">
-        <v>370</v>
-      </c>
-      <c r="J123" t="s">
-        <v>840</v>
-      </c>
-      <c r="K123">
-        <v>1103</v>
-      </c>
-      <c r="L123" t="s">
-        <v>841</v>
-      </c>
-      <c r="M123">
-        <v>397</v>
-      </c>
-      <c r="N123" t="s">
-        <v>842</v>
-      </c>
-      <c r="O123">
-        <v>1072</v>
-      </c>
-      <c r="P123" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="124" spans="5:17">
-      <c r="E124" t="s">
-        <v>838</v>
-      </c>
-      <c r="F124" t="s">
-        <v>750</v>
-      </c>
-      <c r="G124" t="s">
-        <v>834</v>
-      </c>
-      <c r="H124" t="s">
-        <v>839</v>
-      </c>
-      <c r="I124">
-        <v>321</v>
-      </c>
-      <c r="J124" t="s">
-        <v>840</v>
-      </c>
-      <c r="K124">
-        <v>1432</v>
-      </c>
-      <c r="L124" t="s">
-        <v>841</v>
-      </c>
-      <c r="M124">
-        <v>348</v>
-      </c>
-      <c r="N124" t="s">
-        <v>842</v>
-      </c>
-      <c r="O124">
-        <v>1401</v>
-      </c>
-      <c r="P124" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="125" spans="5:17">
-      <c r="E125" t="s">
-        <v>838</v>
-      </c>
-      <c r="F125" t="s">
-        <v>750</v>
-      </c>
-      <c r="G125" t="s">
-        <v>834</v>
-      </c>
-      <c r="H125" t="s">
-        <v>839</v>
-      </c>
-      <c r="I125">
-        <v>551</v>
-      </c>
-      <c r="J125" t="s">
-        <v>840</v>
-      </c>
-      <c r="K125">
-        <v>1430</v>
-      </c>
-      <c r="L125" t="s">
-        <v>841</v>
-      </c>
-      <c r="M125">
-        <v>578</v>
-      </c>
-      <c r="N125" t="s">
-        <v>842</v>
-      </c>
-      <c r="O125">
-        <v>1399</v>
-      </c>
-      <c r="P125" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="126" spans="5:17">
-      <c r="E126" t="s">
-        <v>838</v>
-      </c>
-      <c r="F126" t="s">
-        <v>750</v>
-      </c>
-      <c r="G126" t="s">
-        <v>834</v>
-      </c>
-      <c r="H126" t="s">
-        <v>839</v>
-      </c>
-      <c r="I126">
-        <v>530</v>
-      </c>
-      <c r="J126" t="s">
-        <v>840</v>
-      </c>
-      <c r="K126">
-        <v>1103</v>
-      </c>
-      <c r="L126" t="s">
-        <v>841</v>
-      </c>
-      <c r="M126">
-        <v>506</v>
-      </c>
-      <c r="N126" t="s">
-        <v>842</v>
-      </c>
-      <c r="O126">
-        <v>1072</v>
-      </c>
-      <c r="P126" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="127" spans="5:17">
-      <c r="E127" t="s">
-        <v>838</v>
-      </c>
-      <c r="F127" t="s">
-        <v>750</v>
-      </c>
-      <c r="G127" t="s">
-        <v>834</v>
-      </c>
-      <c r="H127" t="s">
-        <v>839</v>
-      </c>
-      <c r="I127">
-        <v>644</v>
-      </c>
-      <c r="J127" t="s">
-        <v>840</v>
-      </c>
-      <c r="K127">
-        <v>1429</v>
-      </c>
-      <c r="L127" t="s">
-        <v>841</v>
-      </c>
-      <c r="M127">
-        <v>620</v>
-      </c>
-      <c r="N127" t="s">
-        <v>842</v>
-      </c>
-      <c r="O127">
-        <v>1398</v>
-      </c>
-      <c r="P127" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="128" spans="5:17">
-      <c r="E128" t="s">
-        <v>838</v>
-      </c>
-      <c r="F128" t="s">
-        <v>750</v>
-      </c>
-      <c r="G128" t="s">
-        <v>834</v>
-      </c>
-      <c r="H128" t="s">
-        <v>839</v>
-      </c>
-      <c r="I128">
-        <v>397</v>
-      </c>
-      <c r="J128" t="s">
-        <v>840</v>
-      </c>
-      <c r="K128">
-        <v>1427</v>
-      </c>
-      <c r="L128" t="s">
-        <v>841</v>
-      </c>
-      <c r="M128">
-        <v>373</v>
-      </c>
-      <c r="N128" t="s">
-        <v>842</v>
-      </c>
-      <c r="O128">
-        <v>1396</v>
-      </c>
-      <c r="P128" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="130" spans="5:28">
-      <c r="E130" t="s">
-        <v>833</v>
-      </c>
-      <c r="F130" t="s">
-        <v>750</v>
-      </c>
-      <c r="G130" t="s">
-        <v>834</v>
-      </c>
-      <c r="H130" t="s">
-        <v>835</v>
-      </c>
-      <c r="I130" t="s">
-        <v>861</v>
-      </c>
-      <c r="J130" t="s">
-        <v>2</v>
-      </c>
-      <c r="K130" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="133" spans="5:28">
-      <c r="E133" t="s">
-        <v>863</v>
-      </c>
-      <c r="F133" t="s">
-        <v>864</v>
-      </c>
-      <c r="G133" t="s">
-        <v>865</v>
-      </c>
-      <c r="H133" t="s">
-        <v>866</v>
-      </c>
-      <c r="I133" t="s">
-        <v>865</v>
-      </c>
-      <c r="J133" t="s">
-        <v>867</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133" t="s">
-        <v>174</v>
-      </c>
-      <c r="M133">
-        <v>369</v>
-      </c>
-      <c r="N133" t="s">
-        <v>175</v>
-      </c>
-      <c r="O133">
-        <v>868</v>
-      </c>
-      <c r="P133" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>868</v>
-      </c>
-      <c r="R133" t="s">
-        <v>869</v>
-      </c>
-      <c r="S133">
-        <v>24</v>
-      </c>
-      <c r="T133" t="s">
-        <v>870</v>
-      </c>
-      <c r="U133" t="s">
-        <v>871</v>
-      </c>
-      <c r="V133" t="s">
-        <v>872</v>
-      </c>
-      <c r="W133" t="s">
-        <v>873</v>
-      </c>
-      <c r="X133" t="s">
-        <v>874</v>
-      </c>
-      <c r="Y133" t="s">
-        <v>875</v>
-      </c>
-      <c r="Z133" t="s">
-        <v>757</v>
-      </c>
-      <c r="AA133" t="s">
-        <v>876</v>
-      </c>
-      <c r="AB133" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="135" spans="5:28">
-      <c r="E135" t="s">
-        <v>863</v>
-      </c>
-      <c r="F135" t="s">
-        <v>864</v>
-      </c>
-      <c r="G135" t="s">
-        <v>865</v>
-      </c>
-      <c r="H135" t="s">
-        <v>866</v>
-      </c>
-      <c r="I135" t="s">
-        <v>865</v>
-      </c>
-      <c r="J135" t="s">
-        <v>867</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135" t="s">
-        <v>174</v>
-      </c>
-      <c r="M135">
-        <v>360</v>
-      </c>
-      <c r="N135" t="s">
-        <v>175</v>
-      </c>
-      <c r="O135">
-        <v>1103</v>
-      </c>
-      <c r="P135" t="s">
-        <v>869</v>
-      </c>
-      <c r="Q135">
-        <v>24</v>
-      </c>
-      <c r="R135" t="s">
-        <v>870</v>
-      </c>
-      <c r="S135" t="s">
-        <v>871</v>
-      </c>
-      <c r="T135" t="s">
-        <v>872</v>
-      </c>
-      <c r="U135" t="s">
-        <v>873</v>
-      </c>
-      <c r="V135" t="s">
-        <v>874</v>
-      </c>
-      <c r="W135" t="s">
-        <v>875</v>
-      </c>
-      <c r="X135" t="s">
-        <v>757</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>878</v>
-      </c>
-      <c r="Z135" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA135" t="s">
-        <v>879</v>
-      </c>
-      <c r="AB135" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="140" spans="5:28">
-      <c r="E140" t="s">
-        <v>838</v>
-      </c>
-      <c r="F140" t="s">
-        <v>750</v>
-      </c>
-      <c r="G140" t="s">
-        <v>834</v>
-      </c>
-      <c r="H140" t="s">
-        <v>2</v>
-      </c>
-      <c r="I140" t="s">
-        <v>880</v>
-      </c>
-      <c r="J140" t="s">
-        <v>842</v>
-      </c>
-      <c r="K140">
-        <v>-587</v>
-      </c>
-      <c r="L140" t="s">
-        <v>841</v>
-      </c>
-      <c r="M140">
-        <v>23</v>
-      </c>
-      <c r="N140" t="s">
-        <v>840</v>
-      </c>
-      <c r="O140">
-        <v>-587</v>
-      </c>
-      <c r="P140" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="141" spans="5:28">
-      <c r="E141" t="s">
-        <v>838</v>
-      </c>
-      <c r="F141" t="s">
-        <v>750</v>
-      </c>
-      <c r="G141" t="s">
-        <v>834</v>
-      </c>
-      <c r="H141" t="s">
-        <v>2</v>
-      </c>
-      <c r="I141" t="s">
-        <v>882</v>
-      </c>
-      <c r="J141" t="s">
-        <v>842</v>
-      </c>
-      <c r="K141">
-        <v>-242</v>
-      </c>
-      <c r="L141" t="s">
-        <v>841</v>
-      </c>
-      <c r="M141">
-        <v>19</v>
-      </c>
-      <c r="N141" t="s">
-        <v>840</v>
-      </c>
-      <c r="O141">
-        <v>-242</v>
-      </c>
-      <c r="P141" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="142" spans="5:28">
-      <c r="E142" t="s">
-        <v>838</v>
-      </c>
-      <c r="F142" t="s">
-        <v>750</v>
-      </c>
-      <c r="G142" t="s">
-        <v>834</v>
-      </c>
-      <c r="H142" t="s">
-        <v>2</v>
-      </c>
-      <c r="I142" t="s">
-        <v>884</v>
-      </c>
-      <c r="J142" t="s">
-        <v>842</v>
-      </c>
-      <c r="K142">
-        <v>89</v>
-      </c>
-      <c r="L142" t="s">
-        <v>841</v>
-      </c>
-      <c r="M142">
-        <v>18</v>
-      </c>
-      <c r="N142" t="s">
-        <v>840</v>
-      </c>
-      <c r="O142">
-        <v>89</v>
-      </c>
-      <c r="P142" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="143" spans="5:28">
-      <c r="E143" t="s">
-        <v>838</v>
-      </c>
-      <c r="F143" t="s">
-        <v>750</v>
-      </c>
-      <c r="G143" t="s">
-        <v>834</v>
-      </c>
-      <c r="H143" t="s">
-        <v>2</v>
-      </c>
-      <c r="I143" t="s">
-        <v>886</v>
-      </c>
-      <c r="J143" t="s">
-        <v>842</v>
-      </c>
-      <c r="K143">
-        <v>-319</v>
-      </c>
-      <c r="L143" t="s">
-        <v>841</v>
-      </c>
-      <c r="M143">
-        <v>425</v>
-      </c>
-      <c r="N143" t="s">
-        <v>840</v>
-      </c>
-      <c r="O143">
-        <v>-319</v>
-      </c>
-      <c r="P143" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="144" spans="5:28">
-      <c r="E144" t="s">
-        <v>838</v>
-      </c>
-      <c r="F144" t="s">
-        <v>750</v>
-      </c>
-      <c r="G144" t="s">
-        <v>834</v>
-      </c>
-      <c r="H144" t="s">
-        <v>2</v>
-      </c>
-      <c r="I144" t="s">
-        <v>888</v>
-      </c>
-      <c r="J144" t="s">
-        <v>842</v>
-      </c>
-      <c r="K144">
-        <v>-239</v>
-      </c>
-      <c r="L144" t="s">
-        <v>841</v>
-      </c>
-      <c r="M144">
-        <v>442</v>
-      </c>
-      <c r="N144" t="s">
-        <v>840</v>
-      </c>
-      <c r="O144">
-        <v>-239</v>
-      </c>
-      <c r="P144" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="145" spans="5:17">
-      <c r="E145" t="s">
-        <v>838</v>
-      </c>
-      <c r="F145" t="s">
-        <v>750</v>
-      </c>
-      <c r="G145" t="s">
-        <v>834</v>
-      </c>
-      <c r="H145" t="s">
-        <v>2</v>
-      </c>
-      <c r="I145" t="s">
-        <v>890</v>
-      </c>
-      <c r="J145" t="s">
-        <v>842</v>
-      </c>
-      <c r="K145">
-        <v>71</v>
-      </c>
-      <c r="L145" t="s">
-        <v>841</v>
-      </c>
-      <c r="M145">
-        <v>481</v>
-      </c>
-      <c r="N145" t="s">
-        <v>840</v>
-      </c>
-      <c r="O145">
-        <v>71</v>
-      </c>
-      <c r="P145" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="146" spans="5:17">
-      <c r="E146" t="s">
-        <v>838</v>
-      </c>
-      <c r="F146" t="s">
-        <v>750</v>
-      </c>
-      <c r="G146" t="s">
-        <v>834</v>
-      </c>
-      <c r="H146" t="s">
-        <v>2</v>
-      </c>
-      <c r="I146" t="s">
-        <v>892</v>
-      </c>
-      <c r="J146" t="s">
-        <v>842</v>
-      </c>
-      <c r="K146">
-        <v>-800</v>
-      </c>
-      <c r="L146" t="s">
-        <v>841</v>
-      </c>
-      <c r="M146">
-        <v>24</v>
-      </c>
-      <c r="N146" t="s">
-        <v>840</v>
-      </c>
-      <c r="O146">
-        <v>-800</v>
-      </c>
-      <c r="P146" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="147" spans="5:17">
-      <c r="E147" t="s">
-        <v>838</v>
-      </c>
-      <c r="F147" t="s">
-        <v>750</v>
-      </c>
-      <c r="G147" t="s">
-        <v>834</v>
-      </c>
-      <c r="H147" t="s">
-        <v>2</v>
-      </c>
-      <c r="I147" t="s">
-        <v>894</v>
-      </c>
-      <c r="J147" t="s">
-        <v>842</v>
-      </c>
-      <c r="K147">
-        <v>-319</v>
-      </c>
-      <c r="L147" t="s">
-        <v>841</v>
-      </c>
-      <c r="M147">
-        <v>428</v>
-      </c>
-      <c r="N147" t="s">
-        <v>840</v>
-      </c>
-      <c r="O147">
-        <v>-800</v>
-      </c>
-      <c r="P147" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="148" spans="5:17">
-      <c r="E148" t="s">
-        <v>838</v>
-      </c>
-      <c r="F148" t="s">
-        <v>750</v>
-      </c>
-      <c r="G148" t="s">
-        <v>834</v>
-      </c>
-      <c r="H148" t="s">
-        <v>2</v>
-      </c>
-      <c r="I148" t="s">
-        <v>896</v>
-      </c>
-      <c r="J148" t="s">
-        <v>842</v>
-      </c>
-      <c r="K148">
-        <v>87</v>
-      </c>
-      <c r="L148" t="s">
-        <v>841</v>
-      </c>
-      <c r="M148">
-        <v>22</v>
-      </c>
-      <c r="N148" t="s">
-        <v>840</v>
-      </c>
-      <c r="O148">
-        <v>-799</v>
-      </c>
-      <c r="P148" t="s">
-        <v>839</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="149" spans="5:17">
-      <c r="E149" t="s">
-        <v>838</v>
-      </c>
-      <c r="F149" t="s">
-        <v>750</v>
-      </c>
-      <c r="G149" t="s">
-        <v>834</v>
-      </c>
-      <c r="H149" t="s">
-        <v>839</v>
-      </c>
-      <c r="I149">
-        <v>652</v>
-      </c>
-      <c r="J149" t="s">
-        <v>840</v>
-      </c>
-      <c r="K149">
-        <v>-240</v>
-      </c>
-      <c r="L149" t="s">
-        <v>841</v>
-      </c>
-      <c r="M149">
-        <v>652</v>
-      </c>
-      <c r="N149" t="s">
-        <v>842</v>
-      </c>
-      <c r="O149">
-        <v>71</v>
-      </c>
-      <c r="P149" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="152" spans="5:17">
-      <c r="E152" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="153" spans="5:17">
-      <c r="E153" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="155" spans="5:17">
-      <c r="E155" t="s">
-        <v>900</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/full-data-iday14.xlsx
+++ b/full-data-iday14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="-440" windowWidth="14360" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="11100" yWindow="40" windowWidth="14360" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="905">
   <si>
     <t>booth</t>
   </si>
@@ -5058,8 +5058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5901,8 +5901,8 @@
       <c r="A12" s="150">
         <v>19</v>
       </c>
-      <c r="B12" s="180" t="s">
-        <v>705</v>
+      <c r="B12" s="198">
+        <v>233024</v>
       </c>
       <c r="C12" s="160">
         <v>1160</v>

--- a/full-data-iday14.xlsx
+++ b/full-data-iday14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="40" windowWidth="14360" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="alt company names" sheetId="2" r:id="rId5"/>
     <sheet name="booth layout prev" sheetId="3" r:id="rId6"/>
     <sheet name="nonfinaldata" sheetId="4" r:id="rId7"/>
+    <sheet name="more booth udpates" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">current!$F$1:$T$74</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="976">
   <si>
     <t>booth</t>
   </si>
@@ -2743,13 +2744,226 @@
   </si>
   <si>
     <t>chrysler</t>
+  </si>
+  <si>
+    <t>&lt;svg</t>
+  </si>
+  <si>
+    <t>viewBox</t>
+  </si>
+  <si>
+    <t>-10 -800 1000 2225</t>
+  </si>
+  <si>
+    <t>xmlns</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2000/svg</t>
+  </si>
+  <si>
+    <t>xmlns:svg</t>
+  </si>
+  <si>
+    <t>xmlns:xlink</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/1999/xlink&gt;</t>
+  </si>
+  <si>
+    <t>&lt;image</t>
+  </si>
+  <si>
+    <t>xlink:href</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/ArXl22P.png</t>
+  </si>
+  <si>
+    <t>svg_1</t>
+  </si>
+  <si>
+    <t>8/&gt;</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/HphIdr8.png</t>
+  </si>
+  <si>
+    <t>svg_2</t>
+  </si>
+  <si>
+    <t>5/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;g</t>
+  </si>
+  <si>
+    <t>svg_19&gt;</t>
+  </si>
+  <si>
+    <t>booth6</t>
+  </si>
+  <si>
+    <t>booth7</t>
+  </si>
+  <si>
+    <t>booth4</t>
+  </si>
+  <si>
+    <t>booth9</t>
+  </si>
+  <si>
+    <t>booth10</t>
+  </si>
+  <si>
+    <t>booth3</t>
+  </si>
+  <si>
+    <t>booth5</t>
+  </si>
+  <si>
+    <t>booth8</t>
+  </si>
+  <si>
+    <t>booth42/&gt;</t>
+  </si>
+  <si>
+    <t>booth43/&gt;</t>
+  </si>
+  <si>
+    <t>booth44/&gt;</t>
+  </si>
+  <si>
+    <t>booth45/&gt;</t>
+  </si>
+  <si>
+    <t>booth46/&gt;</t>
+  </si>
+  <si>
+    <t>booth49/&gt;</t>
+  </si>
+  <si>
+    <t>booth50/&gt;</t>
+  </si>
+  <si>
+    <t>booth48/&gt;</t>
+  </si>
+  <si>
+    <t>booth51/&gt;</t>
+  </si>
+  <si>
+    <t>booth47/&gt;</t>
+  </si>
+  <si>
+    <t>booth52/&gt;</t>
+  </si>
+  <si>
+    <t>booth40/&gt;</t>
+  </si>
+  <si>
+    <t>booth39/&gt;</t>
+  </si>
+  <si>
+    <t>booth38/&gt;</t>
+  </si>
+  <si>
+    <t>booth59/&gt;</t>
+  </si>
+  <si>
+    <t>booth60/&gt;</t>
+  </si>
+  <si>
+    <t>booth58/&gt;</t>
+  </si>
+  <si>
+    <t>booth61/&gt;</t>
+  </si>
+  <si>
+    <t>booth57/&gt;</t>
+  </si>
+  <si>
+    <t>booth62/&gt;</t>
+  </si>
+  <si>
+    <t>booth36/&gt;</t>
+  </si>
+  <si>
+    <t>booth35/&gt;</t>
+  </si>
+  <si>
+    <t>booth34/&gt;</t>
+  </si>
+  <si>
+    <t>booth33/&gt;</t>
+  </si>
+  <si>
+    <t>booth32/&gt;</t>
+  </si>
+  <si>
+    <t>booth54/&gt;</t>
+  </si>
+  <si>
+    <t>booth55/&gt;</t>
+  </si>
+  <si>
+    <t>booth53/&gt;</t>
+  </si>
+  <si>
+    <t>booth56/&gt;</t>
+  </si>
+  <si>
+    <t>booth10/&gt;</t>
+  </si>
+  <si>
+    <t>booth11/&gt;</t>
+  </si>
+  <si>
+    <t>booth15/&gt;</t>
+  </si>
+  <si>
+    <t>booth12/&gt;</t>
+  </si>
+  <si>
+    <t>booth13/&gt;</t>
+  </si>
+  <si>
+    <t>booth14/&gt;</t>
+  </si>
+  <si>
+    <t>booth16/&gt;</t>
+  </si>
+  <si>
+    <t>booth25</t>
+  </si>
+  <si>
+    <t>booth26</t>
+  </si>
+  <si>
+    <t>booth22</t>
+  </si>
+  <si>
+    <t>booth2027/&gt;</t>
+  </si>
+  <si>
+    <t>booth2720</t>
+  </si>
+  <si>
+    <t>booth24</t>
+  </si>
+  <si>
+    <t>&lt;/g&gt;</t>
+  </si>
+  <si>
+    <t>20-27</t>
+  </si>
+  <si>
+    <t>27-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2924,6 +3138,13 @@
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3600,7 +3821,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="295">
+  <cellStyleXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3896,8 +4117,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4431,8 +4654,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="295">
+  <cellStyles count="297">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4579,6 +4803,7 @@
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -4725,6 +4950,7 @@
     <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Output" xfId="70" builtinId="21"/>
@@ -5058,7 +5284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -23746,4 +23972,2423 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89:J95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1">
+        <v>1100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E1">
+        <v>2435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1" t="s">
+        <v>907</v>
+      </c>
+      <c r="H1" t="s">
+        <v>908</v>
+      </c>
+      <c r="I1" t="s">
+        <v>909</v>
+      </c>
+      <c r="J1" t="s">
+        <v>910</v>
+      </c>
+      <c r="K1" t="s">
+        <v>909</v>
+      </c>
+      <c r="L1" t="s">
+        <v>911</v>
+      </c>
+      <c r="M1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>916</v>
+      </c>
+      <c r="F2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2">
+        <v>1248</v>
+      </c>
+      <c r="H2" t="s">
+        <v>749</v>
+      </c>
+      <c r="I2">
+        <v>953</v>
+      </c>
+      <c r="J2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K2">
+        <v>185</v>
+      </c>
+      <c r="L2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>919</v>
+      </c>
+      <c r="F3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G3">
+        <v>2251</v>
+      </c>
+      <c r="H3" t="s">
+        <v>749</v>
+      </c>
+      <c r="I3">
+        <v>964</v>
+      </c>
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3">
+        <v>-818</v>
+      </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C6" t="s">
+        <v>834</v>
+      </c>
+      <c r="D6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E6" t="s">
+        <v>836</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D7" t="s">
+        <v>835</v>
+      </c>
+      <c r="E7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" t="s">
+        <v>863</v>
+      </c>
+      <c r="B9" t="s">
+        <v>864</v>
+      </c>
+      <c r="C9" t="s">
+        <v>865</v>
+      </c>
+      <c r="D9" t="s">
+        <v>866</v>
+      </c>
+      <c r="E9" t="s">
+        <v>865</v>
+      </c>
+      <c r="F9" t="s">
+        <v>867</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>174</v>
+      </c>
+      <c r="I9">
+        <v>369</v>
+      </c>
+      <c r="J9" t="s">
+        <v>175</v>
+      </c>
+      <c r="K9">
+        <v>868</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>868</v>
+      </c>
+      <c r="N9" t="s">
+        <v>869</v>
+      </c>
+      <c r="O9">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>871</v>
+      </c>
+      <c r="R9" t="s">
+        <v>872</v>
+      </c>
+      <c r="S9" t="s">
+        <v>873</v>
+      </c>
+      <c r="T9" t="s">
+        <v>874</v>
+      </c>
+      <c r="U9" t="s">
+        <v>875</v>
+      </c>
+      <c r="V9" t="s">
+        <v>757</v>
+      </c>
+      <c r="W9" t="s">
+        <v>876</v>
+      </c>
+      <c r="X9" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>863</v>
+      </c>
+      <c r="B11" t="s">
+        <v>864</v>
+      </c>
+      <c r="C11" t="s">
+        <v>865</v>
+      </c>
+      <c r="D11" t="s">
+        <v>866</v>
+      </c>
+      <c r="E11" t="s">
+        <v>865</v>
+      </c>
+      <c r="F11" t="s">
+        <v>867</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11">
+        <v>360</v>
+      </c>
+      <c r="J11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K11">
+        <v>1103</v>
+      </c>
+      <c r="L11" t="s">
+        <v>869</v>
+      </c>
+      <c r="M11">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>870</v>
+      </c>
+      <c r="O11" t="s">
+        <v>871</v>
+      </c>
+      <c r="P11" t="s">
+        <v>872</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>873</v>
+      </c>
+      <c r="R11" t="s">
+        <v>874</v>
+      </c>
+      <c r="S11" t="s">
+        <v>875</v>
+      </c>
+      <c r="T11" t="s">
+        <v>757</v>
+      </c>
+      <c r="U11" t="s">
+        <v>878</v>
+      </c>
+      <c r="V11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>879</v>
+      </c>
+      <c r="X11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="E12" t="s">
+        <v>839</v>
+      </c>
+      <c r="G12" t="s">
+        <v>840</v>
+      </c>
+      <c r="I12" t="s">
+        <v>841</v>
+      </c>
+      <c r="K12" t="s">
+        <v>842</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
+        <v>838</v>
+      </c>
+      <c r="B13" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" t="s">
+        <v>834</v>
+      </c>
+      <c r="E13">
+        <v>202</v>
+      </c>
+      <c r="G13">
+        <v>218</v>
+      </c>
+      <c r="I13">
+        <v>178</v>
+      </c>
+      <c r="K13">
+        <v>186</v>
+      </c>
+      <c r="M13" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="E14">
+        <v>420</v>
+      </c>
+      <c r="G14">
+        <v>219</v>
+      </c>
+      <c r="I14">
+        <v>396</v>
+      </c>
+      <c r="K14">
+        <v>187</v>
+      </c>
+      <c r="M14" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="E15">
+        <v>254</v>
+      </c>
+      <c r="G15">
+        <v>906</v>
+      </c>
+      <c r="I15">
+        <v>230</v>
+      </c>
+      <c r="K15">
+        <v>875</v>
+      </c>
+      <c r="M15" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="E16">
+        <v>429</v>
+      </c>
+      <c r="G16">
+        <v>906</v>
+      </c>
+      <c r="I16">
+        <v>405</v>
+      </c>
+      <c r="K16">
+        <v>875</v>
+      </c>
+      <c r="M16" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14">
+      <c r="E17">
+        <v>580</v>
+      </c>
+      <c r="G17">
+        <v>906</v>
+      </c>
+      <c r="I17">
+        <v>556</v>
+      </c>
+      <c r="K17">
+        <v>875</v>
+      </c>
+      <c r="M17" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14">
+      <c r="E18">
+        <v>705</v>
+      </c>
+      <c r="G18">
+        <v>217</v>
+      </c>
+      <c r="I18">
+        <v>681</v>
+      </c>
+      <c r="K18">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14">
+      <c r="E19">
+        <v>222</v>
+      </c>
+      <c r="G19">
+        <v>222</v>
+      </c>
+      <c r="I19">
+        <v>249</v>
+      </c>
+      <c r="K19">
+        <v>190</v>
+      </c>
+      <c r="M19" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14">
+      <c r="E20">
+        <v>178</v>
+      </c>
+      <c r="G20">
+        <v>904</v>
+      </c>
+      <c r="I20">
+        <v>204</v>
+      </c>
+      <c r="K20">
+        <v>873</v>
+      </c>
+      <c r="M20" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14">
+      <c r="E21">
+        <v>357</v>
+      </c>
+      <c r="G21">
+        <v>909</v>
+      </c>
+      <c r="I21">
+        <v>384</v>
+      </c>
+      <c r="K21">
+        <v>878</v>
+      </c>
+      <c r="M21" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14">
+      <c r="E22">
+        <v>441</v>
+      </c>
+      <c r="G22">
+        <v>217</v>
+      </c>
+      <c r="I22">
+        <v>467</v>
+      </c>
+      <c r="K22">
+        <v>186</v>
+      </c>
+      <c r="M22" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23">
+        <v>732</v>
+      </c>
+      <c r="G23">
+        <v>219</v>
+      </c>
+      <c r="I23">
+        <v>759</v>
+      </c>
+      <c r="K23">
+        <v>187</v>
+      </c>
+      <c r="M23" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14">
+      <c r="E24">
+        <v>502</v>
+      </c>
+      <c r="G24">
+        <v>906</v>
+      </c>
+      <c r="I24">
+        <v>529</v>
+      </c>
+      <c r="K24">
+        <v>875</v>
+      </c>
+      <c r="M24" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14">
+      <c r="E25">
+        <v>370</v>
+      </c>
+      <c r="G25">
+        <v>1103</v>
+      </c>
+      <c r="I25">
+        <v>397</v>
+      </c>
+      <c r="K25">
+        <v>1072</v>
+      </c>
+      <c r="M25" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14">
+      <c r="E26">
+        <v>321</v>
+      </c>
+      <c r="G26">
+        <v>1432</v>
+      </c>
+      <c r="I26">
+        <v>348</v>
+      </c>
+      <c r="K26">
+        <v>1401</v>
+      </c>
+      <c r="M26" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14">
+      <c r="E27">
+        <v>551</v>
+      </c>
+      <c r="G27">
+        <v>1430</v>
+      </c>
+      <c r="I27">
+        <v>578</v>
+      </c>
+      <c r="K27">
+        <v>1399</v>
+      </c>
+      <c r="M27" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14">
+      <c r="E28">
+        <v>530</v>
+      </c>
+      <c r="G28">
+        <v>1103</v>
+      </c>
+      <c r="I28">
+        <v>506</v>
+      </c>
+      <c r="K28">
+        <v>1072</v>
+      </c>
+      <c r="M28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14">
+      <c r="E29">
+        <v>644</v>
+      </c>
+      <c r="G29">
+        <v>1429</v>
+      </c>
+      <c r="I29">
+        <v>620</v>
+      </c>
+      <c r="K29">
+        <v>1398</v>
+      </c>
+      <c r="M29" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14">
+      <c r="E30">
+        <v>397</v>
+      </c>
+      <c r="G30">
+        <v>1427</v>
+      </c>
+      <c r="I30">
+        <v>373</v>
+      </c>
+      <c r="K30">
+        <v>1396</v>
+      </c>
+      <c r="M30" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" ht="15">
+      <c r="E31" t="s">
+        <v>881</v>
+      </c>
+      <c r="G31">
+        <v>-587</v>
+      </c>
+      <c r="I31">
+        <v>23</v>
+      </c>
+      <c r="K31" s="201">
+        <v>-587</v>
+      </c>
+      <c r="M31" t="s">
+        <v>880</v>
+      </c>
+      <c r="N31" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" ht="15">
+      <c r="E32" t="s">
+        <v>883</v>
+      </c>
+      <c r="G32">
+        <v>-242</v>
+      </c>
+      <c r="I32">
+        <v>19</v>
+      </c>
+      <c r="K32" s="201">
+        <v>-242</v>
+      </c>
+      <c r="M32" t="s">
+        <v>882</v>
+      </c>
+      <c r="N32" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15">
+      <c r="E33" t="s">
+        <v>885</v>
+      </c>
+      <c r="G33">
+        <v>89</v>
+      </c>
+      <c r="I33">
+        <v>18</v>
+      </c>
+      <c r="K33" s="201">
+        <v>89</v>
+      </c>
+      <c r="M33" t="s">
+        <v>884</v>
+      </c>
+      <c r="N33" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15">
+      <c r="E34" t="s">
+        <v>887</v>
+      </c>
+      <c r="G34">
+        <v>-319</v>
+      </c>
+      <c r="I34">
+        <v>425</v>
+      </c>
+      <c r="K34" s="201">
+        <v>-319</v>
+      </c>
+      <c r="M34" t="s">
+        <v>886</v>
+      </c>
+      <c r="N34" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15">
+      <c r="E35" t="s">
+        <v>889</v>
+      </c>
+      <c r="G35">
+        <v>-239</v>
+      </c>
+      <c r="I35">
+        <v>442</v>
+      </c>
+      <c r="K35" s="201">
+        <v>-239</v>
+      </c>
+      <c r="M35" t="s">
+        <v>888</v>
+      </c>
+      <c r="N35" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15">
+      <c r="E36" t="s">
+        <v>891</v>
+      </c>
+      <c r="G36">
+        <v>71</v>
+      </c>
+      <c r="I36">
+        <v>481</v>
+      </c>
+      <c r="K36" s="201">
+        <v>71</v>
+      </c>
+      <c r="M36" t="s">
+        <v>890</v>
+      </c>
+      <c r="N36" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15">
+      <c r="E37" t="s">
+        <v>893</v>
+      </c>
+      <c r="G37">
+        <v>-800</v>
+      </c>
+      <c r="I37">
+        <v>24</v>
+      </c>
+      <c r="K37" s="201">
+        <v>-800</v>
+      </c>
+      <c r="M37" t="s">
+        <v>892</v>
+      </c>
+      <c r="N37" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15">
+      <c r="E38" t="s">
+        <v>895</v>
+      </c>
+      <c r="G38">
+        <v>-800</v>
+      </c>
+      <c r="I38">
+        <v>428</v>
+      </c>
+      <c r="K38" s="201">
+        <v>-319</v>
+      </c>
+      <c r="M38" t="s">
+        <v>894</v>
+      </c>
+      <c r="N38" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15">
+      <c r="E39" t="s">
+        <v>897</v>
+      </c>
+      <c r="G39">
+        <v>-799</v>
+      </c>
+      <c r="I39">
+        <v>22</v>
+      </c>
+      <c r="K39" s="201">
+        <v>87</v>
+      </c>
+      <c r="M39" t="s">
+        <v>896</v>
+      </c>
+      <c r="N39" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="E40">
+        <v>652</v>
+      </c>
+      <c r="G40">
+        <v>-240</v>
+      </c>
+      <c r="I40">
+        <v>652</v>
+      </c>
+      <c r="K40">
+        <v>71</v>
+      </c>
+      <c r="M40" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="B43" t="s">
+        <v>921</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>746</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>923</v>
+      </c>
+      <c r="D44" t="s">
+        <v>748</v>
+      </c>
+      <c r="E44">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>749</v>
+      </c>
+      <c r="G44">
+        <v>56</v>
+      </c>
+      <c r="H44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I44">
+        <v>-771</v>
+      </c>
+      <c r="J44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K44">
+        <v>63</v>
+      </c>
+      <c r="L44" t="s">
+        <v>750</v>
+      </c>
+      <c r="M44" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>746</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>924</v>
+      </c>
+      <c r="D45" t="s">
+        <v>748</v>
+      </c>
+      <c r="E45">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s">
+        <v>749</v>
+      </c>
+      <c r="G45">
+        <v>56</v>
+      </c>
+      <c r="H45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45">
+        <v>-766</v>
+      </c>
+      <c r="J45" t="s">
+        <v>174</v>
+      </c>
+      <c r="K45">
+        <v>293</v>
+      </c>
+      <c r="L45" t="s">
+        <v>750</v>
+      </c>
+      <c r="M45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>746</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>925</v>
+      </c>
+      <c r="D46" t="s">
+        <v>748</v>
+      </c>
+      <c r="E46">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>749</v>
+      </c>
+      <c r="G46">
+        <v>56</v>
+      </c>
+      <c r="H46" t="s">
+        <v>175</v>
+      </c>
+      <c r="I46">
+        <v>-534</v>
+      </c>
+      <c r="J46" t="s">
+        <v>174</v>
+      </c>
+      <c r="K46">
+        <v>59</v>
+      </c>
+      <c r="L46" t="s">
+        <v>750</v>
+      </c>
+      <c r="M46" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>746</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>926</v>
+      </c>
+      <c r="D47" t="s">
+        <v>748</v>
+      </c>
+      <c r="E47">
+        <v>21</v>
+      </c>
+      <c r="F47" t="s">
+        <v>749</v>
+      </c>
+      <c r="G47">
+        <v>56</v>
+      </c>
+      <c r="H47" t="s">
+        <v>175</v>
+      </c>
+      <c r="I47">
+        <v>96</v>
+      </c>
+      <c r="J47" t="s">
+        <v>174</v>
+      </c>
+      <c r="K47">
+        <v>539</v>
+      </c>
+      <c r="L47" t="s">
+        <v>750</v>
+      </c>
+      <c r="M47" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>746</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>927</v>
+      </c>
+      <c r="D48" t="s">
+        <v>748</v>
+      </c>
+      <c r="E48">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>749</v>
+      </c>
+      <c r="G48">
+        <v>56</v>
+      </c>
+      <c r="H48" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s">
+        <v>174</v>
+      </c>
+      <c r="K48">
+        <v>669</v>
+      </c>
+      <c r="L48" t="s">
+        <v>750</v>
+      </c>
+      <c r="M48" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>746</v>
+      </c>
+      <c r="B49" t="s">
+        <v>757</v>
+      </c>
+      <c r="C49" t="s">
+        <v>758</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>928</v>
+      </c>
+      <c r="F49" t="s">
+        <v>748</v>
+      </c>
+      <c r="G49">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>749</v>
+      </c>
+      <c r="I49">
+        <v>56</v>
+      </c>
+      <c r="J49" t="s">
+        <v>175</v>
+      </c>
+      <c r="K49">
+        <v>-387</v>
+      </c>
+      <c r="L49" t="s">
+        <v>174</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+      <c r="N49" t="s">
+        <v>750</v>
+      </c>
+      <c r="O49" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>746</v>
+      </c>
+      <c r="B50" t="s">
+        <v>750</v>
+      </c>
+      <c r="C50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>929</v>
+      </c>
+      <c r="F50" t="s">
+        <v>757</v>
+      </c>
+      <c r="G50" t="s">
+        <v>761</v>
+      </c>
+      <c r="H50" t="s">
+        <v>748</v>
+      </c>
+      <c r="I50">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>749</v>
+      </c>
+      <c r="K50">
+        <v>56</v>
+      </c>
+      <c r="L50" t="s">
+        <v>175</v>
+      </c>
+      <c r="M50">
+        <v>-662</v>
+      </c>
+      <c r="N50" t="s">
+        <v>174</v>
+      </c>
+      <c r="O50" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>746</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>930</v>
+      </c>
+      <c r="D51" t="s">
+        <v>750</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>757</v>
+      </c>
+      <c r="G51" t="s">
+        <v>764</v>
+      </c>
+      <c r="H51" t="s">
+        <v>748</v>
+      </c>
+      <c r="I51">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>749</v>
+      </c>
+      <c r="K51">
+        <v>56</v>
+      </c>
+      <c r="L51" t="s">
+        <v>175</v>
+      </c>
+      <c r="M51">
+        <v>-115</v>
+      </c>
+      <c r="N51" t="s">
+        <v>174</v>
+      </c>
+      <c r="O51" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>746</v>
+      </c>
+      <c r="B52" t="s">
+        <v>757</v>
+      </c>
+      <c r="C52" t="s">
+        <v>766</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>765</v>
+      </c>
+      <c r="F52" t="s">
+        <v>748</v>
+      </c>
+      <c r="G52">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>749</v>
+      </c>
+      <c r="I52">
+        <v>56</v>
+      </c>
+      <c r="J52" t="s">
+        <v>175</v>
+      </c>
+      <c r="K52">
+        <v>-206</v>
+      </c>
+      <c r="L52" t="s">
+        <v>174</v>
+      </c>
+      <c r="M52">
+        <v>45</v>
+      </c>
+      <c r="N52" t="s">
+        <v>750</v>
+      </c>
+      <c r="O52" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>746</v>
+      </c>
+      <c r="B53" t="s">
+        <v>750</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>757</v>
+      </c>
+      <c r="E53" t="s">
+        <v>769</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>767</v>
+      </c>
+      <c r="H53" t="s">
+        <v>748</v>
+      </c>
+      <c r="I53">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>749</v>
+      </c>
+      <c r="K53">
+        <v>56</v>
+      </c>
+      <c r="L53" t="s">
+        <v>175</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>174</v>
+      </c>
+      <c r="O53" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>746</v>
+      </c>
+      <c r="B58" t="s">
+        <v>750</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58" t="s">
+        <v>757</v>
+      </c>
+      <c r="J58" t="s">
+        <v>749</v>
+      </c>
+      <c r="K58" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="C59">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
+        <v>931</v>
+      </c>
+      <c r="E59">
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <v>332</v>
+      </c>
+      <c r="J59">
+        <v>21</v>
+      </c>
+      <c r="K59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="C60">
+        <v>43</v>
+      </c>
+      <c r="D60" t="s">
+        <v>932</v>
+      </c>
+      <c r="E60">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>425</v>
+      </c>
+      <c r="J60">
+        <v>21</v>
+      </c>
+      <c r="K60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="C61">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>933</v>
+      </c>
+      <c r="E61">
+        <v>43</v>
+      </c>
+      <c r="F61">
+        <v>513</v>
+      </c>
+      <c r="J61">
+        <v>18</v>
+      </c>
+      <c r="K61">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="C62">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>934</v>
+      </c>
+      <c r="E62">
+        <v>43</v>
+      </c>
+      <c r="F62">
+        <v>585</v>
+      </c>
+      <c r="J62">
+        <v>18</v>
+      </c>
+      <c r="K62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="C63">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>935</v>
+      </c>
+      <c r="E63">
+        <v>39</v>
+      </c>
+      <c r="F63">
+        <v>691</v>
+      </c>
+      <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="C64">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>936</v>
+      </c>
+      <c r="E64">
+        <v>238</v>
+      </c>
+      <c r="F64">
+        <v>382</v>
+      </c>
+      <c r="J64">
+        <v>22</v>
+      </c>
+      <c r="K64">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11">
+      <c r="C65">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>937</v>
+      </c>
+      <c r="E65">
+        <v>281</v>
+      </c>
+      <c r="F65">
+        <v>378</v>
+      </c>
+      <c r="J65">
+        <v>27</v>
+      </c>
+      <c r="K65">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11">
+      <c r="C66">
+        <v>48</v>
+      </c>
+      <c r="D66" t="s">
+        <v>938</v>
+      </c>
+      <c r="E66">
+        <v>237</v>
+      </c>
+      <c r="F66">
+        <v>456</v>
+      </c>
+      <c r="J66">
+        <v>21</v>
+      </c>
+      <c r="K66">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="C67">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>939</v>
+      </c>
+      <c r="E67">
+        <v>284</v>
+      </c>
+      <c r="F67">
+        <v>458</v>
+      </c>
+      <c r="J67">
+        <v>24</v>
+      </c>
+      <c r="K67">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11">
+      <c r="C68">
+        <v>47</v>
+      </c>
+      <c r="D68" t="s">
+        <v>940</v>
+      </c>
+      <c r="E68">
+        <v>235</v>
+      </c>
+      <c r="F68">
+        <v>541</v>
+      </c>
+      <c r="J68">
+        <v>22</v>
+      </c>
+      <c r="K68">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11">
+      <c r="C69">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>941</v>
+      </c>
+      <c r="E69">
+        <v>283</v>
+      </c>
+      <c r="F69">
+        <v>542</v>
+      </c>
+      <c r="J69">
+        <v>27</v>
+      </c>
+      <c r="K69">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11">
+      <c r="C70">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>942</v>
+      </c>
+      <c r="E70">
+        <v>284</v>
+      </c>
+      <c r="F70">
+        <v>217</v>
+      </c>
+      <c r="J70">
+        <v>65</v>
+      </c>
+      <c r="K70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="C71">
+        <v>39</v>
+      </c>
+      <c r="D71" t="s">
+        <v>943</v>
+      </c>
+      <c r="E71">
+        <v>463</v>
+      </c>
+      <c r="F71">
+        <v>214</v>
+      </c>
+      <c r="J71">
+        <v>54</v>
+      </c>
+      <c r="K71">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11">
+      <c r="C72">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
+        <v>944</v>
+      </c>
+      <c r="E72">
+        <v>576</v>
+      </c>
+      <c r="F72">
+        <v>216</v>
+      </c>
+      <c r="J72">
+        <v>56</v>
+      </c>
+      <c r="K72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11">
+      <c r="C73">
+        <v>59</v>
+      </c>
+      <c r="D73" t="s">
+        <v>945</v>
+      </c>
+      <c r="E73">
+        <v>678</v>
+      </c>
+      <c r="F73">
+        <v>359</v>
+      </c>
+      <c r="J73">
+        <v>17</v>
+      </c>
+      <c r="K73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11">
+      <c r="C74">
+        <v>60</v>
+      </c>
+      <c r="D74" t="s">
+        <v>946</v>
+      </c>
+      <c r="E74">
+        <v>727</v>
+      </c>
+      <c r="F74">
+        <v>360</v>
+      </c>
+      <c r="J74">
+        <v>17</v>
+      </c>
+      <c r="K74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11">
+      <c r="C75">
+        <v>58</v>
+      </c>
+      <c r="D75" t="s">
+        <v>947</v>
+      </c>
+      <c r="E75">
+        <v>678</v>
+      </c>
+      <c r="F75">
+        <v>457</v>
+      </c>
+      <c r="J75">
+        <v>17</v>
+      </c>
+      <c r="K75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11">
+      <c r="C76">
+        <v>61</v>
+      </c>
+      <c r="D76" t="s">
+        <v>948</v>
+      </c>
+      <c r="E76">
+        <v>727</v>
+      </c>
+      <c r="F76">
+        <v>456</v>
+      </c>
+      <c r="J76">
+        <v>17</v>
+      </c>
+      <c r="K76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11">
+      <c r="C77">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>949</v>
+      </c>
+      <c r="E77">
+        <v>680</v>
+      </c>
+      <c r="F77">
+        <v>540</v>
+      </c>
+      <c r="J77">
+        <v>17</v>
+      </c>
+      <c r="K77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11">
+      <c r="C78">
+        <v>62</v>
+      </c>
+      <c r="D78" t="s">
+        <v>950</v>
+      </c>
+      <c r="E78">
+        <v>725</v>
+      </c>
+      <c r="F78">
+        <v>537</v>
+      </c>
+      <c r="J78">
+        <v>17</v>
+      </c>
+      <c r="K78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11">
+      <c r="C79">
+        <v>36</v>
+      </c>
+      <c r="D79" t="s">
+        <v>951</v>
+      </c>
+      <c r="E79">
+        <v>908</v>
+      </c>
+      <c r="F79">
+        <v>324</v>
+      </c>
+      <c r="J79">
+        <v>17</v>
+      </c>
+      <c r="K79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11">
+      <c r="C80">
+        <v>35</v>
+      </c>
+      <c r="D80" t="s">
+        <v>952</v>
+      </c>
+      <c r="E80">
+        <v>909</v>
+      </c>
+      <c r="F80">
+        <v>409</v>
+      </c>
+      <c r="J80">
+        <v>17</v>
+      </c>
+      <c r="K80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11">
+      <c r="C81">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>953</v>
+      </c>
+      <c r="E81">
+        <v>909</v>
+      </c>
+      <c r="F81">
+        <v>493</v>
+      </c>
+      <c r="J81">
+        <v>17</v>
+      </c>
+      <c r="K81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11">
+      <c r="C82">
+        <v>33</v>
+      </c>
+      <c r="D82" t="s">
+        <v>954</v>
+      </c>
+      <c r="E82">
+        <v>908</v>
+      </c>
+      <c r="F82">
+        <v>571</v>
+      </c>
+      <c r="J82">
+        <v>17</v>
+      </c>
+      <c r="K82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11">
+      <c r="C83">
+        <v>32</v>
+      </c>
+      <c r="D83" t="s">
+        <v>955</v>
+      </c>
+      <c r="E83">
+        <v>907</v>
+      </c>
+      <c r="F83">
+        <v>671</v>
+      </c>
+      <c r="J83">
+        <v>17</v>
+      </c>
+      <c r="K83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11">
+      <c r="C84">
+        <v>54</v>
+      </c>
+      <c r="D84" t="s">
+        <v>956</v>
+      </c>
+      <c r="E84">
+        <v>433</v>
+      </c>
+      <c r="F84">
+        <v>411</v>
+      </c>
+      <c r="J84">
+        <v>17</v>
+      </c>
+      <c r="K84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11">
+      <c r="C85">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>957</v>
+      </c>
+      <c r="E85">
+        <v>482</v>
+      </c>
+      <c r="F85">
+        <v>411</v>
+      </c>
+      <c r="J85">
+        <v>17</v>
+      </c>
+      <c r="K85">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11">
+      <c r="C86">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>958</v>
+      </c>
+      <c r="E86">
+        <v>432</v>
+      </c>
+      <c r="F86">
+        <v>511</v>
+      </c>
+      <c r="J86">
+        <v>17</v>
+      </c>
+      <c r="K86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11">
+      <c r="C87">
+        <v>56</v>
+      </c>
+      <c r="D87" t="s">
+        <v>959</v>
+      </c>
+      <c r="E87">
+        <v>481</v>
+      </c>
+      <c r="F87">
+        <v>513</v>
+      </c>
+      <c r="J87">
+        <v>17</v>
+      </c>
+      <c r="K87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11">
+      <c r="D89" t="s">
+        <v>799</v>
+      </c>
+      <c r="E89">
+        <v>956</v>
+      </c>
+      <c r="F89">
+        <v>39</v>
+      </c>
+      <c r="G89" t="s">
+        <v>800</v>
+      </c>
+      <c r="J89">
+        <v>74</v>
+      </c>
+      <c r="K89">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11">
+      <c r="D90" t="s">
+        <v>801</v>
+      </c>
+      <c r="E90">
+        <v>52</v>
+      </c>
+      <c r="F90">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s">
+        <v>802</v>
+      </c>
+      <c r="J90">
+        <v>74</v>
+      </c>
+      <c r="K90">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11">
+      <c r="D92" t="s">
+        <v>803</v>
+      </c>
+      <c r="E92">
+        <v>65</v>
+      </c>
+      <c r="F92">
+        <v>839</v>
+      </c>
+      <c r="J92">
+        <v>65</v>
+      </c>
+      <c r="K92">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11">
+      <c r="D93" t="s">
+        <v>804</v>
+      </c>
+      <c r="E93">
+        <v>269</v>
+      </c>
+      <c r="F93">
+        <v>838</v>
+      </c>
+      <c r="J93">
+        <v>65</v>
+      </c>
+      <c r="K93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="3:11">
+      <c r="D94" t="s">
+        <v>805</v>
+      </c>
+      <c r="E94">
+        <v>559</v>
+      </c>
+      <c r="F94">
+        <v>857</v>
+      </c>
+      <c r="J94">
+        <v>65</v>
+      </c>
+      <c r="K94">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="3:11">
+      <c r="D95" t="s">
+        <v>806</v>
+      </c>
+      <c r="E95">
+        <v>988</v>
+      </c>
+      <c r="F95">
+        <v>754</v>
+      </c>
+      <c r="G95" t="s">
+        <v>807</v>
+      </c>
+      <c r="J95">
+        <v>74</v>
+      </c>
+      <c r="K95">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11">
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>960</v>
+      </c>
+      <c r="E97">
+        <v>248</v>
+      </c>
+      <c r="F97">
+        <v>947</v>
+      </c>
+      <c r="J97">
+        <v>65</v>
+      </c>
+      <c r="K97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11">
+      <c r="C98">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s">
+        <v>961</v>
+      </c>
+      <c r="E98">
+        <v>23</v>
+      </c>
+      <c r="F98">
+        <v>923</v>
+      </c>
+      <c r="J98">
+        <v>65</v>
+      </c>
+      <c r="K98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11">
+      <c r="C99">
+        <v>15</v>
+      </c>
+      <c r="D99" t="s">
+        <v>962</v>
+      </c>
+      <c r="E99">
+        <v>595</v>
+      </c>
+      <c r="F99">
+        <v>921</v>
+      </c>
+      <c r="J99">
+        <v>65</v>
+      </c>
+      <c r="K99">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11">
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>963</v>
+      </c>
+      <c r="E100">
+        <v>183</v>
+      </c>
+      <c r="F100">
+        <v>1032</v>
+      </c>
+      <c r="J100">
+        <v>65</v>
+      </c>
+      <c r="K100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11">
+      <c r="C101">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>964</v>
+      </c>
+      <c r="E101">
+        <v>283</v>
+      </c>
+      <c r="F101">
+        <v>1035</v>
+      </c>
+      <c r="J101">
+        <v>65</v>
+      </c>
+      <c r="K101">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11">
+      <c r="C102">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>965</v>
+      </c>
+      <c r="E102">
+        <v>514</v>
+      </c>
+      <c r="F102">
+        <v>1036</v>
+      </c>
+      <c r="J102">
+        <v>65</v>
+      </c>
+      <c r="K102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11">
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>966</v>
+      </c>
+      <c r="E103">
+        <v>625</v>
+      </c>
+      <c r="F103">
+        <v>1036</v>
+      </c>
+      <c r="J103">
+        <v>65</v>
+      </c>
+      <c r="K103">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11">
+      <c r="D104" t="s">
+        <v>815</v>
+      </c>
+      <c r="E104">
+        <v>740</v>
+      </c>
+      <c r="F104">
+        <v>1038</v>
+      </c>
+      <c r="J104">
+        <v>65</v>
+      </c>
+      <c r="K104">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11">
+      <c r="D105" t="s">
+        <v>816</v>
+      </c>
+      <c r="E105">
+        <v>851</v>
+      </c>
+      <c r="F105">
+        <v>918</v>
+      </c>
+      <c r="J105">
+        <v>65</v>
+      </c>
+      <c r="K105">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="D106" t="s">
+        <v>817</v>
+      </c>
+      <c r="E106">
+        <v>845</v>
+      </c>
+      <c r="F106">
+        <v>1036</v>
+      </c>
+      <c r="J106">
+        <v>65</v>
+      </c>
+      <c r="K106">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="D107" t="s">
+        <v>818</v>
+      </c>
+      <c r="E107">
+        <v>656</v>
+      </c>
+      <c r="F107">
+        <v>1099</v>
+      </c>
+      <c r="J107">
+        <v>65</v>
+      </c>
+      <c r="K107">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11">
+      <c r="C109">
+        <v>25</v>
+      </c>
+      <c r="D109" t="s">
+        <v>967</v>
+      </c>
+      <c r="E109">
+        <v>233</v>
+      </c>
+      <c r="F109">
+        <v>1213</v>
+      </c>
+      <c r="G109" t="s">
+        <v>820</v>
+      </c>
+      <c r="J109">
+        <v>74</v>
+      </c>
+      <c r="K109">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11">
+      <c r="C110">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>968</v>
+      </c>
+      <c r="E110">
+        <v>257</v>
+      </c>
+      <c r="F110">
+        <v>1051</v>
+      </c>
+      <c r="G110" t="s">
+        <v>822</v>
+      </c>
+      <c r="J110">
+        <v>74</v>
+      </c>
+      <c r="K110">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11">
+      <c r="C111">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>969</v>
+      </c>
+      <c r="E111">
+        <v>829</v>
+      </c>
+      <c r="F111">
+        <v>1169</v>
+      </c>
+      <c r="G111" t="s">
+        <v>824</v>
+      </c>
+      <c r="J111">
+        <v>74</v>
+      </c>
+      <c r="K111">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11">
+      <c r="C112" t="s">
+        <v>974</v>
+      </c>
+      <c r="D112" t="s">
+        <v>970</v>
+      </c>
+      <c r="E112">
+        <v>527</v>
+      </c>
+      <c r="F112">
+        <v>1186</v>
+      </c>
+      <c r="G112" t="s">
+        <v>826</v>
+      </c>
+      <c r="J112">
+        <v>74</v>
+      </c>
+      <c r="K112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11">
+      <c r="C113" t="s">
+        <v>975</v>
+      </c>
+      <c r="D113" t="s">
+        <v>971</v>
+      </c>
+      <c r="E113">
+        <v>460</v>
+      </c>
+      <c r="F113">
+        <v>1221</v>
+      </c>
+      <c r="G113" t="s">
+        <v>828</v>
+      </c>
+      <c r="J113">
+        <v>74</v>
+      </c>
+      <c r="K113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11">
+      <c r="C114">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>972</v>
+      </c>
+      <c r="E114">
+        <v>243</v>
+      </c>
+      <c r="F114">
+        <v>1335</v>
+      </c>
+      <c r="G114" t="s">
+        <v>830</v>
+      </c>
+      <c r="J114">
+        <v>74</v>
+      </c>
+      <c r="K114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11">
+      <c r="D115" t="s">
+        <v>831</v>
+      </c>
+      <c r="E115">
+        <v>799</v>
+      </c>
+      <c r="F115">
+        <v>1340</v>
+      </c>
+      <c r="G115" t="s">
+        <v>832</v>
+      </c>
+      <c r="J115">
+        <v>74</v>
+      </c>
+      <c r="K115">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="B161" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/full-data-iday14.xlsx
+++ b/full-data-iday14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="1480" yWindow="2160" windowWidth="14360" windowHeight="17560" tabRatio="500" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="booth layout prev" sheetId="3" r:id="rId6"/>
     <sheet name="nonfinaldata" sheetId="4" r:id="rId7"/>
     <sheet name="more booth udpates" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">current!$F$1:$T$74</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3297" uniqueCount="1099">
   <si>
     <t>booth</t>
   </si>
@@ -2941,9 +2942,6 @@
     <t>booth22</t>
   </si>
   <si>
-    <t>booth2027/&gt;</t>
-  </si>
-  <si>
     <t>booth2720</t>
   </si>
   <si>
@@ -2953,17 +2951,389 @@
     <t>&lt;/g&gt;</t>
   </si>
   <si>
-    <t>20-27</t>
-  </si>
-  <si>
-    <t>27-20</t>
+    <t>booth2</t>
+  </si>
+  <si>
+    <t>svg_46</t>
+  </si>
+  <si>
+    <t>booth18</t>
+  </si>
+  <si>
+    <t>booth17</t>
+  </si>
+  <si>
+    <t>booth21</t>
+  </si>
+  <si>
+    <t>svg_48</t>
+  </si>
+  <si>
+    <t>booth19</t>
+  </si>
+  <si>
+    <t>svg_47</t>
+  </si>
+  <si>
+    <t>svg_49</t>
+  </si>
+  <si>
+    <t>booth1</t>
+  </si>
+  <si>
+    <t>booth28</t>
+  </si>
+  <si>
+    <t>booth29</t>
+  </si>
+  <si>
+    <t>booth30</t>
+  </si>
+  <si>
+    <t>booth31</t>
+  </si>
+  <si>
+    <t>booth37</t>
+  </si>
+  <si>
+    <t>booth2027</t>
+  </si>
+  <si>
+    <t>x delta</t>
+  </si>
+  <si>
+    <t>y delta</t>
+  </si>
+  <si>
+    <t>$scope.bWidth</t>
+  </si>
+  <si>
+    <t>75;</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>boothWidth</t>
+  </si>
+  <si>
+    <t>$scope.bHeight</t>
+  </si>
+  <si>
+    <t>30;</t>
+  </si>
+  <si>
+    <t>boothHeight</t>
+  </si>
+  <si>
+    <t>$scope.booths</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>{bNum:1,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:60,y:-25,rotate:42},</t>
+  </si>
+  <si>
+    <t>{bNum:2,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:35,y:-185,rotate:-40},</t>
+  </si>
+  <si>
+    <t>{bNum:3,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:40,y:-335,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:4,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:60,y:-534,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:5,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:35,y:-625,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:6,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:60,y:-775,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:7,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:290,y:-775,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:8,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:625,y:-140,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:9,room:"The</t>
+  </si>
+  <si>
+    <t>Grill",x:525,y:90,rotate:null},</t>
+  </si>
+  <si>
+    <t>/*{bNum:10,room:"Hallway",x:248,y:947,rotate:null},*/</t>
+  </si>
+  <si>
+    <t>{bNum:10,room:"Hallway",x:660,y:70,rotate:null},</t>
+  </si>
+  <si>
+    <t>{bNum:11,room:"Hallway",x:23,y:923,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:12,room:"Hallway",x:183,y:1025,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:13,room:"Hallway",x:283,y:1025,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:14,room:"Hallway",x:514,y:1025,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:15,room:"Hallway",x:595,y:921,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:16,room:"Hallway",x:625,y:1025,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:17,room:"Hallway",x:740,y:1025,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:18,room:"Lakeshore",x:851,y:918,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:19,room:"Lakeshore",x:845,y:1025,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:20,room:"Lakeshore",x:515,y:1190,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:21,room:"Lakeshore",x:650,y:1085,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:22,room:"Lakeshore",x:780,y:1180,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:23,room:"Lakeshore",x:675,y:1370,rotate:-45},</t>
+  </si>
+  <si>
+    <t>{bNum:24,room:"Lakeshore",x:243,y:1335,rotate:55},</t>
+  </si>
+  <si>
+    <t>{bNum:25,room:"Lakeshore",x:215,y:1275,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:26,room:"Lakeshore",x:215,y:1120,rotate:-35},</t>
+  </si>
+  <si>
+    <t>{bNum:27,room:"Northshore",x:410,y:1265,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:28,room:"Northshore",x:65,y:830,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:29,room:"Northshore",x:269,y:830,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:30,room:"Northshore",x:565,y:845,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:31,room:"Northshore",x:850,y:850,rotate:-42},</t>
+  </si>
+  <si>
+    <t>{bNum:32,room:"Northshore",x:935,y:670,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:33,room:"Northshore",x:935,y:571,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:34,room:"Northshore",x:935,y:493,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:35,room:"Northshore",x:935,y:409,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:36,room:"Northshore",x:935,y:324,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:37,room:"Northshore",x:850,y:215,rotate:35},</t>
+  </si>
+  <si>
+    <t>{bNum:38,room:"Northshore",x:576,y:216,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:39,room:"Northshore",x:463,y:214,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:40,room:"Northshore",x:284,y:217,rotate:0},</t>
+  </si>
+  <si>
+    <t>{bNum:41,room:"Northshore",x:33,y:275,rotate:-52},</t>
+  </si>
+  <si>
+    <t>{bNum:42,room:"Northshore",x:35,y:390,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:43,room:"Northshore",x:35,y:480,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:44,room:"Northshore",x:35,y:570,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:45,room:"Northshore",x:35,y:660,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:46,room:"Northshore",x:35,y:750,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:47,room:"Northshore",x:260,y:540,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:48,room:"Northshore",x:260,y:440,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:49,room:"Northshore",x:260,y:340,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:50,room:"Northshore",x:285,y:415,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:51,room:"Northshore",x:285,y:515,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:52,room:"Northshore",x:285,y:615,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:53,room:"Northshore",x:455,y:510,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:54,room:"Northshore",x:455,y:410,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:55,room:"Northshore",x:480,y:485,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:56,room:"Northshore",x:480,y:585,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:57,room:"Northshore",x:705,y:540,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:58,room:"Northshore",x:705,y:440,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:59,room:"Northshore",x:705,y:340,rotate:90},</t>
+  </si>
+  <si>
+    <t>{bNum:60,room:"Northshore",x:727,y:415,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:61,room:"Northshore",x:727,y:515,rotate:-90},</t>
+  </si>
+  <si>
+    <t>{bNum:62,room:"Northshore",x:725,y:615,rotate:-90}</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>THIS</t>
+  </si>
+  <si>
+    <t>floorplan</t>
+  </si>
+  <si>
+    <t>svg</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>$scope.startX</t>
+  </si>
+  <si>
+    <t>-10;</t>
+  </si>
+  <si>
+    <t>$scope.startY</t>
+  </si>
+  <si>
+    <t>-800;</t>
+  </si>
+  <si>
+    <t>$scope.mapWidth</t>
+  </si>
+  <si>
+    <t>1100;</t>
+  </si>
+  <si>
+    <t>$scope.mapHeight</t>
+  </si>
+  <si>
+    <t>2435;</t>
+  </si>
+  <si>
+    <t>});</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3146,8 +3516,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3192,6 +3576,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3821,7 +4217,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="297">
+  <cellStyleXfs count="457">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4119,8 +4515,168 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4655,8 +5211,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="297">
+  <cellStyles count="457">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -4804,6 +5386,86 @@
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -4951,6 +5613,86 @@
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Output" xfId="70" builtinId="21"/>
@@ -12644,7 +13386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -15830,24 +16572,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" style="147" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="147" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="207" customWidth="1"/>
+    <col min="9" max="9" width="2.33203125" style="207" customWidth="1"/>
+    <col min="11" max="11" width="12" style="147" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" style="202" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1640625" customWidth="1"/>
+    <col min="17" max="17" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:24" ht="17">
       <c r="A1" s="144" t="s">
         <v>172</v>
       </c>
@@ -15863,26 +16610,54 @@
       <c r="E1" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" s="205"/>
+      <c r="G1" s="204" t="s">
+        <v>989</v>
+      </c>
+      <c r="H1" s="204" t="s">
+        <v>990</v>
+      </c>
+      <c r="J1" s="210" t="s">
         <v>172</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="211" t="s">
         <v>173</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="210" t="s">
         <v>174</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="210" t="s">
         <v>175</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="202" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>172</v>
+      </c>
+      <c r="T1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="13">
+    <row r="2" spans="1:24" ht="13">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -15898,26 +16673,56 @@
       <c r="E2" s="146">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="146">
+        <f t="shared" ref="G2:G33" si="0">C2-L2</f>
+        <v>-46</v>
+      </c>
+      <c r="H2" s="146">
+        <f t="shared" ref="H2:H33" si="1">D2-M2</f>
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J2">
+      <c r="L2">
+        <v>56</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="146">
+        <v>42</v>
+      </c>
+      <c r="O2" s="202" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>982</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>177</v>
+      </c>
+      <c r="U2">
         <v>10</v>
       </c>
-      <c r="K2">
+      <c r="V2">
         <v>10</v>
       </c>
-      <c r="L2">
+      <c r="W2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="13">
+      <c r="X2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="13">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -15933,26 +16738,56 @@
       <c r="E3" s="146">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="F3" s="206"/>
+      <c r="G3" s="146">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="H3" s="146">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="J3">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>45</v>
+      </c>
+      <c r="M3">
+        <v>-206</v>
+      </c>
+      <c r="N3" s="146">
+        <v>-39</v>
+      </c>
+      <c r="O3" s="202" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>973</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U3">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="V3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="W3">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="13">
+      <c r="X3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="13">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -15968,26 +16803,56 @@
       <c r="E4" s="146">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="F4" s="206"/>
+      <c r="G4" s="146">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="H4" s="146">
+        <f t="shared" si="1"/>
+        <v>397</v>
+      </c>
+      <c r="J4">
         <v>3</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>-387</v>
+      </c>
+      <c r="N4" s="146">
+        <v>-90</v>
+      </c>
+      <c r="O4" s="202" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>928</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>177</v>
+      </c>
+      <c r="U4">
         <v>10</v>
       </c>
-      <c r="K4">
+      <c r="V4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="W4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="13">
+      <c r="X4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="13">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -16003,26 +16868,51 @@
       <c r="E5" s="146">
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="F5" s="206"/>
+      <c r="G5" s="146">
+        <f t="shared" si="0"/>
+        <v>-49</v>
+      </c>
+      <c r="H5" s="146">
+        <f t="shared" si="1"/>
+        <v>544</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J5">
+      <c r="L5">
+        <v>59</v>
+      </c>
+      <c r="M5">
+        <v>-534</v>
+      </c>
+      <c r="N5" s="146"/>
+      <c r="Q5" t="s">
+        <v>925</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s">
+        <v>177</v>
+      </c>
+      <c r="U5">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="V5">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="W5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="13">
+      <c r="X5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="13">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -16038,26 +16928,56 @@
       <c r="E6" s="146">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="F6" s="206"/>
+      <c r="G6" s="146">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+      <c r="H6" s="146">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="J6">
         <v>5</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>-662</v>
+      </c>
+      <c r="N6" s="146">
+        <v>-90</v>
+      </c>
+      <c r="O6" s="202" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>929</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>177</v>
+      </c>
+      <c r="U6">
         <v>10</v>
       </c>
-      <c r="K6">
+      <c r="V6">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="W6">
         <v>0</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="13">
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="13">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -16073,26 +16993,51 @@
       <c r="E7" s="146">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="F7" s="206"/>
+      <c r="G7" s="146">
+        <f t="shared" si="0"/>
+        <v>-53</v>
+      </c>
+      <c r="H7" s="146">
+        <f t="shared" si="1"/>
+        <v>781</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J7">
+      <c r="L7">
+        <v>63</v>
+      </c>
+      <c r="M7">
+        <v>-771</v>
+      </c>
+      <c r="N7" s="146"/>
+      <c r="Q7" t="s">
+        <v>923</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7" t="s">
+        <v>177</v>
+      </c>
+      <c r="U7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="V7">
         <v>10</v>
       </c>
-      <c r="L7">
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="13">
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="13">
       <c r="A8" s="6">
         <v>8</v>
       </c>
@@ -16108,26 +17053,51 @@
       <c r="E8" s="146">
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="F8" s="206"/>
+      <c r="G8" s="146">
+        <f t="shared" si="0"/>
+        <v>-283</v>
+      </c>
+      <c r="H8" s="146">
+        <f t="shared" si="1"/>
+        <v>776</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J8">
+      <c r="L8">
+        <v>293</v>
+      </c>
+      <c r="M8">
+        <v>-766</v>
+      </c>
+      <c r="N8" s="146"/>
+      <c r="Q8" t="s">
+        <v>924</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>177</v>
+      </c>
+      <c r="U8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="V8">
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="13">
+      <c r="X8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="13">
       <c r="A9" s="6">
         <v>9</v>
       </c>
@@ -16143,26 +17113,56 @@
       <c r="E9" s="146">
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="F9" s="206"/>
+      <c r="G9" s="146">
+        <f t="shared" si="0"/>
+        <v>-571</v>
+      </c>
+      <c r="H9" s="146">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J9">
+      <c r="L9">
+        <v>581</v>
+      </c>
+      <c r="M9">
+        <v>-115</v>
+      </c>
+      <c r="N9" s="146">
+        <v>90</v>
+      </c>
+      <c r="O9" s="202" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>930</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+      <c r="T9" t="s">
+        <v>177</v>
+      </c>
+      <c r="U9">
         <v>10</v>
       </c>
-      <c r="K9">
+      <c r="V9">
         <v>10</v>
       </c>
-      <c r="L9">
+      <c r="W9">
         <v>0</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="13">
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="13">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -16178,26 +17178,51 @@
       <c r="E10" s="146">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="F10" s="206"/>
+      <c r="G10" s="146">
+        <f t="shared" si="0"/>
+        <v>-261.3</v>
+      </c>
+      <c r="H10" s="146">
+        <f t="shared" si="1"/>
+        <v>779</v>
+      </c>
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="J10">
+      <c r="L10">
+        <v>539</v>
+      </c>
+      <c r="M10">
+        <v>96</v>
+      </c>
+      <c r="N10" s="146"/>
+      <c r="Q10" t="s">
+        <v>926</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U10">
         <v>10</v>
       </c>
-      <c r="K10">
+      <c r="V10">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="W10">
         <v>0</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="13">
+      <c r="X10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="13">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -16210,29 +17235,56 @@
       <c r="D11">
         <v>847.5</v>
       </c>
-      <c r="E11" s="146">
+      <c r="E11" s="209">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="F11" s="206"/>
+      <c r="G11" s="146">
+        <f t="shared" si="0"/>
+        <v>-229</v>
+      </c>
+      <c r="H11" s="146">
+        <f t="shared" si="1"/>
+        <v>-99.5</v>
+      </c>
+      <c r="J11" s="128">
         <v>10</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="J11">
+      <c r="L11" s="128">
+        <v>248</v>
+      </c>
+      <c r="M11" s="128">
+        <v>947</v>
+      </c>
+      <c r="N11" s="180"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="128"/>
+      <c r="Q11" s="128" t="s">
+        <v>960</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11" t="s">
+        <v>178</v>
+      </c>
+      <c r="U11">
         <v>277.7</v>
       </c>
-      <c r="K11">
+      <c r="V11">
         <v>875</v>
       </c>
-      <c r="L11">
+      <c r="W11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="13">
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="13">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -16245,29 +17297,56 @@
       <c r="D12">
         <v>972.6</v>
       </c>
-      <c r="E12" s="146">
+      <c r="E12" s="209">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="F12" s="206"/>
+      <c r="G12" s="146">
+        <f t="shared" si="0"/>
+        <v>-467</v>
+      </c>
+      <c r="H12" s="146">
+        <f t="shared" si="1"/>
+        <v>895.6</v>
+      </c>
+      <c r="J12" s="128">
+        <v>10</v>
+      </c>
+      <c r="K12" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="128">
+        <v>669</v>
+      </c>
+      <c r="M12" s="128">
+        <v>77</v>
+      </c>
+      <c r="N12" s="180"/>
+      <c r="O12" s="203"/>
+      <c r="P12" s="128"/>
+      <c r="Q12" s="128" t="s">
+        <v>927</v>
+      </c>
+      <c r="S12">
         <v>11</v>
       </c>
-      <c r="I12" t="s">
+      <c r="T12" t="s">
         <v>178</v>
       </c>
-      <c r="J12">
+      <c r="U12">
         <v>19</v>
       </c>
-      <c r="K12">
+      <c r="V12">
         <v>847.5</v>
       </c>
-      <c r="L12">
+      <c r="W12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="13">
+      <c r="X12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="13">
       <c r="A13" s="92">
         <v>13</v>
       </c>
@@ -16280,29 +17359,54 @@
       <c r="D13">
         <v>976</v>
       </c>
-      <c r="E13" s="146">
+      <c r="E13" s="209">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="F13" s="206"/>
+      <c r="G13" s="146">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="H13" s="146">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>923</v>
+      </c>
+      <c r="N13" s="146"/>
+      <c r="Q13" t="s">
+        <v>961</v>
+      </c>
+      <c r="S13">
         <v>12</v>
       </c>
-      <c r="I13" t="s">
+      <c r="T13" t="s">
         <v>178</v>
       </c>
-      <c r="J13">
+      <c r="U13">
         <v>202</v>
       </c>
-      <c r="K13">
+      <c r="V13">
         <v>972.6</v>
       </c>
-      <c r="L13">
+      <c r="W13">
         <v>0</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="13">
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="13">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -16315,29 +17419,54 @@
       <c r="D14">
         <v>978</v>
       </c>
-      <c r="E14" s="146">
+      <c r="E14" s="209">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="F14" s="206"/>
+      <c r="G14" s="146">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H14" s="146">
+        <f t="shared" si="1"/>
+        <v>-54</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14">
+        <v>183</v>
+      </c>
+      <c r="M14">
+        <v>1032</v>
+      </c>
+      <c r="N14" s="146"/>
+      <c r="Q14" t="s">
+        <v>963</v>
+      </c>
+      <c r="S14">
         <v>13</v>
       </c>
-      <c r="I14" t="s">
+      <c r="T14" t="s">
         <v>178</v>
       </c>
-      <c r="J14">
+      <c r="U14">
         <v>317</v>
       </c>
-      <c r="K14">
+      <c r="V14">
         <v>976</v>
       </c>
-      <c r="L14">
+      <c r="W14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="13">
+      <c r="X14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="13">
       <c r="A15" s="92">
         <v>15</v>
       </c>
@@ -16350,29 +17479,54 @@
       <c r="D15">
         <v>845.8</v>
       </c>
-      <c r="E15" s="146">
+      <c r="E15" s="209">
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="F15" s="206"/>
+      <c r="G15" s="146">
+        <f t="shared" si="0"/>
+        <v>392</v>
+      </c>
+      <c r="H15" s="146">
+        <f t="shared" si="1"/>
+        <v>-189.20000000000005</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15">
+        <v>283</v>
+      </c>
+      <c r="M15">
+        <v>1035</v>
+      </c>
+      <c r="N15" s="146"/>
+      <c r="Q15" t="s">
+        <v>964</v>
+      </c>
+      <c r="S15">
         <v>14</v>
       </c>
-      <c r="I15" t="s">
+      <c r="T15" t="s">
         <v>178</v>
       </c>
-      <c r="J15">
+      <c r="U15">
         <v>583</v>
       </c>
-      <c r="K15">
+      <c r="V15">
         <v>978</v>
       </c>
-      <c r="L15">
+      <c r="W15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="13">
+      <c r="X15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="13">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -16385,29 +17539,54 @@
       <c r="D16">
         <v>978</v>
       </c>
-      <c r="E16" s="146">
+      <c r="E16" s="209">
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="F16" s="206"/>
+      <c r="G16" s="146">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="H16" s="146">
+        <f t="shared" si="1"/>
+        <v>-58</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L16">
+        <v>514</v>
+      </c>
+      <c r="M16">
+        <v>1036</v>
+      </c>
+      <c r="N16" s="146"/>
+      <c r="Q16" t="s">
+        <v>965</v>
+      </c>
+      <c r="S16">
         <v>15</v>
       </c>
-      <c r="I16" t="s">
+      <c r="T16" t="s">
         <v>178</v>
       </c>
-      <c r="J16">
+      <c r="U16">
         <v>675</v>
       </c>
-      <c r="K16">
+      <c r="V16">
         <v>845.8</v>
       </c>
-      <c r="L16">
+      <c r="W16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="13">
+      <c r="X16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="13">
       <c r="A17" s="92">
         <v>17</v>
       </c>
@@ -16420,29 +17599,54 @@
       <c r="D17">
         <v>979.5</v>
       </c>
-      <c r="E17" s="146">
+      <c r="E17" s="209">
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="F17" s="206"/>
+      <c r="G17" s="146">
+        <f t="shared" si="0"/>
+        <v>246.5</v>
+      </c>
+      <c r="H17" s="146">
+        <f t="shared" si="1"/>
+        <v>58.5</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17">
+        <v>595</v>
+      </c>
+      <c r="M17">
+        <v>921</v>
+      </c>
+      <c r="N17" s="146"/>
+      <c r="Q17" t="s">
+        <v>962</v>
+      </c>
+      <c r="S17">
         <v>16</v>
       </c>
-      <c r="I17" t="s">
+      <c r="T17" t="s">
         <v>178</v>
       </c>
-      <c r="J17">
+      <c r="U17">
         <v>710</v>
       </c>
-      <c r="K17">
+      <c r="V17">
         <v>978</v>
       </c>
-      <c r="L17">
+      <c r="W17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="13">
+      <c r="X17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="13">
       <c r="A18" s="6">
         <v>18</v>
       </c>
@@ -16455,29 +17659,54 @@
       <c r="D18">
         <v>842</v>
       </c>
-      <c r="E18" s="146">
+      <c r="E18" s="209">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="F18" s="206"/>
+      <c r="G18" s="146">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="H18" s="146">
+        <f t="shared" si="1"/>
+        <v>-194</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18">
+        <v>625</v>
+      </c>
+      <c r="M18">
+        <v>1036</v>
+      </c>
+      <c r="N18" s="146"/>
+      <c r="Q18" t="s">
+        <v>966</v>
+      </c>
+      <c r="S18">
         <v>17</v>
       </c>
-      <c r="I18" t="s">
+      <c r="T18" t="s">
         <v>178</v>
       </c>
-      <c r="J18">
+      <c r="U18">
         <v>841.5</v>
       </c>
-      <c r="K18">
+      <c r="V18">
         <v>979.5</v>
       </c>
-      <c r="L18">
+      <c r="W18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="13">
+      <c r="X18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="13">
       <c r="A19" s="6">
         <v>19</v>
       </c>
@@ -16490,29 +17719,54 @@
       <c r="D19">
         <v>978</v>
       </c>
-      <c r="E19" s="146">
+      <c r="E19" s="209">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="F19" s="206"/>
+      <c r="G19" s="146">
+        <f t="shared" si="0"/>
+        <v>221.5</v>
+      </c>
+      <c r="H19" s="146">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19">
+        <v>740</v>
+      </c>
+      <c r="M19">
+        <v>1038</v>
+      </c>
+      <c r="N19" s="146"/>
+      <c r="Q19" t="s">
+        <v>976</v>
+      </c>
+      <c r="S19">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
+      <c r="T19" t="s">
         <v>178</v>
       </c>
-      <c r="J19">
+      <c r="U19">
         <v>968</v>
       </c>
-      <c r="K19">
+      <c r="V19">
         <v>842</v>
       </c>
-      <c r="L19">
+      <c r="W19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="13">
+      <c r="X19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="13">
       <c r="A20" s="6">
         <v>20</v>
       </c>
@@ -16528,26 +17782,51 @@
       <c r="E20" s="146">
         <v>90</v>
       </c>
-      <c r="H20">
+      <c r="F20" s="206"/>
+      <c r="G20" s="146">
+        <f t="shared" si="0"/>
+        <v>-313</v>
+      </c>
+      <c r="H20" s="146">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20">
+        <v>851</v>
+      </c>
+      <c r="M20">
+        <v>918</v>
+      </c>
+      <c r="N20" s="146"/>
+      <c r="Q20" t="s">
+        <v>975</v>
+      </c>
+      <c r="S20">
         <v>19</v>
       </c>
-      <c r="I20" t="s">
+      <c r="T20" t="s">
         <v>178</v>
       </c>
-      <c r="J20">
+      <c r="U20">
         <v>961.5</v>
       </c>
-      <c r="K20">
+      <c r="V20">
         <v>978</v>
       </c>
-      <c r="L20">
+      <c r="W20">
         <v>0</v>
       </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="13">
+      <c r="X20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="13">
       <c r="A21" s="6">
         <v>21</v>
       </c>
@@ -16560,29 +17839,54 @@
       <c r="D21">
         <v>1050</v>
       </c>
-      <c r="E21" s="146">
+      <c r="E21" s="209">
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="F21" s="206"/>
+      <c r="G21" s="146">
+        <f t="shared" si="0"/>
+        <v>-99.399999999999977</v>
+      </c>
+      <c r="H21" s="146">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21">
+        <v>845</v>
+      </c>
+      <c r="M21">
+        <v>1036</v>
+      </c>
+      <c r="N21" s="146"/>
+      <c r="Q21" t="s">
+        <v>979</v>
+      </c>
+      <c r="S21">
         <v>20</v>
       </c>
-      <c r="I21" t="s">
+      <c r="T21" t="s">
         <v>179</v>
       </c>
-      <c r="J21">
+      <c r="U21">
         <v>538</v>
       </c>
-      <c r="K21">
+      <c r="V21">
         <v>1202</v>
       </c>
-      <c r="L21">
+      <c r="W21">
         <v>90</v>
       </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="13">
+      <c r="X21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="13">
       <c r="A22" s="6">
         <v>22</v>
       </c>
@@ -16598,26 +17902,54 @@
       <c r="E22" s="146">
         <v>90</v>
       </c>
-      <c r="H22">
+      <c r="F22" s="206"/>
+      <c r="G22" s="146">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="H22" s="146">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22">
+        <v>527</v>
+      </c>
+      <c r="M22">
+        <v>1186</v>
+      </c>
+      <c r="N22" s="146"/>
+      <c r="O22" s="202" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>988</v>
+      </c>
+      <c r="S22">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
+      <c r="T22" t="s">
         <v>179</v>
       </c>
-      <c r="J22">
+      <c r="U22">
         <v>745.6</v>
       </c>
-      <c r="K22">
+      <c r="V22">
         <v>1050</v>
       </c>
-      <c r="L22">
+      <c r="W22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="13">
+      <c r="X22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="13">
       <c r="A23" s="6">
         <v>23</v>
       </c>
@@ -16633,26 +17965,51 @@
       <c r="E23" s="146">
         <v>-45</v>
       </c>
-      <c r="H23">
+      <c r="F23" s="206"/>
+      <c r="G23" s="146">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="H23" s="146">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23">
+        <v>656</v>
+      </c>
+      <c r="M23">
+        <v>1099</v>
+      </c>
+      <c r="N23" s="146"/>
+      <c r="Q23" t="s">
+        <v>977</v>
+      </c>
+      <c r="S23">
         <v>22</v>
       </c>
-      <c r="I23" t="s">
+      <c r="T23" t="s">
         <v>179</v>
       </c>
-      <c r="J23">
+      <c r="U23">
         <v>840</v>
       </c>
-      <c r="K23">
+      <c r="V23">
         <v>1185</v>
       </c>
-      <c r="L23">
+      <c r="W23">
         <v>90</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="13">
+      <c r="X23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="13">
       <c r="A24" s="6">
         <v>24</v>
       </c>
@@ -16668,26 +18025,54 @@
       <c r="E24" s="146">
         <v>55</v>
       </c>
-      <c r="H24">
+      <c r="F24" s="206"/>
+      <c r="G24" s="146">
+        <f t="shared" si="0"/>
+        <v>-585.6</v>
+      </c>
+      <c r="H24" s="146">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24">
+        <v>829</v>
+      </c>
+      <c r="M24">
+        <v>1169</v>
+      </c>
+      <c r="N24" s="146"/>
+      <c r="O24" s="202" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>969</v>
+      </c>
+      <c r="S24">
         <v>23</v>
       </c>
-      <c r="I24" t="s">
+      <c r="T24" t="s">
         <v>179</v>
       </c>
-      <c r="J24">
+      <c r="U24">
         <v>780</v>
       </c>
-      <c r="K24">
+      <c r="V24">
         <v>1336</v>
       </c>
-      <c r="L24">
+      <c r="W24">
         <v>-45</v>
       </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="13">
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="13">
       <c r="A25" s="6">
         <v>25</v>
       </c>
@@ -16703,26 +18088,54 @@
       <c r="E25" s="146">
         <v>-90</v>
       </c>
-      <c r="H25">
+      <c r="F25" s="206"/>
+      <c r="G25" s="146">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+      <c r="H25" s="146">
+        <f t="shared" si="1"/>
+        <v>-138</v>
+      </c>
+      <c r="J25">
         <v>24</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="J25">
+      <c r="L25">
+        <v>243</v>
+      </c>
+      <c r="M25">
+        <v>1335</v>
+      </c>
+      <c r="N25" s="146"/>
+      <c r="O25" s="202" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>971</v>
+      </c>
+      <c r="S25">
+        <v>24</v>
+      </c>
+      <c r="T25" t="s">
+        <v>179</v>
+      </c>
+      <c r="U25">
         <v>243.4</v>
       </c>
-      <c r="K25">
+      <c r="V25">
         <v>1355</v>
       </c>
-      <c r="L25">
+      <c r="W25">
         <v>55</v>
       </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="13">
+      <c r="X25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="13">
       <c r="A26" s="6">
         <v>26</v>
       </c>
@@ -16738,26 +18151,54 @@
       <c r="E26" s="146">
         <v>-35</v>
       </c>
-      <c r="H26">
+      <c r="F26" s="206"/>
+      <c r="G26" s="146">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="H26" s="146">
+        <f t="shared" si="1"/>
+        <v>-161</v>
+      </c>
+      <c r="J26">
         <v>25</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="J26">
+      <c r="L26">
+        <v>233</v>
+      </c>
+      <c r="M26">
+        <v>1213</v>
+      </c>
+      <c r="N26" s="146"/>
+      <c r="O26" s="202" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>967</v>
+      </c>
+      <c r="S26">
+        <v>25</v>
+      </c>
+      <c r="T26" t="s">
+        <v>179</v>
+      </c>
+      <c r="U26">
         <v>221</v>
       </c>
-      <c r="K26">
+      <c r="V26">
         <v>1197</v>
       </c>
-      <c r="L26">
+      <c r="W26">
         <v>-90</v>
       </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="13">
+      <c r="X26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="13">
       <c r="A27" s="6">
         <v>27</v>
       </c>
@@ -16773,26 +18214,54 @@
       <c r="E27" s="146">
         <v>-90</v>
       </c>
-      <c r="H27">
+      <c r="F27" s="206"/>
+      <c r="G27" s="146">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="H27" s="146">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+      <c r="J27">
         <v>26</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" s="92" t="s">
         <v>179</v>
       </c>
-      <c r="J27">
+      <c r="L27">
+        <v>257</v>
+      </c>
+      <c r="M27">
+        <v>1051</v>
+      </c>
+      <c r="N27" s="146"/>
+      <c r="O27" s="202" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>968</v>
+      </c>
+      <c r="S27">
+        <v>26</v>
+      </c>
+      <c r="T27" t="s">
+        <v>179</v>
+      </c>
+      <c r="U27">
         <v>236.6</v>
       </c>
-      <c r="K27">
+      <c r="V27">
         <v>1052</v>
       </c>
-      <c r="L27">
+      <c r="W27">
         <v>-35</v>
       </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="13">
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="13">
       <c r="A28" s="6">
         <v>28</v>
       </c>
@@ -16805,29 +18274,57 @@
       <c r="D28">
         <v>751.5</v>
       </c>
-      <c r="E28" s="146">
+      <c r="E28" s="209">
         <v>0</v>
       </c>
-      <c r="H28">
+      <c r="F28" s="206"/>
+      <c r="G28" s="146">
+        <f t="shared" si="0"/>
+        <v>-393</v>
+      </c>
+      <c r="H28" s="146">
+        <f t="shared" si="1"/>
+        <v>-469.5</v>
+      </c>
+      <c r="J28">
         <v>27</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28">
+        <v>460</v>
+      </c>
+      <c r="M28">
+        <v>1221</v>
+      </c>
+      <c r="N28" s="146"/>
+      <c r="O28" s="202" t="s">
+        <v>828</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>970</v>
+      </c>
+      <c r="S28">
+        <v>27</v>
+      </c>
+      <c r="T28" t="s">
         <v>179</v>
       </c>
-      <c r="J28">
+      <c r="U28">
         <v>449</v>
       </c>
-      <c r="K28">
+      <c r="V28">
         <v>1204</v>
       </c>
-      <c r="L28">
+      <c r="W28">
         <v>-90</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="13">
+      <c r="X28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="13">
       <c r="A29" s="6">
         <v>29</v>
       </c>
@@ -16840,29 +18337,54 @@
       <c r="D29">
         <v>750</v>
       </c>
-      <c r="E29" s="146">
+      <c r="E29" s="209">
         <v>0</v>
       </c>
-      <c r="H29">
+      <c r="F29" s="206"/>
+      <c r="G29" s="146">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+      <c r="H29" s="146">
+        <f t="shared" si="1"/>
+        <v>-89</v>
+      </c>
+      <c r="J29">
         <v>28</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J29">
+      <c r="L29">
+        <v>65</v>
+      </c>
+      <c r="M29">
+        <v>839</v>
+      </c>
+      <c r="N29" s="146"/>
+      <c r="Q29" t="s">
+        <v>983</v>
+      </c>
+      <c r="S29">
+        <v>28</v>
+      </c>
+      <c r="T29" t="s">
+        <v>180</v>
+      </c>
+      <c r="U29">
         <v>175</v>
       </c>
-      <c r="K29">
+      <c r="V29">
         <v>750</v>
       </c>
-      <c r="L29">
+      <c r="W29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="13">
+      <c r="X29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="13">
       <c r="A30" s="6">
         <v>30</v>
       </c>
@@ -16875,29 +18397,54 @@
       <c r="D30">
         <v>772</v>
       </c>
-      <c r="E30" s="146">
+      <c r="E30" s="209">
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="F30" s="206"/>
+      <c r="G30" s="146">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="H30" s="146">
+        <f t="shared" si="1"/>
+        <v>-66</v>
+      </c>
+      <c r="J30">
         <v>29</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J30">
+      <c r="L30">
+        <v>269</v>
+      </c>
+      <c r="M30">
+        <v>838</v>
+      </c>
+      <c r="N30" s="146"/>
+      <c r="Q30" t="s">
+        <v>984</v>
+      </c>
+      <c r="S30">
+        <v>29</v>
+      </c>
+      <c r="T30" t="s">
+        <v>180</v>
+      </c>
+      <c r="U30">
         <v>375</v>
       </c>
-      <c r="K30">
+      <c r="V30">
         <v>750</v>
       </c>
-      <c r="L30">
+      <c r="W30">
         <v>0</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="13">
+      <c r="X30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="13">
       <c r="A31" s="6">
         <v>31</v>
       </c>
@@ -16913,26 +18460,51 @@
       <c r="E31" s="146">
         <v>-42</v>
       </c>
-      <c r="H31">
+      <c r="F31" s="206"/>
+      <c r="G31" s="146">
+        <f t="shared" si="0"/>
+        <v>409</v>
+      </c>
+      <c r="H31" s="146">
+        <f t="shared" si="1"/>
+        <v>-105.5</v>
+      </c>
+      <c r="J31">
         <v>30</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J31">
+      <c r="L31">
+        <v>559</v>
+      </c>
+      <c r="M31">
+        <v>857</v>
+      </c>
+      <c r="N31" s="146"/>
+      <c r="Q31" t="s">
+        <v>985</v>
+      </c>
+      <c r="S31">
+        <v>30</v>
+      </c>
+      <c r="T31" t="s">
+        <v>180</v>
+      </c>
+      <c r="U31">
         <v>575</v>
       </c>
-      <c r="K31">
+      <c r="V31">
         <v>750</v>
       </c>
-      <c r="L31">
+      <c r="W31">
         <v>0</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="13">
+      <c r="X31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="13">
       <c r="A32" s="6">
         <v>32</v>
       </c>
@@ -16948,26 +18520,54 @@
       <c r="E32" s="146">
         <v>90</v>
       </c>
-      <c r="H32">
+      <c r="F32" s="206"/>
+      <c r="G32" s="146">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H32" s="146">
+        <f t="shared" si="1"/>
+        <v>-195</v>
+      </c>
+      <c r="J32">
         <v>31</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J32">
+      <c r="L32">
+        <v>988</v>
+      </c>
+      <c r="M32">
+        <v>754</v>
+      </c>
+      <c r="N32" s="146"/>
+      <c r="O32" s="202" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>986</v>
+      </c>
+      <c r="S32">
+        <v>31</v>
+      </c>
+      <c r="T32" t="s">
+        <v>180</v>
+      </c>
+      <c r="U32">
         <v>950</v>
       </c>
-      <c r="K32">
+      <c r="V32">
         <v>755</v>
       </c>
-      <c r="L32">
+      <c r="W32">
         <v>-42</v>
       </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="13">
+      <c r="X32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="13">
       <c r="A33" s="6">
         <v>33</v>
       </c>
@@ -16983,26 +18583,51 @@
       <c r="E33" s="146">
         <v>90</v>
       </c>
-      <c r="H33">
+      <c r="F33" s="206"/>
+      <c r="G33" s="208">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H33" s="208">
+        <f t="shared" si="1"/>
+        <v>-227</v>
+      </c>
+      <c r="J33">
         <v>32</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J33">
+      <c r="L33">
+        <v>907</v>
+      </c>
+      <c r="M33">
+        <v>671</v>
+      </c>
+      <c r="N33" s="146"/>
+      <c r="Q33" t="s">
+        <v>955</v>
+      </c>
+      <c r="S33">
+        <v>32</v>
+      </c>
+      <c r="T33" t="s">
+        <v>180</v>
+      </c>
+      <c r="U33">
         <v>1035</v>
       </c>
-      <c r="K33">
+      <c r="V33">
         <v>560</v>
       </c>
-      <c r="L33">
+      <c r="W33">
         <v>90</v>
       </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="13">
+      <c r="X33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="13">
       <c r="A34" s="6">
         <v>34</v>
       </c>
@@ -17018,26 +18643,51 @@
       <c r="E34" s="146">
         <v>90</v>
       </c>
-      <c r="H34">
+      <c r="F34" s="206"/>
+      <c r="G34" s="208">
+        <f t="shared" ref="G34:G62" si="2">C34-L34</f>
+        <v>128</v>
+      </c>
+      <c r="H34" s="208">
+        <f t="shared" ref="H34:H62" si="3">D34-M34</f>
+        <v>-217</v>
+      </c>
+      <c r="J34">
         <v>33</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J34">
+      <c r="L34">
+        <v>908</v>
+      </c>
+      <c r="M34">
+        <v>571</v>
+      </c>
+      <c r="N34" s="146"/>
+      <c r="Q34" t="s">
+        <v>954</v>
+      </c>
+      <c r="S34">
+        <v>33</v>
+      </c>
+      <c r="T34" t="s">
+        <v>180</v>
+      </c>
+      <c r="U34">
         <v>1035</v>
       </c>
-      <c r="K34">
+      <c r="V34">
         <v>460</v>
       </c>
-      <c r="L34">
+      <c r="W34">
         <v>90</v>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="13">
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="13">
       <c r="A35" s="6">
         <v>35</v>
       </c>
@@ -17053,26 +18703,51 @@
       <c r="E35" s="146">
         <v>90</v>
       </c>
-      <c r="H35">
+      <c r="F35" s="206"/>
+      <c r="G35" s="208">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="H35" s="208">
+        <f t="shared" si="3"/>
+        <v>-235</v>
+      </c>
+      <c r="J35">
         <v>34</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J35">
+      <c r="L35">
+        <v>909</v>
+      </c>
+      <c r="M35">
+        <v>493</v>
+      </c>
+      <c r="N35" s="146"/>
+      <c r="Q35" t="s">
+        <v>953</v>
+      </c>
+      <c r="S35">
+        <v>34</v>
+      </c>
+      <c r="T35" t="s">
+        <v>180</v>
+      </c>
+      <c r="U35">
         <v>1035</v>
       </c>
-      <c r="K35">
+      <c r="V35">
         <v>360</v>
       </c>
-      <c r="L35">
+      <c r="W35">
         <v>90</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="13">
+      <c r="X35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="13">
       <c r="A36" s="6">
         <v>36</v>
       </c>
@@ -17088,26 +18763,51 @@
       <c r="E36" s="146">
         <v>90</v>
       </c>
-      <c r="H36">
+      <c r="F36" s="206"/>
+      <c r="G36" s="208">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="H36" s="208">
+        <f t="shared" si="3"/>
+        <v>-249</v>
+      </c>
+      <c r="J36">
         <v>35</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J36">
+      <c r="L36">
+        <v>909</v>
+      </c>
+      <c r="M36">
+        <v>409</v>
+      </c>
+      <c r="N36" s="146"/>
+      <c r="Q36" t="s">
+        <v>952</v>
+      </c>
+      <c r="S36">
+        <v>35</v>
+      </c>
+      <c r="T36" t="s">
+        <v>180</v>
+      </c>
+      <c r="U36">
         <v>1035</v>
       </c>
-      <c r="K36">
+      <c r="V36">
         <v>260</v>
       </c>
-      <c r="L36">
+      <c r="W36">
         <v>90</v>
       </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="13">
+      <c r="X36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="13">
       <c r="A37" s="6">
         <v>37</v>
       </c>
@@ -17123,26 +18823,51 @@
       <c r="E37" s="146">
         <v>35</v>
       </c>
-      <c r="H37">
+      <c r="F37" s="206"/>
+      <c r="G37" s="146">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="H37" s="146">
+        <f t="shared" si="3"/>
+        <v>-266.5</v>
+      </c>
+      <c r="J37">
         <v>36</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J37">
+      <c r="L37">
+        <v>908</v>
+      </c>
+      <c r="M37">
+        <v>324</v>
+      </c>
+      <c r="N37" s="146"/>
+      <c r="Q37" t="s">
+        <v>951</v>
+      </c>
+      <c r="S37">
+        <v>36</v>
+      </c>
+      <c r="T37" t="s">
+        <v>180</v>
+      </c>
+      <c r="U37">
         <v>1035</v>
       </c>
-      <c r="K37">
+      <c r="V37">
         <v>160</v>
       </c>
-      <c r="L37">
+      <c r="W37">
         <v>90</v>
       </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="13">
+      <c r="X37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="13">
       <c r="A38" s="92">
         <v>38</v>
       </c>
@@ -17155,29 +18880,57 @@
       <c r="D38">
         <v>37</v>
       </c>
-      <c r="E38" s="146">
+      <c r="E38" s="209">
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="F38" s="206"/>
+      <c r="G38" s="146">
+        <f t="shared" si="2"/>
+        <v>-302</v>
+      </c>
+      <c r="H38" s="146">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="J38">
         <v>37</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J38">
+      <c r="L38">
+        <v>956</v>
+      </c>
+      <c r="M38">
+        <v>39</v>
+      </c>
+      <c r="N38" s="146"/>
+      <c r="O38" s="202" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>987</v>
+      </c>
+      <c r="S38">
+        <v>37</v>
+      </c>
+      <c r="T38" t="s">
+        <v>180</v>
+      </c>
+      <c r="U38">
         <v>950</v>
       </c>
-      <c r="K38">
+      <c r="V38">
         <v>57.5</v>
       </c>
-      <c r="L38">
+      <c r="W38">
         <v>35</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="13">
+      <c r="X38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="13">
       <c r="A39" s="6">
         <v>39</v>
       </c>
@@ -17190,29 +18943,53 @@
       <c r="D39">
         <v>34</v>
       </c>
-      <c r="E39" s="146">
+      <c r="E39" s="209">
         <v>0</v>
       </c>
-      <c r="H39">
+      <c r="F39" s="206"/>
+      <c r="G39" s="146">
+        <f t="shared" si="2"/>
+        <v>-52</v>
+      </c>
+      <c r="H39" s="146">
+        <f t="shared" si="3"/>
+        <v>-182</v>
+      </c>
+      <c r="J39">
         <v>38</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J39">
+      <c r="L39">
+        <v>576</v>
+      </c>
+      <c r="M39">
+        <v>216</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>944</v>
+      </c>
+      <c r="S39">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s">
+        <v>180</v>
+      </c>
+      <c r="U39">
         <v>675</v>
       </c>
-      <c r="K39">
+      <c r="V39">
         <v>35</v>
       </c>
-      <c r="L39">
+      <c r="W39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="13">
+      <c r="X39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="13">
       <c r="A40" s="6">
         <v>40</v>
       </c>
@@ -17225,29 +19002,53 @@
       <c r="D40">
         <v>38</v>
       </c>
-      <c r="E40" s="146">
+      <c r="E40" s="209">
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="F40" s="206"/>
+      <c r="G40" s="146">
+        <f t="shared" si="2"/>
+        <v>-144</v>
+      </c>
+      <c r="H40" s="146">
+        <f t="shared" si="3"/>
+        <v>-176</v>
+      </c>
+      <c r="J40">
         <v>39</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J40">
+      <c r="L40">
+        <v>463</v>
+      </c>
+      <c r="M40">
+        <v>214</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>943</v>
+      </c>
+      <c r="S40">
+        <v>39</v>
+      </c>
+      <c r="T40" t="s">
+        <v>180</v>
+      </c>
+      <c r="U40">
         <v>500</v>
       </c>
-      <c r="K40">
+      <c r="V40">
         <v>35</v>
       </c>
-      <c r="L40">
+      <c r="W40">
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="13">
+      <c r="X40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="13">
       <c r="A41" s="6">
         <v>41</v>
       </c>
@@ -17263,26 +19064,52 @@
       <c r="E41" s="146">
         <v>-52</v>
       </c>
-      <c r="H41">
+      <c r="F41" s="206"/>
+      <c r="G41" s="146">
+        <f t="shared" si="2"/>
+        <v>-251.4</v>
+      </c>
+      <c r="H41" s="146">
+        <f t="shared" si="3"/>
+        <v>-142.4</v>
+      </c>
+      <c r="J41" s="128">
         <v>40</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" s="92" t="s">
         <v>180</v>
       </c>
-      <c r="J41">
+      <c r="L41" s="128">
+        <v>284</v>
+      </c>
+      <c r="M41" s="128">
+        <v>217</v>
+      </c>
+      <c r="O41" s="203"/>
+      <c r="P41" s="128"/>
+      <c r="Q41" s="128" t="s">
+        <v>942</v>
+      </c>
+      <c r="S41">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s">
+        <v>180</v>
+      </c>
+      <c r="U41">
         <v>325</v>
       </c>
-      <c r="K41">
+      <c r="V41">
         <v>35</v>
       </c>
-      <c r="L41">
+      <c r="W41">
         <v>0</v>
       </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="13">
+      <c r="X41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="13">
       <c r="A42" s="6">
         <v>42</v>
       </c>
@@ -17298,26 +19125,52 @@
       <c r="E42" s="146">
         <v>-90</v>
       </c>
-      <c r="H42">
+      <c r="F42" s="206"/>
+      <c r="G42" s="208">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H42" s="208">
+        <f t="shared" si="3"/>
+        <v>-162</v>
+      </c>
+      <c r="J42" s="128">
+        <v>42</v>
+      </c>
+      <c r="K42" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L42" s="128">
         <v>41</v>
       </c>
-      <c r="I42" t="s">
+      <c r="M42" s="128">
+        <v>332</v>
+      </c>
+      <c r="O42" s="203"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128" t="s">
+        <v>931</v>
+      </c>
+      <c r="S42">
+        <v>41</v>
+      </c>
+      <c r="T42" t="s">
         <v>180</v>
       </c>
-      <c r="J42">
+      <c r="U42">
         <v>32.6</v>
       </c>
-      <c r="K42">
+      <c r="V42">
         <v>74.599999999999994</v>
       </c>
-      <c r="L42">
+      <c r="W42">
         <v>-52</v>
       </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="13">
+      <c r="X42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="13">
       <c r="A43" s="6">
         <v>43</v>
       </c>
@@ -17333,26 +19186,50 @@
       <c r="E43" s="146">
         <v>-90</v>
       </c>
-      <c r="H43">
+      <c r="F43" s="206"/>
+      <c r="G43" s="208">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H43" s="208">
+        <f t="shared" si="3"/>
+        <v>-148</v>
+      </c>
+      <c r="J43">
+        <v>43</v>
+      </c>
+      <c r="K43" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L43">
+        <v>40</v>
+      </c>
+      <c r="M43">
+        <v>425</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>932</v>
+      </c>
+      <c r="S43">
         <v>42</v>
       </c>
-      <c r="I43" t="s">
+      <c r="T43" t="s">
         <v>180</v>
       </c>
-      <c r="J43">
+      <c r="U43">
         <v>40</v>
       </c>
-      <c r="K43">
+      <c r="V43">
         <v>235</v>
       </c>
-      <c r="L43">
+      <c r="W43">
         <v>-90</v>
       </c>
-      <c r="M43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="13">
+      <c r="X43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="13">
       <c r="A44" s="6">
         <v>44</v>
       </c>
@@ -17368,26 +19245,50 @@
       <c r="E44" s="146">
         <v>-90</v>
       </c>
-      <c r="H44">
+      <c r="F44" s="206"/>
+      <c r="G44" s="208">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H44" s="208">
+        <f t="shared" si="3"/>
+        <v>-136</v>
+      </c>
+      <c r="J44">
+        <v>44</v>
+      </c>
+      <c r="K44" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L44">
         <v>43</v>
       </c>
-      <c r="I44" t="s">
+      <c r="M44">
+        <v>513</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>933</v>
+      </c>
+      <c r="S44">
+        <v>43</v>
+      </c>
+      <c r="T44" t="s">
         <v>180</v>
       </c>
-      <c r="J44">
+      <c r="U44">
         <v>40</v>
       </c>
-      <c r="K44">
+      <c r="V44">
         <v>335</v>
       </c>
-      <c r="L44">
+      <c r="W44">
         <v>-90</v>
       </c>
-      <c r="M44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="13">
+      <c r="X44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="13">
       <c r="A45" s="6">
         <v>45</v>
       </c>
@@ -17403,26 +19304,50 @@
       <c r="E45" s="146">
         <v>-90</v>
       </c>
-      <c r="H45">
+      <c r="F45" s="206"/>
+      <c r="G45" s="208">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H45" s="208">
+        <f t="shared" si="3"/>
+        <v>-125</v>
+      </c>
+      <c r="J45">
+        <v>45</v>
+      </c>
+      <c r="K45" s="92" t="s">
+        <v>178</v>
+      </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>585</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>934</v>
+      </c>
+      <c r="S45">
         <v>44</v>
       </c>
-      <c r="I45" t="s">
+      <c r="T45" t="s">
         <v>180</v>
       </c>
-      <c r="J45">
+      <c r="U45">
         <v>40</v>
       </c>
-      <c r="K45">
+      <c r="V45">
         <v>435</v>
       </c>
-      <c r="L45">
+      <c r="W45">
         <v>-90</v>
       </c>
-      <c r="M45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="13">
+      <c r="X45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="13">
       <c r="A46" s="6">
         <v>46</v>
       </c>
@@ -17438,26 +19363,50 @@
       <c r="E46" s="146">
         <v>-90</v>
       </c>
-      <c r="H46">
+      <c r="F46" s="206"/>
+      <c r="G46" s="208">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="H46" s="208">
+        <f t="shared" si="3"/>
+        <v>-109</v>
+      </c>
+      <c r="J46">
+        <v>46</v>
+      </c>
+      <c r="K46" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L46">
+        <v>39</v>
+      </c>
+      <c r="M46">
+        <v>691</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>935</v>
+      </c>
+      <c r="S46">
         <v>45</v>
       </c>
-      <c r="I46" t="s">
+      <c r="T46" t="s">
         <v>180</v>
       </c>
-      <c r="J46">
+      <c r="U46">
         <v>40</v>
       </c>
-      <c r="K46">
+      <c r="V46">
         <v>535</v>
       </c>
-      <c r="L46">
+      <c r="W46">
         <v>-90</v>
       </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="13">
+      <c r="X46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="13">
       <c r="A47" s="6">
         <v>47</v>
       </c>
@@ -17473,26 +19422,50 @@
       <c r="E47" s="146">
         <v>90</v>
       </c>
-      <c r="H47">
+      <c r="F47" s="206"/>
+      <c r="G47" s="146">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H47" s="146">
+        <f t="shared" si="3"/>
+        <v>-131</v>
+      </c>
+      <c r="J47">
+        <v>47</v>
+      </c>
+      <c r="K47" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47">
+        <v>235</v>
+      </c>
+      <c r="M47">
+        <v>541</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>940</v>
+      </c>
+      <c r="S47">
         <v>46</v>
       </c>
-      <c r="I47" t="s">
+      <c r="T47" t="s">
         <v>180</v>
       </c>
-      <c r="J47">
+      <c r="U47">
         <v>40</v>
       </c>
-      <c r="K47">
+      <c r="V47">
         <v>635</v>
       </c>
-      <c r="L47">
+      <c r="W47">
         <v>-90</v>
       </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="13">
+      <c r="X47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="13">
       <c r="A48" s="6">
         <v>48</v>
       </c>
@@ -17508,26 +19481,50 @@
       <c r="E48" s="146">
         <v>90</v>
       </c>
-      <c r="H48">
+      <c r="F48" s="206"/>
+      <c r="G48" s="146">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H48" s="146">
+        <f t="shared" si="3"/>
+        <v>-144</v>
+      </c>
+      <c r="J48">
+        <v>48</v>
+      </c>
+      <c r="K48" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L48">
+        <v>237</v>
+      </c>
+      <c r="M48">
+        <v>456</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>938</v>
+      </c>
+      <c r="S48">
         <v>47</v>
       </c>
-      <c r="I48" t="s">
+      <c r="T48" t="s">
         <v>180</v>
       </c>
-      <c r="J48">
+      <c r="U48">
         <v>285</v>
       </c>
-      <c r="K48">
+      <c r="V48">
         <v>435</v>
       </c>
-      <c r="L48">
+      <c r="W48">
         <v>90</v>
       </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="13">
+      <c r="X48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="13">
       <c r="A49" s="6">
         <v>49</v>
       </c>
@@ -17543,26 +19540,50 @@
       <c r="E49" s="146">
         <v>90</v>
       </c>
-      <c r="H49">
+      <c r="F49" s="206"/>
+      <c r="G49" s="146">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H49" s="146">
+        <f t="shared" si="3"/>
+        <v>-155</v>
+      </c>
+      <c r="J49">
+        <v>49</v>
+      </c>
+      <c r="K49" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L49">
+        <v>238</v>
+      </c>
+      <c r="M49">
+        <v>382</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>936</v>
+      </c>
+      <c r="S49">
         <v>48</v>
       </c>
-      <c r="I49" t="s">
+      <c r="T49" t="s">
         <v>180</v>
       </c>
-      <c r="J49">
+      <c r="U49">
         <v>285</v>
       </c>
-      <c r="K49">
+      <c r="V49">
         <v>340</v>
       </c>
-      <c r="L49">
+      <c r="W49">
         <v>90</v>
       </c>
-      <c r="M49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="13">
+      <c r="X49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" ht="13">
       <c r="A50" s="6">
         <v>50</v>
       </c>
@@ -17578,26 +19599,50 @@
       <c r="E50" s="146">
         <v>-90</v>
       </c>
-      <c r="H50">
+      <c r="F50" s="206"/>
+      <c r="G50" s="208">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H50" s="208">
+        <f t="shared" si="3"/>
+        <v>-155</v>
+      </c>
+      <c r="J50">
+        <v>50</v>
+      </c>
+      <c r="K50" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L50">
+        <v>281</v>
+      </c>
+      <c r="M50">
+        <v>378</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>937</v>
+      </c>
+      <c r="S50">
         <v>49</v>
       </c>
-      <c r="I50" t="s">
+      <c r="T50" t="s">
         <v>180</v>
       </c>
-      <c r="J50">
+      <c r="U50">
         <v>285</v>
       </c>
-      <c r="K50">
+      <c r="V50">
         <v>245</v>
       </c>
-      <c r="L50">
+      <c r="W50">
         <v>90</v>
       </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="13">
+      <c r="X50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" ht="13">
       <c r="A51" s="6">
         <v>51</v>
       </c>
@@ -17613,26 +19658,50 @@
       <c r="E51" s="146">
         <v>-90</v>
       </c>
-      <c r="H51">
+      <c r="F51" s="206"/>
+      <c r="G51" s="208">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H51" s="208">
+        <f t="shared" si="3"/>
+        <v>-144</v>
+      </c>
+      <c r="J51">
+        <v>51</v>
+      </c>
+      <c r="K51" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51">
+        <v>284</v>
+      </c>
+      <c r="M51">
+        <v>458</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>939</v>
+      </c>
+      <c r="S51">
         <v>50</v>
       </c>
-      <c r="I51" t="s">
+      <c r="T51" t="s">
         <v>180</v>
       </c>
-      <c r="J51">
+      <c r="U51">
         <v>315</v>
       </c>
-      <c r="K51">
+      <c r="V51">
         <v>320</v>
       </c>
-      <c r="L51">
+      <c r="W51">
         <v>-90</v>
       </c>
-      <c r="M51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="13">
+      <c r="X51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" ht="13">
       <c r="A52" s="6">
         <v>52</v>
       </c>
@@ -17648,26 +19717,50 @@
       <c r="E52" s="146">
         <v>-90</v>
       </c>
-      <c r="H52">
+      <c r="F52" s="206"/>
+      <c r="G52" s="208">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="H52" s="208">
+        <f t="shared" si="3"/>
+        <v>-131</v>
+      </c>
+      <c r="J52">
+        <v>52</v>
+      </c>
+      <c r="K52" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L52">
+        <v>283</v>
+      </c>
+      <c r="M52">
+        <v>542</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>941</v>
+      </c>
+      <c r="S52">
         <v>51</v>
       </c>
-      <c r="I52" t="s">
+      <c r="T52" t="s">
         <v>180</v>
       </c>
-      <c r="J52">
+      <c r="U52">
         <v>315</v>
       </c>
-      <c r="K52">
+      <c r="V52">
         <v>415</v>
       </c>
-      <c r="L52">
+      <c r="W52">
         <v>-90</v>
       </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="13">
+      <c r="X52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" ht="13">
       <c r="A53" s="6">
         <v>53</v>
       </c>
@@ -17683,26 +19776,50 @@
       <c r="E53" s="146">
         <v>90</v>
       </c>
-      <c r="H53">
+      <c r="F53" s="206"/>
+      <c r="G53" s="146">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="H53" s="146">
+        <f t="shared" si="3"/>
+        <v>-136</v>
+      </c>
+      <c r="J53">
+        <v>53</v>
+      </c>
+      <c r="K53" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L53">
+        <v>432</v>
+      </c>
+      <c r="M53">
+        <v>511</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>958</v>
+      </c>
+      <c r="S53">
         <v>52</v>
       </c>
-      <c r="I53" t="s">
+      <c r="T53" t="s">
         <v>180</v>
       </c>
-      <c r="J53">
+      <c r="U53">
         <v>315</v>
       </c>
-      <c r="K53">
+      <c r="V53">
         <v>510</v>
       </c>
-      <c r="L53">
+      <c r="W53">
         <v>-90</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="13">
+      <c r="X53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" ht="13">
       <c r="A54" s="6">
         <v>54</v>
       </c>
@@ -17718,26 +19835,50 @@
       <c r="E54" s="146">
         <v>90</v>
       </c>
-      <c r="H54">
+      <c r="F54" s="206"/>
+      <c r="G54" s="146">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="H54" s="146">
+        <f t="shared" si="3"/>
+        <v>-151</v>
+      </c>
+      <c r="J54">
+        <v>54</v>
+      </c>
+      <c r="K54" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L54">
+        <v>433</v>
+      </c>
+      <c r="M54">
+        <v>411</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>956</v>
+      </c>
+      <c r="S54">
         <v>53</v>
       </c>
-      <c r="I54" t="s">
+      <c r="T54" t="s">
         <v>180</v>
       </c>
-      <c r="J54">
+      <c r="U54">
         <v>545</v>
       </c>
-      <c r="K54">
+      <c r="V54">
         <v>375</v>
       </c>
-      <c r="L54">
+      <c r="W54">
         <v>90</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="13">
+      <c r="X54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" ht="13">
       <c r="A55" s="6">
         <v>55</v>
       </c>
@@ -17753,26 +19894,50 @@
       <c r="E55" s="146">
         <v>-90</v>
       </c>
-      <c r="H55">
+      <c r="F55" s="206"/>
+      <c r="G55" s="146">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="H55" s="146">
+        <f t="shared" si="3"/>
+        <v>-151</v>
+      </c>
+      <c r="J55">
+        <v>55</v>
+      </c>
+      <c r="K55" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L55">
+        <v>482</v>
+      </c>
+      <c r="M55">
+        <v>411</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>957</v>
+      </c>
+      <c r="S55">
         <v>54</v>
       </c>
-      <c r="I55" t="s">
+      <c r="T55" t="s">
         <v>180</v>
       </c>
-      <c r="J55">
+      <c r="U55">
         <v>545</v>
       </c>
-      <c r="K55">
+      <c r="V55">
         <v>270</v>
       </c>
-      <c r="L55">
+      <c r="W55">
         <v>90</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="13">
+      <c r="X55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" ht="13">
       <c r="A56" s="6">
         <v>56</v>
       </c>
@@ -17788,26 +19953,50 @@
       <c r="E56" s="146">
         <v>-90</v>
       </c>
-      <c r="H56">
+      <c r="F56" s="206"/>
+      <c r="G56" s="146">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H56" s="146">
+        <f t="shared" si="3"/>
+        <v>-136</v>
+      </c>
+      <c r="J56">
+        <v>56</v>
+      </c>
+      <c r="K56" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L56">
+        <v>481</v>
+      </c>
+      <c r="M56">
+        <v>513</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>959</v>
+      </c>
+      <c r="S56">
         <v>55</v>
       </c>
-      <c r="I56" t="s">
+      <c r="T56" t="s">
         <v>180</v>
       </c>
-      <c r="J56">
+      <c r="U56">
         <v>575</v>
       </c>
-      <c r="K56">
+      <c r="V56">
         <v>345</v>
       </c>
-      <c r="L56">
+      <c r="W56">
         <v>-90</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="13">
+      <c r="X56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" ht="13">
       <c r="A57" s="6">
         <v>57</v>
       </c>
@@ -17823,26 +20012,50 @@
       <c r="E57" s="146">
         <v>90</v>
       </c>
-      <c r="H57">
+      <c r="F57" s="206"/>
+      <c r="G57" s="208">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="H57" s="208">
+        <f t="shared" si="3"/>
+        <v>-132</v>
+      </c>
+      <c r="J57">
+        <v>57</v>
+      </c>
+      <c r="K57" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L57">
+        <v>680</v>
+      </c>
+      <c r="M57">
+        <v>540</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>949</v>
+      </c>
+      <c r="S57">
         <v>56</v>
       </c>
-      <c r="I57" t="s">
+      <c r="T57" t="s">
         <v>180</v>
       </c>
-      <c r="J57">
+      <c r="U57">
         <v>575</v>
       </c>
-      <c r="K57">
+      <c r="V57">
         <v>450</v>
       </c>
-      <c r="L57">
+      <c r="W57">
         <v>-90</v>
       </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="13">
+      <c r="X57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" ht="13">
       <c r="A58" s="6">
         <v>58</v>
       </c>
@@ -17858,26 +20071,50 @@
       <c r="E58" s="146">
         <v>90</v>
       </c>
-      <c r="H58">
+      <c r="F58" s="206"/>
+      <c r="G58" s="208">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="H58" s="208">
+        <f t="shared" si="3"/>
+        <v>-144</v>
+      </c>
+      <c r="J58">
+        <v>58</v>
+      </c>
+      <c r="K58" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L58">
+        <v>678</v>
+      </c>
+      <c r="M58">
+        <v>457</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>947</v>
+      </c>
+      <c r="S58">
         <v>57</v>
       </c>
-      <c r="I58" t="s">
+      <c r="T58" t="s">
         <v>180</v>
       </c>
-      <c r="J58">
+      <c r="U58">
         <v>795</v>
       </c>
-      <c r="K58">
+      <c r="V58">
         <v>435</v>
       </c>
-      <c r="L58">
+      <c r="W58">
         <v>90</v>
       </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="13">
+      <c r="X58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" ht="13">
       <c r="A59" s="6">
         <v>59</v>
       </c>
@@ -17893,26 +20130,50 @@
       <c r="E59" s="146">
         <v>90</v>
       </c>
-      <c r="H59">
+      <c r="F59" s="206"/>
+      <c r="G59" s="208">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="H59" s="208">
+        <f t="shared" si="3"/>
+        <v>-158</v>
+      </c>
+      <c r="J59">
+        <v>59</v>
+      </c>
+      <c r="K59" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L59">
+        <v>678</v>
+      </c>
+      <c r="M59">
+        <v>359</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>945</v>
+      </c>
+      <c r="S59">
         <v>58</v>
       </c>
-      <c r="I59" t="s">
+      <c r="T59" t="s">
         <v>180</v>
       </c>
-      <c r="J59">
+      <c r="U59">
         <v>795</v>
       </c>
-      <c r="K59">
+      <c r="V59">
         <v>340</v>
       </c>
-      <c r="L59">
+      <c r="W59">
         <v>90</v>
       </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="13">
+      <c r="X59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" ht="13">
       <c r="A60" s="6">
         <v>60</v>
       </c>
@@ -17928,26 +20189,50 @@
       <c r="E60" s="146">
         <v>-90</v>
       </c>
-      <c r="H60">
+      <c r="F60" s="206"/>
+      <c r="G60" s="146">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H60" s="146">
+        <f t="shared" si="3"/>
+        <v>-159</v>
+      </c>
+      <c r="J60">
+        <v>60</v>
+      </c>
+      <c r="K60" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L60">
+        <v>727</v>
+      </c>
+      <c r="M60">
+        <v>360</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>946</v>
+      </c>
+      <c r="S60">
         <v>59</v>
       </c>
-      <c r="I60" t="s">
+      <c r="T60" t="s">
         <v>180</v>
       </c>
-      <c r="J60">
+      <c r="U60">
         <v>795</v>
       </c>
-      <c r="K60">
+      <c r="V60">
         <v>245</v>
       </c>
-      <c r="L60">
+      <c r="W60">
         <v>90</v>
       </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="13">
+      <c r="X60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" ht="13">
       <c r="A61" s="6">
         <v>61</v>
       </c>
@@ -17963,26 +20248,50 @@
       <c r="E61" s="146">
         <v>-90</v>
       </c>
-      <c r="H61">
+      <c r="F61" s="206"/>
+      <c r="G61" s="146">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="H61" s="146">
+        <f t="shared" si="3"/>
+        <v>-143</v>
+      </c>
+      <c r="J61">
+        <v>61</v>
+      </c>
+      <c r="K61" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L61">
+        <v>727</v>
+      </c>
+      <c r="M61">
+        <v>456</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>948</v>
+      </c>
+      <c r="S61">
         <v>60</v>
       </c>
-      <c r="I61" t="s">
+      <c r="T61" t="s">
         <v>180</v>
       </c>
-      <c r="J61">
+      <c r="U61">
         <v>825</v>
       </c>
-      <c r="K61">
+      <c r="V61">
         <v>320</v>
       </c>
-      <c r="L61">
+      <c r="W61">
         <v>-90</v>
       </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="13">
+      <c r="X61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" ht="13">
       <c r="A62" s="6">
         <v>62</v>
       </c>
@@ -17998,53 +20307,78 @@
       <c r="E62" s="146">
         <v>-90</v>
       </c>
-      <c r="H62">
+      <c r="F62" s="206"/>
+      <c r="G62" s="146">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H62" s="146">
+        <f t="shared" si="3"/>
+        <v>-132</v>
+      </c>
+      <c r="J62">
+        <v>62</v>
+      </c>
+      <c r="K62" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="L62">
+        <v>725</v>
+      </c>
+      <c r="M62">
+        <v>537</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>950</v>
+      </c>
+      <c r="S62">
         <v>61</v>
       </c>
-      <c r="I62" t="s">
+      <c r="T62" t="s">
         <v>180</v>
       </c>
-      <c r="J62">
+      <c r="U62">
         <v>825</v>
       </c>
-      <c r="K62">
+      <c r="V62">
         <v>415</v>
       </c>
-      <c r="L62">
+      <c r="W62">
         <v>-90</v>
       </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="H63">
+      <c r="X62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="11:20">
+      <c r="K66" t="s">
+        <v>180</v>
+      </c>
+      <c r="L66">
+        <v>825</v>
+      </c>
+      <c r="N66" s="202">
+        <v>510</v>
+      </c>
+      <c r="O66"/>
+      <c r="P66">
         <v>62</v>
       </c>
-      <c r="I63" t="s">
-        <v>180</v>
-      </c>
-      <c r="J63">
-        <v>825</v>
-      </c>
-      <c r="K63">
-        <v>510</v>
-      </c>
-      <c r="L63">
+      <c r="Q66">
         <v>-90</v>
       </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="14:14">
-      <c r="N75" t="s">
+      <c r="R66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="11:20">
+      <c r="T75" t="s">
         <v>710</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="H1:S80">
-    <sortCondition ref="H1:H80"/>
+  <sortState ref="S1:AD80">
+    <sortCondition ref="S1:S80"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -23976,10 +26310,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X163"/>
+  <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89:J95"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58:G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -24395,7 +26729,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="17" spans="5:14">
+    <row r="17" spans="1:14">
       <c r="E17">
         <v>580</v>
       </c>
@@ -24412,7 +26746,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="18" spans="5:14">
+    <row r="18" spans="1:14">
       <c r="E18">
         <v>705</v>
       </c>
@@ -24429,7 +26763,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="19" spans="5:14">
+    <row r="19" spans="1:14">
       <c r="E19">
         <v>222</v>
       </c>
@@ -24446,7 +26780,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="20" spans="5:14">
+    <row r="20" spans="1:14">
       <c r="E20">
         <v>178</v>
       </c>
@@ -24463,7 +26797,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="21" spans="5:14">
+    <row r="21" spans="1:14">
       <c r="E21">
         <v>357</v>
       </c>
@@ -24480,7 +26814,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="22" spans="5:14">
+    <row r="22" spans="1:14">
       <c r="E22">
         <v>441</v>
       </c>
@@ -24497,7 +26831,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="23" spans="5:14">
+    <row r="23" spans="1:14">
       <c r="E23">
         <v>732</v>
       </c>
@@ -24514,7 +26848,16 @@
         <v>853</v>
       </c>
     </row>
-    <row r="24" spans="5:14">
+    <row r="24" spans="1:14">
+      <c r="A24">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>983</v>
+      </c>
+      <c r="C24" t="s">
+        <v>803</v>
+      </c>
       <c r="E24">
         <v>502</v>
       </c>
@@ -24531,7 +26874,16 @@
         <v>854</v>
       </c>
     </row>
-    <row r="25" spans="5:14">
+    <row r="25" spans="1:14">
+      <c r="A25">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>984</v>
+      </c>
+      <c r="C25" t="s">
+        <v>804</v>
+      </c>
       <c r="E25">
         <v>370</v>
       </c>
@@ -24548,7 +26900,16 @@
         <v>855</v>
       </c>
     </row>
-    <row r="26" spans="5:14">
+    <row r="26" spans="1:14">
+      <c r="A26">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>985</v>
+      </c>
+      <c r="C26" t="s">
+        <v>805</v>
+      </c>
       <c r="E26">
         <v>321</v>
       </c>
@@ -24565,7 +26926,16 @@
         <v>856</v>
       </c>
     </row>
-    <row r="27" spans="5:14">
+    <row r="27" spans="1:14">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>986</v>
+      </c>
+      <c r="C27" t="s">
+        <v>806</v>
+      </c>
       <c r="E27">
         <v>551</v>
       </c>
@@ -24582,7 +26952,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="28" spans="5:14">
+    <row r="28" spans="1:14">
       <c r="E28">
         <v>530</v>
       </c>
@@ -24599,7 +26969,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="29" spans="5:14">
+    <row r="29" spans="1:14">
       <c r="E29">
         <v>644</v>
       </c>
@@ -24616,7 +26986,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="30" spans="5:14">
+    <row r="30" spans="1:14">
       <c r="E30">
         <v>397</v>
       </c>
@@ -24633,7 +27003,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="31" spans="5:14" ht="15">
+    <row r="31" spans="1:14" ht="15">
       <c r="E31" t="s">
         <v>881</v>
       </c>
@@ -24653,7 +27023,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="32" spans="5:14" ht="15">
+    <row r="32" spans="1:14" ht="15">
       <c r="E32" t="s">
         <v>883</v>
       </c>
@@ -24754,6 +27124,12 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="15">
+      <c r="A37" t="s">
+        <v>799</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
       <c r="E37" t="s">
         <v>893</v>
       </c>
@@ -24841,447 +27217,71 @@
         <v>922</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" t="s">
-        <v>746</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>923</v>
-      </c>
-      <c r="D44" t="s">
-        <v>748</v>
-      </c>
-      <c r="E44">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>749</v>
-      </c>
-      <c r="G44">
-        <v>56</v>
-      </c>
-      <c r="H44" t="s">
-        <v>175</v>
-      </c>
-      <c r="I44">
-        <v>-771</v>
-      </c>
-      <c r="J44" t="s">
-        <v>174</v>
-      </c>
-      <c r="K44">
-        <v>63</v>
-      </c>
-      <c r="L44" t="s">
-        <v>750</v>
-      </c>
-      <c r="M44" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" t="s">
-        <v>746</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>924</v>
-      </c>
-      <c r="D45" t="s">
-        <v>748</v>
-      </c>
-      <c r="E45">
-        <v>21</v>
-      </c>
-      <c r="F45" t="s">
-        <v>749</v>
-      </c>
-      <c r="G45">
-        <v>56</v>
-      </c>
-      <c r="H45" t="s">
-        <v>175</v>
-      </c>
-      <c r="I45">
-        <v>-766</v>
-      </c>
-      <c r="J45" t="s">
-        <v>174</v>
-      </c>
-      <c r="K45">
-        <v>293</v>
-      </c>
-      <c r="L45" t="s">
-        <v>750</v>
-      </c>
-      <c r="M45" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>746</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>925</v>
-      </c>
-      <c r="D46" t="s">
-        <v>748</v>
-      </c>
-      <c r="E46">
-        <v>21</v>
-      </c>
-      <c r="F46" t="s">
-        <v>749</v>
-      </c>
-      <c r="G46">
-        <v>56</v>
-      </c>
-      <c r="H46" t="s">
-        <v>175</v>
-      </c>
-      <c r="I46">
-        <v>-534</v>
-      </c>
-      <c r="J46" t="s">
-        <v>174</v>
-      </c>
-      <c r="K46">
-        <v>59</v>
-      </c>
-      <c r="L46" t="s">
-        <v>750</v>
-      </c>
-      <c r="M46" t="s">
-        <v>751</v>
-      </c>
-    </row>
     <row r="47" spans="1:14">
-      <c r="A47" t="s">
-        <v>746</v>
+      <c r="A47">
+        <v>87</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>926</v>
-      </c>
-      <c r="D47" t="s">
-        <v>748</v>
-      </c>
-      <c r="E47">
-        <v>21</v>
-      </c>
-      <c r="F47" t="s">
-        <v>749</v>
-      </c>
-      <c r="G47">
-        <v>56</v>
-      </c>
-      <c r="H47" t="s">
-        <v>175</v>
-      </c>
-      <c r="I47">
-        <v>96</v>
-      </c>
-      <c r="J47" t="s">
-        <v>174</v>
-      </c>
-      <c r="K47">
-        <v>539</v>
-      </c>
-      <c r="L47" t="s">
-        <v>750</v>
-      </c>
-      <c r="M47" t="s">
-        <v>751</v>
+        <v>973</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" t="s">
-        <v>746</v>
+      <c r="A48">
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>927</v>
-      </c>
-      <c r="D48" t="s">
-        <v>748</v>
-      </c>
-      <c r="E48">
-        <v>21</v>
-      </c>
-      <c r="F48" t="s">
-        <v>749</v>
-      </c>
-      <c r="G48">
-        <v>56</v>
-      </c>
-      <c r="H48" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48">
-        <v>77</v>
-      </c>
-      <c r="J48" t="s">
-        <v>174</v>
-      </c>
-      <c r="K48">
-        <v>669</v>
-      </c>
-      <c r="L48" t="s">
-        <v>750</v>
-      </c>
-      <c r="M48" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>746</v>
+        <v>974</v>
       </c>
       <c r="B49" t="s">
-        <v>757</v>
-      </c>
-      <c r="C49" t="s">
-        <v>758</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>928</v>
-      </c>
-      <c r="F49" t="s">
-        <v>748</v>
-      </c>
-      <c r="G49">
-        <v>21</v>
-      </c>
-      <c r="H49" t="s">
-        <v>749</v>
-      </c>
-      <c r="I49">
-        <v>56</v>
-      </c>
-      <c r="J49" t="s">
-        <v>175</v>
-      </c>
-      <c r="K49">
-        <v>-387</v>
-      </c>
-      <c r="L49" t="s">
-        <v>174</v>
-      </c>
-      <c r="M49">
-        <v>32</v>
-      </c>
-      <c r="N49" t="s">
-        <v>750</v>
-      </c>
-      <c r="O49" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>746</v>
+        <v>980</v>
       </c>
       <c r="B50" t="s">
-        <v>750</v>
-      </c>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>929</v>
-      </c>
-      <c r="F50" t="s">
-        <v>757</v>
-      </c>
-      <c r="G50" t="s">
-        <v>761</v>
-      </c>
-      <c r="H50" t="s">
-        <v>748</v>
-      </c>
-      <c r="I50">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>749</v>
-      </c>
-      <c r="K50">
-        <v>56</v>
-      </c>
-      <c r="L50" t="s">
-        <v>175</v>
-      </c>
-      <c r="M50">
-        <v>-662</v>
-      </c>
-      <c r="N50" t="s">
-        <v>174</v>
-      </c>
-      <c r="O50" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>746</v>
+        <v>978</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>930</v>
-      </c>
-      <c r="D51" t="s">
-        <v>750</v>
-      </c>
-      <c r="E51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>757</v>
-      </c>
-      <c r="G51" t="s">
-        <v>764</v>
-      </c>
-      <c r="H51" t="s">
-        <v>748</v>
-      </c>
-      <c r="I51">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>749</v>
-      </c>
-      <c r="K51">
-        <v>56</v>
-      </c>
-      <c r="L51" t="s">
-        <v>175</v>
-      </c>
-      <c r="M51">
-        <v>-115</v>
-      </c>
-      <c r="N51" t="s">
-        <v>174</v>
-      </c>
-      <c r="O51" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>746</v>
+        <v>981</v>
       </c>
       <c r="B52" t="s">
-        <v>757</v>
-      </c>
-      <c r="C52" t="s">
-        <v>766</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>974</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
         <v>765</v>
       </c>
-      <c r="F52" t="s">
-        <v>748</v>
-      </c>
-      <c r="G52">
-        <v>21</v>
-      </c>
-      <c r="H52" t="s">
-        <v>749</v>
-      </c>
-      <c r="I52">
-        <v>56</v>
-      </c>
-      <c r="J52" t="s">
-        <v>175</v>
-      </c>
-      <c r="K52">
-        <v>-206</v>
-      </c>
-      <c r="L52" t="s">
-        <v>174</v>
-      </c>
-      <c r="M52">
-        <v>45</v>
-      </c>
-      <c r="N52" t="s">
-        <v>750</v>
-      </c>
-      <c r="O52" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" t="s">
-        <v>746</v>
-      </c>
-      <c r="B53" t="s">
-        <v>750</v>
-      </c>
-      <c r="C53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" t="s">
-        <v>757</v>
-      </c>
-      <c r="E53" t="s">
-        <v>769</v>
-      </c>
-      <c r="F53" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" t="s">
-        <v>767</v>
-      </c>
-      <c r="H53" t="s">
-        <v>748</v>
-      </c>
-      <c r="I53">
-        <v>21</v>
-      </c>
-      <c r="J53" t="s">
-        <v>749</v>
-      </c>
-      <c r="K53">
-        <v>56</v>
-      </c>
-      <c r="L53" t="s">
-        <v>175</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-      <c r="N53" t="s">
-        <v>174</v>
-      </c>
-      <c r="O53" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="B55" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>746</v>
       </c>
@@ -25310,238 +27310,259 @@
         <v>748</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:11">
       <c r="C59">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>931</v>
+        <v>982</v>
       </c>
       <c r="E59">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F59">
-        <v>332</v>
+        <v>2</v>
+      </c>
+      <c r="G59" t="s">
+        <v>769</v>
       </c>
       <c r="J59">
+        <v>56</v>
+      </c>
+      <c r="K59">
         <v>21</v>
       </c>
-      <c r="K59">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:11">
       <c r="C60">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>932</v>
+        <v>973</v>
       </c>
       <c r="E60">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F60">
-        <v>425</v>
+        <v>-206</v>
+      </c>
+      <c r="G60" t="s">
+        <v>766</v>
       </c>
       <c r="J60">
+        <v>56</v>
+      </c>
+      <c r="K60">
         <v>21</v>
       </c>
-      <c r="K60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:11">
       <c r="C61">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="E61">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F61">
-        <v>513</v>
+        <v>-387</v>
+      </c>
+      <c r="G61" t="s">
+        <v>758</v>
       </c>
       <c r="J61">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K61">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="C62">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D62" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="E62">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F62">
-        <v>585</v>
+        <v>-534</v>
       </c>
       <c r="J62">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="K62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="C63">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E63">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F63">
-        <v>691</v>
+        <v>-662</v>
+      </c>
+      <c r="G63" t="s">
+        <v>761</v>
       </c>
       <c r="J63">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="K63">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="C64">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="E64">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="F64">
-        <v>382</v>
+        <v>-771</v>
       </c>
       <c r="J64">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="K64">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="3:11">
       <c r="C65">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="E65">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="F65">
-        <v>378</v>
+        <v>-766</v>
       </c>
       <c r="J65">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="K65">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="3:11">
       <c r="C66">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E66">
-        <v>237</v>
+        <v>581</v>
       </c>
       <c r="F66">
-        <v>456</v>
+        <v>-115</v>
+      </c>
+      <c r="G66" t="s">
+        <v>764</v>
       </c>
       <c r="J66">
+        <v>56</v>
+      </c>
+      <c r="K66">
         <v>21</v>
-      </c>
-      <c r="K66">
-        <v>56</v>
       </c>
     </row>
     <row r="67" spans="3:11">
       <c r="C67">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="E67">
-        <v>284</v>
+        <v>539</v>
       </c>
       <c r="F67">
-        <v>458</v>
+        <v>96</v>
       </c>
       <c r="J67">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="K67">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" spans="3:11">
-      <c r="C68">
-        <v>47</v>
-      </c>
-      <c r="D68" t="s">
-        <v>940</v>
-      </c>
-      <c r="E68">
-        <v>235</v>
-      </c>
-      <c r="F68">
-        <v>541</v>
-      </c>
-      <c r="J68">
-        <v>22</v>
-      </c>
-      <c r="K68">
-        <v>57</v>
+      <c r="C68" s="128">
+        <v>10</v>
+      </c>
+      <c r="D68" s="128" t="s">
+        <v>960</v>
+      </c>
+      <c r="E68" s="128">
+        <v>248</v>
+      </c>
+      <c r="F68" s="128">
+        <v>947</v>
+      </c>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="128">
+        <v>65</v>
+      </c>
+      <c r="K68" s="128">
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="3:11">
-      <c r="C69">
-        <v>52</v>
-      </c>
-      <c r="D69" t="s">
-        <v>941</v>
-      </c>
-      <c r="E69">
-        <v>283</v>
-      </c>
-      <c r="F69">
-        <v>542</v>
-      </c>
-      <c r="J69">
-        <v>27</v>
-      </c>
-      <c r="K69">
-        <v>54</v>
+      <c r="C69" s="128">
+        <v>10</v>
+      </c>
+      <c r="D69" s="128" t="s">
+        <v>927</v>
+      </c>
+      <c r="E69" s="128">
+        <v>669</v>
+      </c>
+      <c r="F69" s="128">
+        <v>77</v>
+      </c>
+      <c r="G69" s="128"/>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="128">
+        <v>56</v>
+      </c>
+      <c r="K69" s="128">
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="3:11">
       <c r="C70">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="E70">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="F70">
-        <v>217</v>
+        <v>923</v>
       </c>
       <c r="J70">
         <v>65</v>
@@ -25552,356 +27573,397 @@
     </row>
     <row r="71" spans="3:11">
       <c r="C71">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D71" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="E71">
-        <v>463</v>
+        <v>183</v>
       </c>
       <c r="F71">
-        <v>214</v>
+        <v>1032</v>
       </c>
       <c r="J71">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K71">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="3:11">
       <c r="C72">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="E72">
-        <v>576</v>
+        <v>283</v>
       </c>
       <c r="F72">
-        <v>216</v>
+        <v>1035</v>
       </c>
       <c r="J72">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K72">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="3:11">
       <c r="C73">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="E73">
-        <v>678</v>
+        <v>514</v>
       </c>
       <c r="F73">
-        <v>359</v>
+        <v>1036</v>
       </c>
       <c r="J73">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K73">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="3:11">
       <c r="C74">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="E74">
-        <v>727</v>
+        <v>595</v>
       </c>
       <c r="F74">
-        <v>360</v>
+        <v>921</v>
       </c>
       <c r="J74">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K74">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="3:11">
       <c r="C75">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="D75" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="E75">
-        <v>678</v>
+        <v>625</v>
       </c>
       <c r="F75">
-        <v>457</v>
+        <v>1036</v>
       </c>
       <c r="J75">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K75">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="3:11">
       <c r="C76">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="E76">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="F76">
-        <v>456</v>
+        <v>1038</v>
       </c>
       <c r="J76">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K76">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="3:11">
       <c r="C77">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>949</v>
+        <v>975</v>
       </c>
       <c r="E77">
-        <v>680</v>
+        <v>851</v>
       </c>
       <c r="F77">
-        <v>540</v>
+        <v>918</v>
       </c>
       <c r="J77">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K77">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="3:11">
       <c r="C78">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>950</v>
+        <v>979</v>
       </c>
       <c r="E78">
-        <v>725</v>
+        <v>845</v>
       </c>
       <c r="F78">
-        <v>537</v>
+        <v>1036</v>
       </c>
       <c r="J78">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K78">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="3:11">
       <c r="C79">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D79" t="s">
-        <v>951</v>
+        <v>988</v>
       </c>
       <c r="E79">
-        <v>908</v>
+        <v>527</v>
       </c>
       <c r="F79">
-        <v>324</v>
+        <v>1186</v>
+      </c>
+      <c r="G79" t="s">
+        <v>826</v>
       </c>
       <c r="J79">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="K79">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="3:11">
       <c r="C80">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="E80">
-        <v>909</v>
+        <v>656</v>
       </c>
       <c r="F80">
-        <v>409</v>
+        <v>1099</v>
       </c>
       <c r="J80">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K80">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="3:11">
       <c r="C81">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="E81">
-        <v>909</v>
+        <v>829</v>
       </c>
       <c r="F81">
-        <v>493</v>
+        <v>1169</v>
+      </c>
+      <c r="G81" t="s">
+        <v>824</v>
       </c>
       <c r="J81">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="K81">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" spans="3:11">
       <c r="C82">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>954</v>
+        <v>971</v>
       </c>
       <c r="E82">
-        <v>908</v>
+        <v>243</v>
       </c>
       <c r="F82">
-        <v>571</v>
+        <v>1335</v>
+      </c>
+      <c r="G82" t="s">
+        <v>830</v>
       </c>
       <c r="J82">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="K82">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="3:11">
       <c r="C83">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>955</v>
+        <v>967</v>
       </c>
       <c r="E83">
-        <v>907</v>
+        <v>233</v>
       </c>
       <c r="F83">
-        <v>671</v>
+        <v>1213</v>
+      </c>
+      <c r="G83" t="s">
+        <v>820</v>
       </c>
       <c r="J83">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="K83">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="3:11">
       <c r="C84">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D84" t="s">
-        <v>956</v>
+        <v>968</v>
       </c>
       <c r="E84">
-        <v>433</v>
+        <v>257</v>
       </c>
       <c r="F84">
-        <v>411</v>
+        <v>1051</v>
+      </c>
+      <c r="G84" t="s">
+        <v>822</v>
       </c>
       <c r="J84">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="K84">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" spans="3:11">
       <c r="C85">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>957</v>
+        <v>970</v>
       </c>
       <c r="E85">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="F85">
-        <v>411</v>
+        <v>1221</v>
+      </c>
+      <c r="G85" t="s">
+        <v>828</v>
       </c>
       <c r="J85">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="K85">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" spans="3:11">
       <c r="C86">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D86" t="s">
-        <v>958</v>
+        <v>983</v>
       </c>
       <c r="E86">
-        <v>432</v>
+        <v>65</v>
       </c>
       <c r="F86">
-        <v>511</v>
+        <v>839</v>
       </c>
       <c r="J86">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K86">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="3:11">
       <c r="C87">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D87" t="s">
-        <v>959</v>
+        <v>984</v>
       </c>
       <c r="E87">
-        <v>481</v>
+        <v>269</v>
       </c>
       <c r="F87">
-        <v>513</v>
+        <v>838</v>
       </c>
       <c r="J87">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K87">
-        <v>60</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11">
+      <c r="C88">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>985</v>
+      </c>
+      <c r="E88">
+        <v>559</v>
+      </c>
+      <c r="F88">
+        <v>857</v>
+      </c>
+      <c r="J88">
+        <v>65</v>
+      </c>
+      <c r="K88">
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="3:11">
+      <c r="C89">
+        <v>31</v>
+      </c>
       <c r="D89" t="s">
-        <v>799</v>
+        <v>986</v>
       </c>
       <c r="E89">
-        <v>956</v>
+        <v>988</v>
       </c>
       <c r="F89">
-        <v>39</v>
+        <v>754</v>
       </c>
       <c r="G89" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="J89">
         <v>74</v>
@@ -25911,88 +27973,120 @@
       </c>
     </row>
     <row r="90" spans="3:11">
+      <c r="C90">
+        <v>32</v>
+      </c>
       <c r="D90" t="s">
-        <v>801</v>
+        <v>955</v>
       </c>
       <c r="E90">
-        <v>52</v>
+        <v>907</v>
       </c>
       <c r="F90">
-        <v>80</v>
-      </c>
-      <c r="G90" t="s">
-        <v>802</v>
+        <v>671</v>
       </c>
       <c r="J90">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K90">
-        <v>21</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="3:11">
+      <c r="C91">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>954</v>
+      </c>
+      <c r="E91">
+        <v>908</v>
+      </c>
+      <c r="F91">
+        <v>571</v>
+      </c>
+      <c r="J91">
+        <v>17</v>
+      </c>
+      <c r="K91">
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="3:11">
+      <c r="C92">
+        <v>34</v>
+      </c>
       <c r="D92" t="s">
-        <v>803</v>
+        <v>953</v>
       </c>
       <c r="E92">
-        <v>65</v>
+        <v>909</v>
       </c>
       <c r="F92">
-        <v>839</v>
+        <v>493</v>
       </c>
       <c r="J92">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="K92">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="3:11">
+      <c r="C93">
+        <v>35</v>
+      </c>
       <c r="D93" t="s">
-        <v>804</v>
+        <v>952</v>
       </c>
       <c r="E93">
-        <v>269</v>
+        <v>909</v>
       </c>
       <c r="F93">
-        <v>838</v>
+        <v>409</v>
       </c>
       <c r="J93">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="K93">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="3:11">
+      <c r="C94">
+        <v>36</v>
+      </c>
       <c r="D94" t="s">
-        <v>805</v>
+        <v>951</v>
       </c>
       <c r="E94">
-        <v>559</v>
+        <v>908</v>
       </c>
       <c r="F94">
-        <v>857</v>
+        <v>324</v>
       </c>
       <c r="J94">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="K94">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="3:11">
+      <c r="C95">
+        <v>37</v>
+      </c>
       <c r="D95" t="s">
-        <v>806</v>
+        <v>987</v>
       </c>
       <c r="E95">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="F95">
-        <v>754</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="J95">
         <v>74</v>
@@ -26001,388 +28095,605 @@
         <v>21</v>
       </c>
     </row>
+    <row r="96" spans="3:11">
+      <c r="C96">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>944</v>
+      </c>
+      <c r="E96">
+        <v>576</v>
+      </c>
+      <c r="F96">
+        <v>216</v>
+      </c>
+      <c r="J96">
+        <v>56</v>
+      </c>
+      <c r="K96">
+        <v>25</v>
+      </c>
+    </row>
     <row r="97" spans="3:11">
       <c r="C97">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="E97">
-        <v>248</v>
+        <v>463</v>
       </c>
       <c r="F97">
-        <v>947</v>
+        <v>214</v>
       </c>
       <c r="J97">
+        <v>54</v>
+      </c>
+      <c r="K97">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11">
+      <c r="C98" s="128">
+        <v>40</v>
+      </c>
+      <c r="D98" s="128" t="s">
+        <v>942</v>
+      </c>
+      <c r="E98" s="128">
+        <v>284</v>
+      </c>
+      <c r="F98" s="128">
+        <v>217</v>
+      </c>
+      <c r="G98" s="128"/>
+      <c r="H98" s="128"/>
+      <c r="I98" s="128"/>
+      <c r="J98" s="128">
         <v>65</v>
       </c>
-      <c r="K97">
+      <c r="K98" s="128">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="3:11">
-      <c r="C98">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s">
-        <v>961</v>
-      </c>
-      <c r="E98">
-        <v>23</v>
-      </c>
-      <c r="F98">
-        <v>923</v>
-      </c>
-      <c r="J98">
-        <v>65</v>
-      </c>
-      <c r="K98">
-        <v>18</v>
-      </c>
-    </row>
     <row r="99" spans="3:11">
-      <c r="C99">
-        <v>15</v>
-      </c>
-      <c r="D99" t="s">
-        <v>962</v>
-      </c>
-      <c r="E99">
-        <v>595</v>
-      </c>
-      <c r="F99">
-        <v>921</v>
-      </c>
-      <c r="J99">
-        <v>65</v>
-      </c>
-      <c r="K99">
-        <v>18</v>
+      <c r="C99" s="128">
+        <v>42</v>
+      </c>
+      <c r="D99" s="128" t="s">
+        <v>931</v>
+      </c>
+      <c r="E99" s="128">
+        <v>41</v>
+      </c>
+      <c r="F99" s="128">
+        <v>332</v>
+      </c>
+      <c r="G99" s="128"/>
+      <c r="H99" s="128"/>
+      <c r="I99" s="128"/>
+      <c r="J99" s="128">
+        <v>21</v>
+      </c>
+      <c r="K99" s="128">
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="3:11">
       <c r="C100">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="E100">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="F100">
-        <v>1032</v>
+        <v>425</v>
       </c>
       <c r="J100">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K100">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="3:11">
       <c r="C101">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>964</v>
+        <v>933</v>
       </c>
       <c r="E101">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="F101">
-        <v>1035</v>
+        <v>513</v>
       </c>
       <c r="J101">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="K101">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="3:11">
       <c r="C102">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="E102">
-        <v>514</v>
+        <v>43</v>
       </c>
       <c r="F102">
-        <v>1036</v>
+        <v>585</v>
       </c>
       <c r="J102">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="K102">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="3:11">
       <c r="C103">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D103" t="s">
-        <v>966</v>
+        <v>935</v>
       </c>
       <c r="E103">
-        <v>625</v>
+        <v>39</v>
       </c>
       <c r="F103">
-        <v>1036</v>
+        <v>691</v>
       </c>
       <c r="J103">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="K103">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="3:11">
+      <c r="C104">
+        <v>47</v>
+      </c>
       <c r="D104" t="s">
-        <v>815</v>
+        <v>940</v>
       </c>
       <c r="E104">
-        <v>740</v>
+        <v>235</v>
       </c>
       <c r="F104">
-        <v>1038</v>
+        <v>541</v>
       </c>
       <c r="J104">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="K104">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="3:11">
+      <c r="C105">
+        <v>48</v>
+      </c>
       <c r="D105" t="s">
-        <v>816</v>
+        <v>938</v>
       </c>
       <c r="E105">
-        <v>851</v>
+        <v>237</v>
       </c>
       <c r="F105">
-        <v>918</v>
+        <v>456</v>
       </c>
       <c r="J105">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="K105">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="3:11">
+      <c r="C106">
+        <v>49</v>
+      </c>
       <c r="D106" t="s">
-        <v>817</v>
+        <v>936</v>
       </c>
       <c r="E106">
-        <v>845</v>
+        <v>238</v>
       </c>
       <c r="F106">
-        <v>1036</v>
+        <v>382</v>
       </c>
       <c r="J106">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="K106">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="3:11">
+      <c r="C107">
+        <v>50</v>
+      </c>
       <c r="D107" t="s">
-        <v>818</v>
+        <v>937</v>
       </c>
       <c r="E107">
-        <v>656</v>
+        <v>281</v>
       </c>
       <c r="F107">
-        <v>1099</v>
+        <v>378</v>
       </c>
       <c r="J107">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="K107">
-        <v>18</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="C108">
+        <v>51</v>
+      </c>
+      <c r="D108" t="s">
+        <v>939</v>
+      </c>
+      <c r="E108">
+        <v>284</v>
+      </c>
+      <c r="F108">
+        <v>458</v>
+      </c>
+      <c r="J108">
+        <v>24</v>
+      </c>
+      <c r="K108">
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="3:11">
       <c r="C109">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D109" t="s">
-        <v>967</v>
+        <v>941</v>
       </c>
       <c r="E109">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="F109">
-        <v>1213</v>
-      </c>
-      <c r="G109" t="s">
-        <v>820</v>
+        <v>542</v>
       </c>
       <c r="J109">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="K109">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="3:11">
       <c r="C110">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D110" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="E110">
-        <v>257</v>
+        <v>432</v>
       </c>
       <c r="F110">
-        <v>1051</v>
-      </c>
-      <c r="G110" t="s">
-        <v>822</v>
+        <v>511</v>
       </c>
       <c r="J110">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K110">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="3:11">
       <c r="C111">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D111" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="E111">
-        <v>829</v>
+        <v>433</v>
       </c>
       <c r="F111">
-        <v>1169</v>
-      </c>
-      <c r="G111" t="s">
-        <v>824</v>
+        <v>411</v>
       </c>
       <c r="J111">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K111">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="3:11">
-      <c r="C112" t="s">
-        <v>974</v>
+      <c r="C112">
+        <v>55</v>
       </c>
       <c r="D112" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="E112">
-        <v>527</v>
+        <v>482</v>
       </c>
       <c r="F112">
-        <v>1186</v>
-      </c>
-      <c r="G112" t="s">
-        <v>826</v>
+        <v>411</v>
       </c>
       <c r="J112">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K112">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="3:11">
-      <c r="C113" t="s">
-        <v>975</v>
+      <c r="C113">
+        <v>56</v>
       </c>
       <c r="D113" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
       <c r="E113">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="F113">
-        <v>1221</v>
-      </c>
-      <c r="G113" t="s">
-        <v>828</v>
+        <v>513</v>
       </c>
       <c r="J113">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="K113">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="3:11">
       <c r="C114">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D114" t="s">
+        <v>949</v>
+      </c>
+      <c r="E114">
+        <v>680</v>
+      </c>
+      <c r="F114">
+        <v>540</v>
+      </c>
+      <c r="J114">
+        <v>17</v>
+      </c>
+      <c r="K114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11">
+      <c r="C115">
+        <v>58</v>
+      </c>
+      <c r="D115" t="s">
+        <v>947</v>
+      </c>
+      <c r="E115">
+        <v>678</v>
+      </c>
+      <c r="F115">
+        <v>457</v>
+      </c>
+      <c r="J115">
+        <v>17</v>
+      </c>
+      <c r="K115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11">
+      <c r="C116">
+        <v>59</v>
+      </c>
+      <c r="D116" t="s">
+        <v>945</v>
+      </c>
+      <c r="E116">
+        <v>678</v>
+      </c>
+      <c r="F116">
+        <v>359</v>
+      </c>
+      <c r="J116">
+        <v>17</v>
+      </c>
+      <c r="K116">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11">
+      <c r="C117">
+        <v>60</v>
+      </c>
+      <c r="D117" t="s">
+        <v>946</v>
+      </c>
+      <c r="E117">
+        <v>727</v>
+      </c>
+      <c r="F117">
+        <v>360</v>
+      </c>
+      <c r="J117">
+        <v>17</v>
+      </c>
+      <c r="K117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11">
+      <c r="C118">
+        <v>61</v>
+      </c>
+      <c r="D118" t="s">
+        <v>948</v>
+      </c>
+      <c r="E118">
+        <v>727</v>
+      </c>
+      <c r="F118">
+        <v>456</v>
+      </c>
+      <c r="J118">
+        <v>17</v>
+      </c>
+      <c r="K118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11">
+      <c r="C119">
+        <v>62</v>
+      </c>
+      <c r="D119" t="s">
+        <v>950</v>
+      </c>
+      <c r="E119">
+        <v>725</v>
+      </c>
+      <c r="F119">
+        <v>537</v>
+      </c>
+      <c r="J119">
+        <v>17</v>
+      </c>
+      <c r="K119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="4:11">
+      <c r="D131" t="s">
+        <v>801</v>
+      </c>
+      <c r="E131">
+        <v>52</v>
+      </c>
+      <c r="F131">
+        <v>80</v>
+      </c>
+      <c r="G131" t="s">
+        <v>802</v>
+      </c>
+      <c r="J131">
+        <v>74</v>
+      </c>
+      <c r="K131">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="4:11">
+      <c r="D132" t="s">
+        <v>831</v>
+      </c>
+      <c r="E132">
+        <v>799</v>
+      </c>
+      <c r="F132">
+        <v>1340</v>
+      </c>
+      <c r="G132" t="s">
+        <v>832</v>
+      </c>
+      <c r="J132">
+        <v>74</v>
+      </c>
+      <c r="K132">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="5:15">
+      <c r="N147" t="s">
+        <v>750</v>
+      </c>
+      <c r="O147" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="148" spans="5:15">
+      <c r="N148" t="s">
+        <v>174</v>
+      </c>
+      <c r="O148" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="149" spans="5:15">
+      <c r="N149" t="s">
+        <v>174</v>
+      </c>
+      <c r="O149" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="150" spans="5:15">
+      <c r="N150" t="s">
+        <v>750</v>
+      </c>
+      <c r="O150" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="151" spans="5:15">
+      <c r="N151" t="s">
+        <v>174</v>
+      </c>
+      <c r="O151" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="156" spans="5:15">
+      <c r="E156" t="s">
+        <v>174</v>
+      </c>
+      <c r="F156" t="s">
+        <v>175</v>
+      </c>
+      <c r="J156" t="s">
+        <v>749</v>
+      </c>
+      <c r="K156" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
         <v>972</v>
       </c>
-      <c r="E114">
-        <v>243</v>
-      </c>
-      <c r="F114">
-        <v>1335</v>
-      </c>
-      <c r="G114" t="s">
-        <v>830</v>
-      </c>
-      <c r="J114">
-        <v>74</v>
-      </c>
-      <c r="K114">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="3:11">
-      <c r="D115" t="s">
-        <v>831</v>
-      </c>
-      <c r="E115">
-        <v>799</v>
-      </c>
-      <c r="F115">
-        <v>1340</v>
-      </c>
-      <c r="G115" t="s">
-        <v>832</v>
-      </c>
-      <c r="J115">
-        <v>74</v>
-      </c>
-      <c r="K115">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="B161" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+    </row>
+    <row r="177" spans="1:2">
+      <c r="B177" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>900</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="C59:K126">
+    <sortCondition ref="C59:C126"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -26391,4 +28702,522 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1" t="s">
+        <v>993</v>
+      </c>
+      <c r="E1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="B99" t="s">
+        <v>993</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="B100" t="s">
+        <v>993</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1084</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1088</v>
+      </c>
+      <c r="N100" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="B101" t="s">
+        <v>993</v>
+      </c>
+      <c r="C101" t="s">
+        <v>906</v>
+      </c>
+      <c r="D101" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="B102" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="B103" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="B104" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="B105" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/full-data-iday14.xlsx
+++ b/full-data-iday14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="2160" windowWidth="14360" windowHeight="17560" tabRatio="500" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="17560" tabRatio="500" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="current" sheetId="1" r:id="rId1"/>
@@ -4217,7 +4217,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="457">
+  <cellStyleXfs count="577">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4289,6 +4289,126 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -5238,7 +5358,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="457">
+  <cellStyles count="577">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -5466,6 +5586,66 @@
     <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -5693,6 +5873,66 @@
     <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Output" xfId="70" builtinId="21"/>
@@ -6026,8 +6266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR105"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11276,7 +11516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AB149"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:I70"/>
     </sheetView>
   </sheetViews>
@@ -26312,7 +26552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X179"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="D36" workbookViewId="0">
       <selection activeCell="C58" sqref="C58:G119"/>
     </sheetView>
   </sheetViews>
@@ -28709,7 +28949,7 @@
   <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N108"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
